--- a/TP/TP1.xlsx
+++ b/TP/TP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/4K3/TP1/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682978A0-539E-0A43-9575-863B51153107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD6F9C9-7B1C-D448-A54F-90151AE86118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serie de Datos" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="Lambda">'Conexiones a un mismo Host'!$C$28</definedName>
     <definedName name="Media">'Conexiones a un mismo Host'!$C$27</definedName>
     <definedName name="mismoservicio" localSheetId="0">'Serie de Datos'!$A$5:$AA$11854</definedName>
+    <definedName name="Muestra" localSheetId="2">'Conexiones al mismo Servicio'!$I$10</definedName>
     <definedName name="N" localSheetId="2">'[1]Conexiones al mismo Host'!$C$25</definedName>
     <definedName name="N">'Conexiones a un mismo Host'!$C$25</definedName>
     <definedName name="serviciomismo">'Serie de Datos'!$Q$5:$Q$204</definedName>
@@ -1049,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1235,9 +1236,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3810,7 +3808,7 @@
       <c r="E5">
         <v>2425</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="4">
         <f>+D5+E5</f>
         <v>2543</v>
       </c>
@@ -3894,7 +3892,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="4">
         <f t="shared" ref="F6:F69" si="0">+D6+E6</f>
         <v>44</v>
       </c>
@@ -3978,7 +3976,7 @@
       <c r="E7">
         <v>44</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4062,7 +4060,7 @@
       <c r="E8">
         <v>55</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -4146,7 +4144,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4230,7 +4228,7 @@
       <c r="E10">
         <v>8314</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
@@ -4314,7 +4312,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4398,7 +4396,7 @@
       <c r="E12">
         <v>44</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4482,7 +4480,7 @@
       <c r="E13">
         <v>52</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -4566,7 +4564,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
@@ -4650,7 +4648,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4734,7 +4732,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4818,7 +4816,7 @@
       <c r="E17">
         <v>97</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -4902,7 +4900,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -4986,7 +4984,7 @@
       <c r="E19">
         <v>44</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -5070,7 +5068,7 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5154,7 +5152,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5238,7 +5236,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5322,7 +5320,7 @@
       <c r="E23">
         <v>44</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -5406,7 +5404,7 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5490,7 +5488,7 @@
       <c r="E25">
         <v>44</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5658,7 +5656,7 @@
       <c r="E27">
         <v>619</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>859</v>
       </c>
@@ -5742,7 +5740,7 @@
       <c r="E28">
         <v>93</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -5826,7 +5824,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5910,7 +5908,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -5994,7 +5992,7 @@
       <c r="E31">
         <v>8314</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="4">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
@@ -6078,7 +6076,7 @@
       <c r="E32">
         <v>593</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>749</v>
       </c>
@@ -6162,7 +6160,7 @@
       <c r="E33">
         <v>43</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -6246,7 +6244,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6330,7 +6328,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6414,7 +6412,7 @@
       <c r="E36">
         <v>93</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="4">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
@@ -6498,7 +6496,7 @@
       <c r="E37">
         <v>44</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -6582,7 +6580,7 @@
       <c r="E38">
         <v>146</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="4">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
@@ -6666,7 +6664,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="4">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
@@ -6750,7 +6748,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="4">
         <f t="shared" si="0"/>
         <v>16787</v>
       </c>
@@ -6834,7 +6832,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="E42">
         <v>44</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -7002,7 +7000,7 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7086,7 +7084,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7170,7 +7168,7 @@
       <c r="E45">
         <v>83</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -7254,7 +7252,7 @@
       <c r="E46">
         <v>8314</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="4">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
@@ -7338,7 +7336,7 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="4">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
@@ -7422,7 +7420,7 @@
       <c r="E48">
         <v>81</v>
       </c>
-      <c r="F48" s="71">
+      <c r="F48" s="4">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -7506,7 +7504,7 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="71">
+      <c r="F49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7590,7 +7588,7 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="71">
+      <c r="F50" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7674,7 +7672,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7758,7 +7756,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -7842,7 +7840,7 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7926,7 +7924,7 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8010,7 +8008,7 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="4">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
@@ -8094,7 +8092,7 @@
       <c r="E56">
         <v>93</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="4">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
@@ -8178,7 +8176,7 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8262,7 +8260,7 @@
       <c r="E58">
         <v>8314</v>
       </c>
-      <c r="F58" s="71">
+      <c r="F58" s="4">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
@@ -8346,7 +8344,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59" s="4">
         <f t="shared" si="0"/>
         <v>2194619</v>
       </c>
@@ -8430,7 +8428,7 @@
       <c r="E60">
         <v>36</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -8514,7 +8512,7 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="4">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
@@ -8598,7 +8596,7 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="4">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
@@ -8682,7 +8680,7 @@
       <c r="E63">
         <v>174</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="4">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
@@ -8766,7 +8764,7 @@
       <c r="E64">
         <v>130</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="4">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
@@ -8850,7 +8848,7 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -8934,7 +8932,7 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -9018,7 +9016,7 @@
       <c r="E67">
         <v>8314</v>
       </c>
-      <c r="F67" s="71">
+      <c r="F67" s="4">
         <f t="shared" si="0"/>
         <v>62854</v>
       </c>
@@ -9102,7 +9100,7 @@
       <c r="E68">
         <v>114</v>
       </c>
-      <c r="F68" s="71">
+      <c r="F68" s="4">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
@@ -9186,7 +9184,7 @@
       <c r="E69">
         <v>225</v>
       </c>
-      <c r="F69" s="71">
+      <c r="F69" s="4">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
@@ -9270,7 +9268,7 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="71">
+      <c r="F70" s="4">
         <f t="shared" ref="F70:F133" si="1">+D70+E70</f>
         <v>0</v>
       </c>
@@ -9354,7 +9352,7 @@
       <c r="E71">
         <v>53</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -9438,7 +9436,7 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="71">
+      <c r="F72" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9522,7 +9520,7 @@
       <c r="E73">
         <v>15</v>
       </c>
-      <c r="F73" s="71">
+      <c r="F73" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -9606,7 +9604,7 @@
       <c r="E74">
         <v>293</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="4">
         <f t="shared" si="1"/>
         <v>2892</v>
       </c>
@@ -9690,7 +9688,7 @@
       <c r="E75">
         <v>593</v>
       </c>
-      <c r="F75" s="71">
+      <c r="F75" s="4">
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
@@ -9774,7 +9772,7 @@
       <c r="E76">
         <v>174</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="4">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
@@ -9858,7 +9856,7 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="4">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
@@ -9942,7 +9940,7 @@
       <c r="E78">
         <v>138</v>
       </c>
-      <c r="F78" s="71">
+      <c r="F78" s="4">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
@@ -10026,7 +10024,7 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="71">
+      <c r="F79" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10110,7 +10108,7 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" s="71">
+      <c r="F80" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10194,7 +10192,7 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10278,7 +10276,7 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="71">
+      <c r="F82" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10362,7 +10360,7 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="71">
+      <c r="F83" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10446,7 +10444,7 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="71">
+      <c r="F84" s="4">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
@@ -10530,7 +10528,7 @@
       <c r="E85">
         <v>7300</v>
       </c>
-      <c r="F85" s="71">
+      <c r="F85" s="4">
         <f t="shared" si="1"/>
         <v>45260</v>
       </c>
@@ -10614,7 +10612,7 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="71">
+      <c r="F86" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10698,7 +10696,7 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="71">
+      <c r="F87" s="4">
         <f t="shared" si="1"/>
         <v>283618</v>
       </c>
@@ -10782,7 +10780,7 @@
       <c r="E88">
         <v>8314</v>
       </c>
-      <c r="F88" s="71">
+      <c r="F88" s="4">
         <f t="shared" si="1"/>
         <v>62854</v>
       </c>
@@ -10866,7 +10864,7 @@
       <c r="E89">
         <v>489</v>
       </c>
-      <c r="F89" s="71">
+      <c r="F89" s="4">
         <f t="shared" si="1"/>
         <v>718</v>
       </c>
@@ -10950,7 +10948,7 @@
       <c r="E90">
         <v>57</v>
       </c>
-      <c r="F90" s="71">
+      <c r="F90" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -11034,7 +11032,7 @@
       <c r="E91">
         <v>622</v>
       </c>
-      <c r="F91" s="71">
+      <c r="F91" s="4">
         <f t="shared" si="1"/>
         <v>862</v>
       </c>
@@ -11118,7 +11116,7 @@
       <c r="E92">
         <v>44</v>
       </c>
-      <c r="F92" s="71">
+      <c r="F92" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -11202,7 +11200,7 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="71">
+      <c r="F93" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -11286,7 +11284,7 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="71">
+      <c r="F94" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11370,7 +11368,7 @@
       <c r="E95">
         <v>93</v>
       </c>
-      <c r="F95" s="71">
+      <c r="F95" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -11454,7 +11452,7 @@
       <c r="E96">
         <v>44</v>
       </c>
-      <c r="F96" s="71">
+      <c r="F96" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -11538,7 +11536,7 @@
       <c r="E97">
         <v>44</v>
       </c>
-      <c r="F97" s="71">
+      <c r="F97" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -11622,7 +11620,7 @@
       <c r="E98">
         <v>93</v>
       </c>
-      <c r="F98" s="71">
+      <c r="F98" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -11706,7 +11704,7 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="71">
+      <c r="F99" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11790,7 +11788,7 @@
       <c r="E100">
         <v>282</v>
       </c>
-      <c r="F100" s="71">
+      <c r="F100" s="4">
         <f t="shared" si="1"/>
         <v>617</v>
       </c>
@@ -11874,7 +11872,7 @@
       <c r="E101">
         <v>93</v>
       </c>
-      <c r="F101" s="71">
+      <c r="F101" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -11958,7 +11956,7 @@
       <c r="E102">
         <v>8314</v>
       </c>
-      <c r="F102" s="71">
+      <c r="F102" s="4">
         <f t="shared" si="1"/>
         <v>62854</v>
       </c>
@@ -12042,7 +12040,7 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="71">
+      <c r="F103" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12126,7 +12124,7 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" s="71">
+      <c r="F104" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -12210,7 +12208,7 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105" s="71">
+      <c r="F105" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12294,7 +12292,7 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106" s="71">
+      <c r="F106" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12378,7 +12376,7 @@
       <c r="E107">
         <v>601</v>
       </c>
-      <c r="F107" s="71">
+      <c r="F107" s="4">
         <f t="shared" si="1"/>
         <v>765</v>
       </c>
@@ -12462,7 +12460,7 @@
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="71">
+      <c r="F108" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -12546,7 +12544,7 @@
       <c r="E109">
         <v>44</v>
       </c>
-      <c r="F109" s="71">
+      <c r="F109" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -12630,7 +12628,7 @@
       <c r="E110">
         <v>44</v>
       </c>
-      <c r="F110" s="71">
+      <c r="F110" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -12714,7 +12712,7 @@
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111" s="71">
+      <c r="F111" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12798,7 +12796,7 @@
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112" s="71">
+      <c r="F112" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -12882,7 +12880,7 @@
       <c r="E113">
         <v>2507</v>
       </c>
-      <c r="F113" s="71">
+      <c r="F113" s="4">
         <f t="shared" si="1"/>
         <v>2808</v>
       </c>
@@ -12966,7 +12964,7 @@
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" s="71">
+      <c r="F114" s="4">
         <f t="shared" si="1"/>
         <v>55044</v>
       </c>
@@ -13050,7 +13048,7 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="71">
+      <c r="F115" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13134,7 +13132,7 @@
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116" s="71">
+      <c r="F116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13218,7 +13216,7 @@
       <c r="E117">
         <v>93</v>
       </c>
-      <c r="F117" s="71">
+      <c r="F117" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
@@ -13302,7 +13300,7 @@
       <c r="E118">
         <v>93</v>
       </c>
-      <c r="F118" s="71">
+      <c r="F118" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -13386,7 +13384,7 @@
       <c r="E119">
         <v>93</v>
       </c>
-      <c r="F119" s="71">
+      <c r="F119" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -13470,7 +13468,7 @@
       <c r="E120">
         <v>44</v>
       </c>
-      <c r="F120" s="71">
+      <c r="F120" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -13554,7 +13552,7 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="71">
+      <c r="F121" s="4">
         <f t="shared" si="1"/>
         <v>72564</v>
       </c>
@@ -13638,7 +13636,7 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="71">
+      <c r="F122" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13722,7 +13720,7 @@
       <c r="E123">
         <v>93</v>
       </c>
-      <c r="F123" s="71">
+      <c r="F123" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -13806,7 +13804,7 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" s="71">
+      <c r="F124" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13890,7 +13888,7 @@
       <c r="E125">
         <v>6256</v>
       </c>
-      <c r="F125" s="71">
+      <c r="F125" s="4">
         <f t="shared" si="1"/>
         <v>6601</v>
       </c>
@@ -13974,7 +13972,7 @@
       <c r="E126">
         <v>157</v>
       </c>
-      <c r="F126" s="71">
+      <c r="F126" s="4">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
@@ -14058,7 +14056,7 @@
       <c r="E127">
         <v>2920</v>
       </c>
-      <c r="F127" s="71">
+      <c r="F127" s="4">
         <f t="shared" si="1"/>
         <v>48180</v>
       </c>
@@ -14142,7 +14140,7 @@
       <c r="E128">
         <v>174</v>
       </c>
-      <c r="F128" s="71">
+      <c r="F128" s="4">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
@@ -14226,7 +14224,7 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129" s="71">
+      <c r="F129" s="4">
         <f t="shared" si="1"/>
         <v>1032</v>
       </c>
@@ -14310,7 +14308,7 @@
       <c r="E130">
         <v>174</v>
       </c>
-      <c r="F130" s="71">
+      <c r="F130" s="4">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
@@ -14394,7 +14392,7 @@
       <c r="E131">
         <v>44</v>
       </c>
-      <c r="F131" s="71">
+      <c r="F131" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -14478,7 +14476,7 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132" s="71">
+      <c r="F132" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14562,7 +14560,7 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" s="71">
+      <c r="F133" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14646,7 +14644,7 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" s="71">
+      <c r="F134" s="4">
         <f t="shared" ref="F134:F197" si="2">+D134+E134</f>
         <v>12</v>
       </c>
@@ -14730,7 +14728,7 @@
       <c r="E135">
         <v>44</v>
       </c>
-      <c r="F135" s="71">
+      <c r="F135" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -14814,7 +14812,7 @@
       <c r="E136">
         <v>293</v>
       </c>
-      <c r="F136" s="71">
+      <c r="F136" s="4">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
@@ -14898,7 +14896,7 @@
       <c r="E137">
         <v>114</v>
       </c>
-      <c r="F137" s="71">
+      <c r="F137" s="4">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
@@ -14982,7 +14980,7 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="F138" s="71">
+      <c r="F138" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -15066,7 +15064,7 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139" s="71">
+      <c r="F139" s="4">
         <f t="shared" si="2"/>
         <v>56505</v>
       </c>
@@ -15150,7 +15148,7 @@
       <c r="E140">
         <v>15</v>
       </c>
-      <c r="F140" s="71">
+      <c r="F140" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -15234,7 +15232,7 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="F141" s="71">
+      <c r="F141" s="4">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
@@ -15318,7 +15316,7 @@
       <c r="E142">
         <v>174</v>
       </c>
-      <c r="F142" s="71">
+      <c r="F142" s="4">
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
@@ -15402,7 +15400,7 @@
       <c r="E143">
         <v>261</v>
       </c>
-      <c r="F143" s="71">
+      <c r="F143" s="4">
         <f t="shared" si="2"/>
         <v>2860</v>
       </c>
@@ -15486,7 +15484,7 @@
       <c r="E144">
         <v>157</v>
       </c>
-      <c r="F144" s="71">
+      <c r="F144" s="4">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
@@ -15570,7 +15568,7 @@
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="F145" s="71">
+      <c r="F145" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -15654,7 +15652,7 @@
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146" s="71">
+      <c r="F146" s="4">
         <f t="shared" si="2"/>
         <v>56504</v>
       </c>
@@ -15738,7 +15736,7 @@
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" s="71">
+      <c r="F147" s="4">
         <f t="shared" si="2"/>
         <v>283618</v>
       </c>
@@ -15822,7 +15820,7 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148" s="71">
+      <c r="F148" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15906,7 +15904,7 @@
       <c r="E149">
         <v>391</v>
       </c>
-      <c r="F149" s="71">
+      <c r="F149" s="4">
         <f t="shared" si="2"/>
         <v>1441</v>
       </c>
@@ -15990,7 +15988,7 @@
       <c r="E150">
         <v>44</v>
       </c>
-      <c r="F150" s="71">
+      <c r="F150" s="4">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -16074,7 +16072,7 @@
       <c r="E151">
         <v>293</v>
       </c>
-      <c r="F151" s="71">
+      <c r="F151" s="4">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
@@ -16158,7 +16156,7 @@
       <c r="E152">
         <v>8314</v>
       </c>
-      <c r="F152" s="71">
+      <c r="F152" s="4">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
@@ -16242,7 +16240,7 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153" s="71">
+      <c r="F153" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16326,7 +16324,7 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154" s="71">
+      <c r="F154" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16410,7 +16408,7 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="F155" s="71">
+      <c r="F155" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16494,7 +16492,7 @@
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156" s="71">
+      <c r="F156" s="4">
         <f t="shared" si="2"/>
         <v>508</v>
       </c>
@@ -16578,7 +16576,7 @@
       <c r="E157">
         <v>174</v>
       </c>
-      <c r="F157" s="71">
+      <c r="F157" s="4">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
@@ -16662,7 +16660,7 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158" s="71">
+      <c r="F158" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16746,7 +16744,7 @@
       <c r="E159">
         <v>293</v>
       </c>
-      <c r="F159" s="71">
+      <c r="F159" s="4">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
@@ -16830,7 +16828,7 @@
       <c r="E160">
         <v>103</v>
       </c>
-      <c r="F160" s="71">
+      <c r="F160" s="4">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E161">
         <v>44</v>
       </c>
-      <c r="F161" s="71">
+      <c r="F161" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -16998,7 +16996,7 @@
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="F162" s="71">
+      <c r="F162" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17082,7 +17080,7 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" s="71">
+      <c r="F163" s="4">
         <f t="shared" si="2"/>
         <v>56505</v>
       </c>
@@ -17166,7 +17164,7 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" s="71">
+      <c r="F164" s="4">
         <f t="shared" si="2"/>
         <v>72564</v>
       </c>
@@ -17250,7 +17248,7 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165" s="71">
+      <c r="F165" s="4">
         <f t="shared" si="2"/>
         <v>1032</v>
       </c>
@@ -17334,7 +17332,7 @@
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166" s="71">
+      <c r="F166" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17418,7 +17416,7 @@
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167" s="71">
+      <c r="F167" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17502,7 +17500,7 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" s="71">
+      <c r="F168" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17586,7 +17584,7 @@
       <c r="E169">
         <v>44</v>
       </c>
-      <c r="F169" s="71">
+      <c r="F169" s="4">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -17670,7 +17668,7 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" s="71">
+      <c r="F170" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -17754,7 +17752,7 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" s="71">
+      <c r="F171" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17838,7 +17836,7 @@
       <c r="E172">
         <v>74</v>
       </c>
-      <c r="F172" s="71">
+      <c r="F172" s="4">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
@@ -17922,7 +17920,7 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173" s="71">
+      <c r="F173" s="4">
         <f t="shared" si="2"/>
         <v>1032</v>
       </c>
@@ -18006,7 +18004,7 @@
       <c r="E174">
         <v>44</v>
       </c>
-      <c r="F174" s="71">
+      <c r="F174" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -18090,7 +18088,7 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175" s="71">
+      <c r="F175" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18174,7 +18172,7 @@
       <c r="E176">
         <v>597</v>
       </c>
-      <c r="F176" s="71">
+      <c r="F176" s="4">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
@@ -18258,7 +18256,7 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177" s="71">
+      <c r="F177" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18342,7 +18340,7 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178" s="71">
+      <c r="F178" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -18426,7 +18424,7 @@
       <c r="E179">
         <v>174</v>
       </c>
-      <c r="F179" s="71">
+      <c r="F179" s="4">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
@@ -18510,7 +18508,7 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180" s="71">
+      <c r="F180" s="4">
         <f t="shared" si="2"/>
         <v>687</v>
       </c>
@@ -18594,7 +18592,7 @@
       <c r="E181">
         <v>112</v>
       </c>
-      <c r="F181" s="71">
+      <c r="F181" s="4">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
@@ -18678,7 +18676,7 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182" s="71">
+      <c r="F182" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18762,7 +18760,7 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183" s="71">
+      <c r="F183" s="4">
         <f t="shared" si="2"/>
         <v>1008</v>
       </c>
@@ -18846,7 +18844,7 @@
       <c r="E184">
         <v>157</v>
       </c>
-      <c r="F184" s="71">
+      <c r="F184" s="4">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
@@ -18930,7 +18928,7 @@
       <c r="E185">
         <v>128</v>
       </c>
-      <c r="F185" s="71">
+      <c r="F185" s="4">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
@@ -19014,7 +19012,7 @@
       <c r="E186">
         <v>146</v>
       </c>
-      <c r="F186" s="71">
+      <c r="F186" s="4">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
@@ -19098,7 +19096,7 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187" s="71">
+      <c r="F187" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19182,7 +19180,7 @@
       <c r="E188">
         <v>8314</v>
       </c>
-      <c r="F188" s="71">
+      <c r="F188" s="4">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
@@ -19266,7 +19264,7 @@
       <c r="E189">
         <v>2507</v>
       </c>
-      <c r="F189" s="71">
+      <c r="F189" s="4">
         <f t="shared" si="2"/>
         <v>2812</v>
       </c>
@@ -19350,7 +19348,7 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="F190" s="71">
+      <c r="F190" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19434,7 +19432,7 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191" s="71">
+      <c r="F191" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19518,7 +19516,7 @@
       <c r="E192">
         <v>8314</v>
       </c>
-      <c r="F192" s="71">
+      <c r="F192" s="4">
         <f t="shared" si="2"/>
         <v>62854</v>
       </c>
@@ -19602,7 +19600,7 @@
       <c r="E193">
         <v>44</v>
       </c>
-      <c r="F193" s="71">
+      <c r="F193" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -19686,7 +19684,7 @@
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="F194" s="71">
+      <c r="F194" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19770,7 +19768,7 @@
       <c r="E195">
         <v>1</v>
       </c>
-      <c r="F195" s="71">
+      <c r="F195" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -19854,7 +19852,7 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196" s="71">
+      <c r="F196" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -19938,7 +19936,7 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197" s="71">
+      <c r="F197" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20022,7 +20020,7 @@
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198" s="71">
+      <c r="F198" s="4">
         <f t="shared" ref="F198:F261" si="3">+D198+E198</f>
         <v>0</v>
       </c>
@@ -20106,7 +20104,7 @@
       <c r="E199">
         <v>128</v>
       </c>
-      <c r="F199" s="71">
+      <c r="F199" s="4">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
@@ -20190,7 +20188,7 @@
       <c r="E200">
         <v>93</v>
       </c>
-      <c r="F200" s="71">
+      <c r="F200" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
@@ -20274,7 +20272,7 @@
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201" s="71">
+      <c r="F201" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20358,7 +20356,7 @@
       <c r="E202">
         <v>93</v>
       </c>
-      <c r="F202" s="71">
+      <c r="F202" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
@@ -20442,7 +20440,7 @@
       <c r="E203">
         <v>93</v>
       </c>
-      <c r="F203" s="71">
+      <c r="F203" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
@@ -20526,7 +20524,7 @@
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="F204" s="71">
+      <c r="F204" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20610,7 +20608,7 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205" s="71">
+      <c r="F205" s="4">
         <f t="shared" si="3"/>
         <v>520</v>
       </c>
@@ -20694,7 +20692,7 @@
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="F206" s="71">
+      <c r="F206" s="4">
         <f t="shared" si="3"/>
         <v>552</v>
       </c>
@@ -20778,7 +20776,7 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207" s="71">
+      <c r="F207" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -20862,7 +20860,7 @@
       <c r="E208">
         <v>81</v>
       </c>
-      <c r="F208" s="71">
+      <c r="F208" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
@@ -20946,7 +20944,7 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209" s="71">
+      <c r="F209" s="4">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
@@ -21030,7 +21028,7 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210" s="71">
+      <c r="F210" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21114,7 +21112,7 @@
       <c r="E211">
         <v>174</v>
       </c>
-      <c r="F211" s="71">
+      <c r="F211" s="4">
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
@@ -21198,7 +21196,7 @@
       <c r="E212">
         <v>15</v>
       </c>
-      <c r="F212" s="71">
+      <c r="F212" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -21282,7 +21280,7 @@
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213" s="71">
+      <c r="F213" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21366,7 +21364,7 @@
       <c r="E214">
         <v>0</v>
       </c>
-      <c r="F214" s="71">
+      <c r="F214" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -21450,7 +21448,7 @@
       <c r="E215">
         <v>0</v>
       </c>
-      <c r="F215" s="71">
+      <c r="F215" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -21534,7 +21532,7 @@
       <c r="E216">
         <v>0</v>
       </c>
-      <c r="F216" s="71">
+      <c r="F216" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21618,7 +21616,7 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217" s="71">
+      <c r="F217" s="4">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
@@ -21702,7 +21700,7 @@
       <c r="E218">
         <v>1</v>
       </c>
-      <c r="F218" s="71">
+      <c r="F218" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -21786,7 +21784,7 @@
       <c r="E219">
         <v>7919</v>
       </c>
-      <c r="F219" s="71">
+      <c r="F219" s="4">
         <f t="shared" si="3"/>
         <v>12128</v>
       </c>
@@ -21870,7 +21868,7 @@
       <c r="E220">
         <v>0</v>
       </c>
-      <c r="F220" s="71">
+      <c r="F220" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21954,7 +21952,7 @@
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221" s="71">
+      <c r="F221" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22038,7 +22036,7 @@
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222" s="71">
+      <c r="F222" s="4">
         <f t="shared" si="3"/>
         <v>40008</v>
       </c>
@@ -22122,7 +22120,7 @@
       <c r="E223">
         <v>0</v>
       </c>
-      <c r="F223" s="71">
+      <c r="F223" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22206,7 +22204,7 @@
       <c r="E224">
         <v>44</v>
       </c>
-      <c r="F224" s="71">
+      <c r="F224" s="4">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
@@ -22290,7 +22288,7 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225" s="71">
+      <c r="F225" s="4">
         <f t="shared" si="3"/>
         <v>1032</v>
       </c>
@@ -22374,7 +22372,7 @@
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226" s="71">
+      <c r="F226" s="4">
         <f t="shared" si="3"/>
         <v>56504</v>
       </c>
@@ -22458,7 +22456,7 @@
       <c r="E227">
         <v>93</v>
       </c>
-      <c r="F227" s="71">
+      <c r="F227" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
@@ -22542,7 +22540,7 @@
       <c r="E228">
         <v>44</v>
       </c>
-      <c r="F228" s="71">
+      <c r="F228" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -22626,7 +22624,7 @@
       <c r="E229">
         <v>44</v>
       </c>
-      <c r="F229" s="71">
+      <c r="F229" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -22710,7 +22708,7 @@
       <c r="E230">
         <v>174</v>
       </c>
-      <c r="F230" s="71">
+      <c r="F230" s="4">
         <f t="shared" si="3"/>
         <v>299</v>
       </c>
@@ -22794,7 +22792,7 @@
       <c r="E231">
         <v>8314</v>
       </c>
-      <c r="F231" s="71">
+      <c r="F231" s="4">
         <f t="shared" si="3"/>
         <v>62854</v>
       </c>
@@ -22878,7 +22876,7 @@
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232" s="71">
+      <c r="F232" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -22962,7 +22960,7 @@
       <c r="E233">
         <v>41</v>
       </c>
-      <c r="F233" s="71">
+      <c r="F233" s="4">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
@@ -23046,7 +23044,7 @@
       <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234" s="71">
+      <c r="F234" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23130,7 +23128,7 @@
       <c r="E235">
         <v>46</v>
       </c>
-      <c r="F235" s="71">
+      <c r="F235" s="4">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
@@ -23214,7 +23212,7 @@
       <c r="E236">
         <v>15</v>
       </c>
-      <c r="F236" s="71">
+      <c r="F236" s="4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -23298,7 +23296,7 @@
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237" s="71">
+      <c r="F237" s="4">
         <f t="shared" si="3"/>
         <v>57964</v>
       </c>
@@ -23382,7 +23380,7 @@
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238" s="71">
+      <c r="F238" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23466,7 +23464,7 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239" s="71">
+      <c r="F239" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23550,7 +23548,7 @@
       <c r="E240">
         <v>44</v>
       </c>
-      <c r="F240" s="71">
+      <c r="F240" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -23634,7 +23632,7 @@
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241" s="71">
+      <c r="F241" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23718,7 +23716,7 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242" s="71">
+      <c r="F242" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -23802,7 +23800,7 @@
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243" s="71">
+      <c r="F243" s="4">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -23886,7 +23884,7 @@
       <c r="E244">
         <v>44</v>
       </c>
-      <c r="F244" s="71">
+      <c r="F244" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -23970,7 +23968,7 @@
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245" s="71">
+      <c r="F245" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -24054,7 +24052,7 @@
       <c r="E246">
         <v>0</v>
       </c>
-      <c r="F246" s="71">
+      <c r="F246" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -24138,7 +24136,7 @@
       <c r="E247">
         <v>93</v>
       </c>
-      <c r="F247" s="71">
+      <c r="F247" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
@@ -24222,7 +24220,7 @@
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248" s="71">
+      <c r="F248" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -24306,7 +24304,7 @@
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249" s="71">
+      <c r="F249" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -24390,7 +24388,7 @@
       <c r="E250">
         <v>597</v>
       </c>
-      <c r="F250" s="71">
+      <c r="F250" s="4">
         <f t="shared" si="3"/>
         <v>757</v>
       </c>
@@ -24474,7 +24472,7 @@
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251" s="71">
+      <c r="F251" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -24558,7 +24556,7 @@
       <c r="E252">
         <v>0</v>
       </c>
-      <c r="F252" s="71">
+      <c r="F252" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -24642,7 +24640,7 @@
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253" s="71">
+      <c r="F253" s="4">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
@@ -24726,7 +24724,7 @@
       <c r="E254">
         <v>174</v>
       </c>
-      <c r="F254" s="71">
+      <c r="F254" s="4">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
@@ -24810,7 +24808,7 @@
       <c r="E255">
         <v>8314</v>
       </c>
-      <c r="F255" s="71">
+      <c r="F255" s="4">
         <f t="shared" si="3"/>
         <v>62854</v>
       </c>
@@ -24894,7 +24892,7 @@
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256" s="71">
+      <c r="F256" s="4">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -24978,7 +24976,7 @@
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="F257" s="71">
+      <c r="F257" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -25062,7 +25060,7 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258" s="71">
+      <c r="F258" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -25146,7 +25144,7 @@
       <c r="E259">
         <v>3</v>
       </c>
-      <c r="F259" s="71">
+      <c r="F259" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -25230,7 +25228,7 @@
       <c r="E260">
         <v>174</v>
       </c>
-      <c r="F260" s="71">
+      <c r="F260" s="4">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
@@ -25314,7 +25312,7 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261" s="71">
+      <c r="F261" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -25398,7 +25396,7 @@
       <c r="E262">
         <v>93</v>
       </c>
-      <c r="F262" s="71">
+      <c r="F262" s="4">
         <f t="shared" ref="F262:F296" si="4">+D262+E262</f>
         <v>123</v>
       </c>
@@ -25482,7 +25480,7 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263" s="71">
+      <c r="F263" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -25566,7 +25564,7 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264" s="71">
+      <c r="F264" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -25650,7 +25648,7 @@
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="F265" s="71">
+      <c r="F265" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -25734,7 +25732,7 @@
       <c r="E266">
         <v>76</v>
       </c>
-      <c r="F266" s="71">
+      <c r="F266" s="4">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
@@ -25818,7 +25816,7 @@
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="F267" s="71">
+      <c r="F267" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -25902,7 +25900,7 @@
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="F268" s="71">
+      <c r="F268" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -25986,7 +25984,7 @@
       <c r="E269">
         <v>146</v>
       </c>
-      <c r="F269" s="71">
+      <c r="F269" s="4">
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
@@ -26070,7 +26068,7 @@
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="F270" s="71">
+      <c r="F270" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -26154,7 +26152,7 @@
       <c r="E271">
         <v>1</v>
       </c>
-      <c r="F271" s="71">
+      <c r="F271" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -26238,7 +26236,7 @@
       <c r="E272">
         <v>93</v>
       </c>
-      <c r="F272" s="71">
+      <c r="F272" s="4">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
@@ -26322,7 +26320,7 @@
       <c r="E273">
         <v>44</v>
       </c>
-      <c r="F273" s="71">
+      <c r="F273" s="4">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
@@ -26406,7 +26404,7 @@
       <c r="E274">
         <v>174</v>
       </c>
-      <c r="F274" s="71">
+      <c r="F274" s="4">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="E275">
         <v>138</v>
       </c>
-      <c r="F275" s="71">
+      <c r="F275" s="4">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
@@ -26574,7 +26572,7 @@
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276" s="71">
+      <c r="F276" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -26658,7 +26656,7 @@
       <c r="E277">
         <v>8314</v>
       </c>
-      <c r="F277" s="71">
+      <c r="F277" s="4">
         <f t="shared" si="4"/>
         <v>62854</v>
       </c>
@@ -26742,7 +26740,7 @@
       <c r="E278">
         <v>50</v>
       </c>
-      <c r="F278" s="71">
+      <c r="F278" s="4">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
@@ -26826,7 +26824,7 @@
       <c r="E279">
         <v>15</v>
       </c>
-      <c r="F279" s="71">
+      <c r="F279" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -26910,7 +26908,7 @@
       <c r="E280">
         <v>52</v>
       </c>
-      <c r="F280" s="71">
+      <c r="F280" s="4">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
@@ -26994,7 +26992,7 @@
       <c r="E281">
         <v>109</v>
       </c>
-      <c r="F281" s="71">
+      <c r="F281" s="4">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
@@ -27078,7 +27076,7 @@
       <c r="E282">
         <v>1</v>
       </c>
-      <c r="F282" s="71">
+      <c r="F282" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -27162,7 +27160,7 @@
       <c r="E283">
         <v>593</v>
       </c>
-      <c r="F283" s="71">
+      <c r="F283" s="4">
         <f t="shared" si="4"/>
         <v>751</v>
       </c>
@@ -27246,7 +27244,7 @@
       <c r="E284">
         <v>0</v>
       </c>
-      <c r="F284" s="71">
+      <c r="F284" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -27330,7 +27328,7 @@
       <c r="E285">
         <v>0</v>
       </c>
-      <c r="F285" s="71">
+      <c r="F285" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -27414,7 +27412,7 @@
       <c r="E286">
         <v>93</v>
       </c>
-      <c r="F286" s="71">
+      <c r="F286" s="4">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
@@ -27498,7 +27496,7 @@
       <c r="E287">
         <v>157</v>
       </c>
-      <c r="F287" s="71">
+      <c r="F287" s="4">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
@@ -27582,7 +27580,7 @@
       <c r="E288">
         <v>93</v>
       </c>
-      <c r="F288" s="71">
+      <c r="F288" s="4">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
@@ -27666,7 +27664,7 @@
       <c r="E289">
         <v>141</v>
       </c>
-      <c r="F289" s="71">
+      <c r="F289" s="4">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
@@ -27750,7 +27748,7 @@
       <c r="E290">
         <v>45</v>
       </c>
-      <c r="F290" s="71">
+      <c r="F290" s="4">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
@@ -27834,7 +27832,7 @@
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291" s="71">
+      <c r="F291" s="4">
         <f t="shared" si="4"/>
         <v>1032</v>
       </c>
@@ -27918,7 +27916,7 @@
       <c r="E292">
         <v>0</v>
       </c>
-      <c r="F292" s="71">
+      <c r="F292" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -28002,7 +28000,7 @@
       <c r="E293">
         <v>0</v>
       </c>
-      <c r="F293" s="71">
+      <c r="F293" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -28086,7 +28084,7 @@
       <c r="E294">
         <v>45</v>
       </c>
-      <c r="F294" s="71">
+      <c r="F294" s="4">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
@@ -28170,7 +28168,7 @@
       <c r="E295">
         <v>0</v>
       </c>
-      <c r="F295" s="71">
+      <c r="F295" s="4">
         <f t="shared" si="4"/>
         <v>1032</v>
       </c>
@@ -28254,7 +28252,7 @@
       <c r="E296">
         <v>293</v>
       </c>
-      <c r="F296" s="71">
+      <c r="F296" s="4">
         <f t="shared" si="4"/>
         <v>2892</v>
       </c>
@@ -28331,8 +28329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AE56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29262,7 +29260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="2:31" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
         <v>370</v>
       </c>
@@ -29429,8 +29427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29660,7 +29658,7 @@
         <v>0.14186778924929055</v>
       </c>
       <c r="H29" s="23">
-        <f t="shared" ref="H29:H42" si="4">G29*$I$10</f>
+        <f>G29*Muestra</f>
         <v>28.373557849858109</v>
       </c>
       <c r="I29" s="42"/>
@@ -29671,7 +29669,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="45">
-        <f t="shared" ref="M29:M40" si="5">L29+$N$11-0.01</f>
+        <f t="shared" ref="M29:M40" si="4">L29+$N$11-0.01</f>
         <v>18.989999999999998</v>
       </c>
       <c r="N29" s="26">
@@ -29679,7 +29677,7 @@
         <v>63</v>
       </c>
       <c r="O29" s="45">
-        <f t="shared" ref="O29:O40" si="6">G29*$I$10</f>
+        <f>+H29</f>
         <v>28.373557849858109</v>
       </c>
       <c r="P29" s="45">
@@ -29716,7 +29714,7 @@
         <v>0.12173151166151586</v>
       </c>
       <c r="H30" s="23">
-        <f t="shared" si="4"/>
+        <f>G30*Muestra</f>
         <v>24.346302332303171</v>
       </c>
       <c r="I30" s="42"/>
@@ -29728,18 +29726,18 @@
         <v>19</v>
       </c>
       <c r="M30" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37.99</v>
       </c>
       <c r="N30" s="26">
         <v>13</v>
       </c>
       <c r="O30" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="O30:O40" si="5">+H30</f>
         <v>24.346302332303171</v>
       </c>
       <c r="P30" s="45">
-        <f t="shared" ref="P30:P41" si="7">((O30-N30)^2)/O30</f>
+        <f t="shared" ref="P30:P41" si="6">((O30-N30)^2)/O30</f>
         <v>5.2878081796107255</v>
       </c>
       <c r="Q30" s="45">
@@ -29749,7 +29747,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="45">
-        <f t="shared" ref="B31:B42" si="8">C30+0.01</f>
+        <f t="shared" ref="B31:B42" si="7">C30+0.01</f>
         <v>38</v>
       </c>
       <c r="C31" s="45">
@@ -29772,7 +29770,7 @@
         <v>0.10445331537068314</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" si="4"/>
+        <f>G31*Muestra</f>
         <v>20.890663074136629</v>
       </c>
       <c r="I31" s="42"/>
@@ -29780,22 +29778,22 @@
         <v>3</v>
       </c>
       <c r="L31" s="45">
-        <f t="shared" ref="L31:L41" si="9">M30+0.01</f>
+        <f t="shared" ref="L31:L41" si="8">M30+0.01</f>
         <v>38</v>
       </c>
       <c r="M31" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.99</v>
       </c>
       <c r="N31" s="26">
         <v>10</v>
       </c>
       <c r="O31" s="45">
+        <f t="shared" si="5"/>
+        <v>20.890663074136629</v>
+      </c>
+      <c r="P31" s="45">
         <f t="shared" si="6"/>
-        <v>20.890663074136629</v>
-      </c>
-      <c r="P31" s="45">
-        <f t="shared" si="7"/>
         <v>5.6774905503694679</v>
       </c>
       <c r="Q31" s="45">
@@ -29805,7 +29803,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="C32" s="45">
@@ -29828,7 +29826,7 @@
         <v>8.9627533109626456E-2</v>
       </c>
       <c r="H32" s="23">
-        <f t="shared" si="4"/>
+        <f>G32*Muestra</f>
         <v>17.92550662192529</v>
       </c>
       <c r="I32" s="42"/>
@@ -29836,22 +29834,22 @@
         <v>4</v>
       </c>
       <c r="L32" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="M32" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75.989999999999995</v>
       </c>
       <c r="N32" s="26">
         <v>7</v>
       </c>
       <c r="O32" s="45">
+        <f t="shared" si="5"/>
+        <v>17.92550662192529</v>
+      </c>
+      <c r="P32" s="45">
         <f t="shared" si="6"/>
-        <v>17.92550662192529</v>
-      </c>
-      <c r="P32" s="45">
-        <f t="shared" si="7"/>
         <v>6.6590416362197509</v>
       </c>
       <c r="Q32" s="45">
@@ -29861,7 +29859,7 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="C33" s="45">
@@ -29884,7 +29882,7 @@
         <v>7.6906076775154708E-2</v>
       </c>
       <c r="H33" s="23">
-        <f t="shared" si="4"/>
+        <f>G33*Muestra</f>
         <v>15.381215355030943</v>
       </c>
       <c r="I33" s="42"/>
@@ -29892,32 +29890,32 @@
         <v>5</v>
       </c>
       <c r="L33" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="M33" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>94.99</v>
       </c>
       <c r="N33" s="26">
         <v>5</v>
       </c>
       <c r="O33" s="45">
+        <f t="shared" si="5"/>
+        <v>15.381215355030943</v>
+      </c>
+      <c r="P33" s="45">
         <f t="shared" si="6"/>
-        <v>15.381215355030943</v>
-      </c>
-      <c r="P33" s="45">
-        <f t="shared" si="7"/>
         <v>7.0065745625413491</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" ref="Q33:Q41" si="10">Q32+P33</f>
+        <f t="shared" ref="Q33:Q41" si="9">Q32+P33</f>
         <v>66.88823430764036</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C34" s="45">
@@ -29940,7 +29938,7 @@
         <v>6.599026481864334E-2</v>
       </c>
       <c r="H34" s="23">
-        <f t="shared" si="4"/>
+        <f>G34*Muestra</f>
         <v>13.198052963728667</v>
       </c>
       <c r="I34" s="42"/>
@@ -29948,32 +29946,32 @@
         <v>6</v>
       </c>
       <c r="L34" s="45">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="M34" s="45">
+        <f t="shared" si="4"/>
+        <v>113.99</v>
+      </c>
+      <c r="N34" s="26">
+        <v>3</v>
+      </c>
+      <c r="O34" s="45">
+        <f t="shared" si="5"/>
+        <v>13.198052963728667</v>
+      </c>
+      <c r="P34" s="45">
+        <f t="shared" si="6"/>
+        <v>7.8799717304387347</v>
+      </c>
+      <c r="Q34" s="45">
         <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
-      <c r="M34" s="45">
-        <f t="shared" si="5"/>
-        <v>113.99</v>
-      </c>
-      <c r="N34" s="26">
-        <v>3</v>
-      </c>
-      <c r="O34" s="45">
-        <f t="shared" si="6"/>
-        <v>13.198052963728667</v>
-      </c>
-      <c r="P34" s="45">
-        <f t="shared" si="7"/>
-        <v>7.8799717304387347</v>
-      </c>
-      <c r="Q34" s="45">
-        <f t="shared" si="10"/>
         <v>74.7682060380791</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="C35" s="45">
@@ -29996,7 +29994,7 @@
         <v>5.6623809631666466E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="4"/>
+        <f>G35*Muestra</f>
         <v>11.324761926333293</v>
       </c>
       <c r="I35" s="42"/>
@@ -30004,32 +30002,32 @@
         <v>7</v>
       </c>
       <c r="L35" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="M35" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>132.99</v>
       </c>
       <c r="N35" s="26">
         <v>6</v>
       </c>
       <c r="O35" s="45">
+        <f t="shared" si="5"/>
+        <v>11.324761926333293</v>
+      </c>
+      <c r="P35" s="45">
         <f t="shared" si="6"/>
-        <v>11.324761926333293</v>
-      </c>
-      <c r="P35" s="45">
-        <f t="shared" si="7"/>
         <v>2.5036366995229846</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>77.271842737602086</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="C36" s="45">
@@ -30052,7 +30050,7 @@
         <v>4.8586800280537523E-2</v>
       </c>
       <c r="H36" s="23">
-        <f t="shared" si="4"/>
+        <f>G36*Muestra</f>
         <v>9.7173600561075055</v>
       </c>
       <c r="I36" s="42"/>
@@ -30060,32 +30058,32 @@
         <v>8</v>
       </c>
       <c r="L36" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="M36" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>151.99</v>
       </c>
       <c r="N36" s="26">
         <v>6</v>
       </c>
       <c r="O36" s="45">
+        <f t="shared" si="5"/>
+        <v>9.7173600561075055</v>
+      </c>
+      <c r="P36" s="45">
         <f t="shared" si="6"/>
-        <v>9.7173600561075055</v>
-      </c>
-      <c r="P36" s="45">
-        <f t="shared" si="7"/>
         <v>1.4220699559298822</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>78.693912693531971</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="C37" s="45">
@@ -30108,7 +30106,7 @@
         <v>4.1690539313000263E-2</v>
       </c>
       <c r="H37" s="23">
-        <f t="shared" si="4"/>
+        <f>G37*Muestra</f>
         <v>8.3381078626000527</v>
       </c>
       <c r="I37" s="42"/>
@@ -30116,32 +30114,32 @@
         <v>9</v>
       </c>
       <c r="L37" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="M37" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>170.99</v>
       </c>
       <c r="N37" s="26">
         <v>5</v>
       </c>
       <c r="O37" s="45">
+        <f t="shared" si="5"/>
+        <v>8.3381078626000527</v>
+      </c>
+      <c r="P37" s="45">
         <f t="shared" si="6"/>
-        <v>8.3381078626000527</v>
-      </c>
-      <c r="P37" s="45">
-        <f t="shared" si="7"/>
         <v>1.3363900162929299</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80.030302709824895</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
       <c r="C38" s="45">
@@ -30164,7 +30162,7 @@
         <v>3.5773112412694874E-2</v>
       </c>
       <c r="H38" s="23">
-        <f t="shared" si="4"/>
+        <f>G38*Muestra</f>
         <v>7.1546224825389748</v>
       </c>
       <c r="I38" s="42"/>
@@ -30172,32 +30170,32 @@
         <v>10</v>
       </c>
       <c r="L38" s="45">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="M38" s="45">
+        <f t="shared" si="4"/>
+        <v>189.99</v>
+      </c>
+      <c r="N38" s="26">
+        <v>2</v>
+      </c>
+      <c r="O38" s="45">
+        <f t="shared" si="5"/>
+        <v>7.1546224825389748</v>
+      </c>
+      <c r="P38" s="45">
+        <f t="shared" si="6"/>
+        <v>3.7137015967427076</v>
+      </c>
+      <c r="Q38" s="45">
         <f t="shared" si="9"/>
-        <v>171</v>
-      </c>
-      <c r="M38" s="45">
-        <f t="shared" si="5"/>
-        <v>189.99</v>
-      </c>
-      <c r="N38" s="26">
-        <v>2</v>
-      </c>
-      <c r="O38" s="45">
-        <f t="shared" si="6"/>
-        <v>7.1546224825389748</v>
-      </c>
-      <c r="P38" s="45">
-        <f t="shared" si="7"/>
-        <v>3.7137015967427076</v>
-      </c>
-      <c r="Q38" s="45">
-        <f t="shared" si="10"/>
         <v>83.744004306567604</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="C39" s="45">
@@ -30220,7 +30218,7 @@
         <v>3.0695586883239256E-2</v>
       </c>
       <c r="H39" s="23">
-        <f t="shared" si="4"/>
+        <f>G39*Muestra</f>
         <v>6.1391173766478513</v>
       </c>
       <c r="I39" s="42"/>
@@ -30228,32 +30226,32 @@
         <v>11</v>
       </c>
       <c r="L39" s="45">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="M39" s="45">
+        <f t="shared" si="4"/>
+        <v>208.99</v>
+      </c>
+      <c r="N39" s="26">
+        <v>3</v>
+      </c>
+      <c r="O39" s="45">
+        <f t="shared" si="5"/>
+        <v>6.1391173766478513</v>
+      </c>
+      <c r="P39" s="45">
+        <f t="shared" si="6"/>
+        <v>1.605126160619706</v>
+      </c>
+      <c r="Q39" s="45">
         <f t="shared" si="9"/>
-        <v>190</v>
-      </c>
-      <c r="M39" s="45">
-        <f t="shared" si="5"/>
-        <v>208.99</v>
-      </c>
-      <c r="N39" s="26">
-        <v>3</v>
-      </c>
-      <c r="O39" s="45">
-        <f t="shared" si="6"/>
-        <v>6.1391173766478513</v>
-      </c>
-      <c r="P39" s="45">
-        <f t="shared" si="7"/>
-        <v>1.605126160619706</v>
-      </c>
-      <c r="Q39" s="45">
-        <f t="shared" si="10"/>
         <v>85.349130467187308</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="C40" s="45">
@@ -30276,7 +30274,7 @@
         <v>2.6338749707786935E-2</v>
       </c>
       <c r="H40" s="23">
-        <f t="shared" si="4"/>
+        <f>G40*Muestra</f>
         <v>5.267749941557387</v>
       </c>
       <c r="I40" s="42"/>
@@ -30284,32 +30282,32 @@
         <v>12</v>
       </c>
       <c r="L40" s="51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="M40" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>227.99</v>
       </c>
       <c r="N40" s="54">
         <v>6</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="45">
+        <f t="shared" si="5"/>
+        <v>5.267749941557387</v>
+      </c>
+      <c r="P40" s="45">
         <f t="shared" si="6"/>
-        <v>5.267749941557387</v>
-      </c>
-      <c r="P40" s="45">
-        <f t="shared" si="7"/>
         <v>0.10178731983065391</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>85.450917787017957</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="C41" s="45">
@@ -30332,7 +30330,7 @@
         <v>2.260030859837503E-2</v>
       </c>
       <c r="H41" s="23">
-        <f t="shared" si="4"/>
+        <f>G41*Muestra</f>
         <v>4.5200617196750059</v>
       </c>
       <c r="I41" s="42"/>
@@ -30340,7 +30338,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="M41" s="45">
@@ -30356,11 +30354,11 @@
         <v>8.3985597836190315</v>
       </c>
       <c r="P41" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>466.62051805701452</v>
       </c>
       <c r="Q41" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>552.07143584403252</v>
       </c>
       <c r="R41" s="32" t="s">
@@ -30369,7 +30367,7 @@
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="C42" s="45">
@@ -30392,7 +30390,7 @@
         <v>1.9392490319720124E-2</v>
       </c>
       <c r="H42" s="23">
-        <f t="shared" si="4"/>
+        <f>G42*Muestra</f>
         <v>3.8784980639440247</v>
       </c>
       <c r="I42" s="42"/>

--- a/TP/TP1.xlsx
+++ b/TP/TP1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/4K3/TP1/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD6F9C9-7B1C-D448-A54F-90151AE86118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A601A31-AEEA-7745-8C2C-C3021F71DA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="197">
   <si>
     <t>tcp</t>
   </si>
@@ -654,12 +654,6 @@
     <t xml:space="preserve">    Muestra de 200 conexiones a un mismo host en los ultimos 2 seg</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>c(AC)</t>
-  </si>
-  <si>
     <t>CALC</t>
   </si>
   <si>
@@ -688,6 +682,15 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo servicio</t>
+  </si>
+  <si>
+    <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo host</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -721,7 +724,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   El valor calculado (173,651 CALC) es mayor al valor tabulado (2,165 TAB), por lo tanto, se </t>
+      <t xml:space="preserve">   El valor calculado (555,04 CALC) es mayor al valor tabulado (19,68 TAB), por lo tanto, se </t>
     </r>
     <r>
       <rPr>
@@ -777,7 +780,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   El valor calculado (552,07 CALC) es mayor al valor tabulado (19,68 TAB), por lo tanto, se </t>
+      <t xml:space="preserve">   El valor calculado (173,611 CALC) es mayor al valor tabulado (2,165 TAB), por lo tanto, se </t>
     </r>
     <r>
       <rPr>
@@ -800,12 +803,6 @@
       </rPr>
       <t xml:space="preserve"> la hipotesis nula (H0) </t>
     </r>
-  </si>
-  <si>
-    <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo servicio</t>
-  </si>
-  <si>
-    <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo host</t>
   </si>
 </sst>
 </file>
@@ -1178,9 +1175,6 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,6 +1230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,10 +1671,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -1689,16 +1686,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -1764,10 +1761,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -1779,16 +1776,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -28329,8 +28326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28357,10 +28354,10 @@
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
@@ -28376,21 +28373,21 @@
       <c r="AE23" s="38"/>
     </row>
     <row r="24" spans="2:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
         <v>170</v>
       </c>
       <c r="V24" s="5"/>
@@ -28405,25 +28402,25 @@
       <c r="AE24" s="36"/>
     </row>
     <row r="25" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <f>ROUND(SQRT(200),0)</f>
         <v>14</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="61">
         <f>COUNT('Serie de Datos'!G5:G204)</f>
         <v>200</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63">
+      <c r="D25" s="61"/>
+      <c r="E25" s="62">
         <f>MIN('Serie de Datos'!G5:G204)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="62">
         <f>MAX('Serie de Datos'!G5:G204)</f>
         <v>511.00000000000006</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62">
+      <c r="G25" s="61"/>
+      <c r="H25" s="70">
         <f>(F25-E25)/B25</f>
         <v>36.428571428571431</v>
       </c>
@@ -28439,13 +28436,13 @@
       <c r="AE25" s="36"/>
     </row>
     <row r="26" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64">
         <f>ROUNDUP(H25,0)</f>
         <v>37</v>
       </c>
@@ -28461,18 +28458,18 @@
       <c r="AE26" s="36"/>
     </row>
     <row r="27" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="65">
         <f>SUM('Serie de Datos'!G5:G204)/C25</f>
         <v>98.694999999999993</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="36"/>
@@ -28485,18 +28482,18 @@
       <c r="AE27" s="36"/>
     </row>
     <row r="28" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="65">
         <f>1/C27</f>
         <v>1.0132225543340595E-2</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="36"/>
@@ -28509,18 +28506,18 @@
       <c r="AE28" s="36"/>
     </row>
     <row r="29" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B29" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="68">
+      <c r="B29" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="67">
         <f>B25-1-1</f>
         <v>12</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="36"/>
@@ -28569,8 +28566,8 @@
       <c r="AE32" s="36"/>
     </row>
     <row r="33" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
-        <v>197</v>
+      <c r="B33" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -28657,10 +28654,10 @@
         <v>175</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
@@ -28678,7 +28675,8 @@
         <v>0</v>
       </c>
       <c r="C37" s="26">
-        <v>36.99</v>
+        <f>+B37+$H$26</f>
+        <v>37</v>
       </c>
       <c r="D37" s="14">
         <f t="array" ref="D37:D50">FREQUENCY('Serie de Datos'!G5:G204,'Conexiones a un mismo Host'!C37:C50)</f>
@@ -28686,19 +28684,19 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" ref="E37:E50" si="0">(C37+B37)/2</f>
-        <v>18.495000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="F37" s="28">
         <f>Lambda*EXP(-Lambda*E37)*(C37-B37)</f>
-        <v>0.31074513879449567</v>
+        <v>0.31081340011574937</v>
       </c>
       <c r="G37" s="28">
         <f>(1-EXP(-Lambda*C37))-(1-EXP(-Lambda*B37))</f>
-        <v>0.31256707844455667</v>
+        <v>0.31263672717008528</v>
       </c>
       <c r="H37" s="28">
         <f>G37*N</f>
-        <v>62.513415688911337</v>
+        <v>62.527345434017057</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="22">
@@ -28710,7 +28708,7 @@
       </c>
       <c r="L37" s="26">
         <f t="shared" si="1"/>
-        <v>36.99</v>
+        <v>37</v>
       </c>
       <c r="M37" s="14">
         <f t="shared" si="1"/>
@@ -28718,15 +28716,15 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ref="N37:N43" si="2">H37</f>
-        <v>62.513415688911337</v>
+        <v>62.527345434017057</v>
       </c>
       <c r="O37" s="28">
         <f>((N37-M37)^2)/N37</f>
-        <v>62.459764449559373</v>
+        <v>62.418011534475802</v>
       </c>
       <c r="P37" s="28">
         <f>O37</f>
-        <v>62.459764449559373</v>
+        <v>62.418011534475802</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -28741,29 +28739,31 @@
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="26">
+        <f>+C37</f>
         <v>37</v>
       </c>
       <c r="C38" s="26">
-        <v>73.989999999999995</v>
+        <f t="shared" ref="C38:C50" si="3">+B38+$H$26</f>
+        <v>74</v>
       </c>
       <c r="D38" s="14">
         <v>7</v>
       </c>
       <c r="E38" s="27">
         <f t="shared" si="0"/>
-        <v>55.494999999999997</v>
+        <v>55.5</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" ref="F38:F50" si="3">Lambda*EXP(-Lambda*E38)*(C38-B38)</f>
-        <v>0.21359479561777056</v>
+        <f t="shared" ref="F38:F50" si="4">Lambda*EXP(-Lambda*E38)*(C38-B38)</f>
+        <v>0.21364171594295531</v>
       </c>
       <c r="G38" s="28">
-        <f t="shared" ref="G38:G50" si="4">(1-EXP(-Lambda*C38))-(1-EXP(-Lambda*B38))</f>
-        <v>0.21484713001853517</v>
+        <f t="shared" ref="G38:G50" si="5">(1-EXP(-Lambda*C38))-(1-EXP(-Lambda*B38))</f>
+        <v>0.21489500399446293</v>
       </c>
       <c r="H38" s="28">
-        <f t="shared" ref="H38:H50" si="5">G38*N</f>
-        <v>42.969426003707035</v>
+        <f t="shared" ref="H38:H50" si="6">G38*N</f>
+        <v>42.979000798892585</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="22">
@@ -28775,7 +28775,7 @@
       </c>
       <c r="L38" s="26">
         <f t="shared" si="1"/>
-        <v>73.989999999999995</v>
+        <v>74</v>
       </c>
       <c r="M38" s="14">
         <f t="shared" si="1"/>
@@ -28783,15 +28783,15 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" si="2"/>
-        <v>42.969426003707035</v>
+        <v>42.979000798892585</v>
       </c>
       <c r="O38" s="28">
-        <f t="shared" ref="O38:O45" si="6">((N38-M38)^2)/N38</f>
-        <v>30.109771699639129</v>
+        <f t="shared" ref="O38:O45" si="7">((N38-M38)^2)/N38</f>
+        <v>30.119092450377945</v>
       </c>
       <c r="P38" s="28">
         <f>O38+P37</f>
-        <v>92.569536149198498</v>
+        <v>92.537103984853744</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -28806,29 +28806,31 @@
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="26">
+        <f t="shared" ref="B39:B50" si="8">+C38</f>
         <v>74</v>
       </c>
       <c r="C39" s="26">
-        <v>110.99</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="D39" s="14">
         <v>7</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="0"/>
-        <v>92.495000000000005</v>
+        <v>92.5</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="3"/>
-        <v>0.14681721777526749</v>
+        <f t="shared" si="4"/>
+        <v>0.14684946908354873</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="4"/>
-        <v>0.14767802644765449</v>
+        <f t="shared" si="5"/>
+        <v>0.14771093326043161</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="5"/>
-        <v>29.535605289530899</v>
+        <f t="shared" si="6"/>
+        <v>29.542186652086322</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="22">
@@ -28840,7 +28842,7 @@
       </c>
       <c r="L39" s="26">
         <f t="shared" si="1"/>
-        <v>110.99</v>
+        <v>111</v>
       </c>
       <c r="M39" s="14">
         <f t="shared" si="1"/>
@@ -28848,15 +28850,15 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" si="2"/>
-        <v>29.535605289530899</v>
+        <v>29.542186652086322</v>
       </c>
       <c r="O39" s="28">
-        <f t="shared" si="6"/>
-        <v>17.194619876151489</v>
+        <f t="shared" si="7"/>
+        <v>17.200831646008584</v>
       </c>
       <c r="P39" s="28">
-        <f t="shared" ref="P39:P45" si="7">O39+P38</f>
-        <v>109.76415602534999</v>
+        <f t="shared" ref="P39:P45" si="9">O39+P38</f>
+        <v>109.73793563086232</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -28871,29 +28873,31 @@
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="26">
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="C40" s="26">
-        <v>147.99</v>
+        <f t="shared" si="3"/>
+        <v>148</v>
       </c>
       <c r="D40" s="14">
         <v>10</v>
       </c>
       <c r="E40" s="27">
         <f t="shared" si="0"/>
-        <v>129.495</v>
+        <v>129.5</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="3"/>
-        <v>0.10091676331779025</v>
+        <f t="shared" si="4"/>
+        <v>0.10093893168260341</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" si="4"/>
-        <v>0.10150845158412258</v>
+        <f t="shared" si="5"/>
+        <v>0.1015310705186514</v>
       </c>
       <c r="H40" s="28">
-        <f t="shared" si="5"/>
-        <v>20.301690316824516</v>
+        <f t="shared" si="6"/>
+        <v>20.30621410373028</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="22">
@@ -28905,7 +28909,7 @@
       </c>
       <c r="L40" s="26">
         <f t="shared" si="1"/>
-        <v>147.99</v>
+        <v>148</v>
       </c>
       <c r="M40" s="14">
         <f t="shared" si="1"/>
@@ -28913,15 +28917,15 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" si="2"/>
-        <v>20.301690316824516</v>
+        <v>20.30621410373028</v>
       </c>
       <c r="O40" s="28">
-        <f t="shared" si="6"/>
-        <v>5.2273885438892602</v>
+        <f t="shared" si="7"/>
+        <v>5.2308149913782565</v>
       </c>
       <c r="P40" s="28">
-        <f t="shared" si="7"/>
-        <v>114.99154456923925</v>
+        <f t="shared" si="9"/>
+        <v>114.96875062224058</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -28935,29 +28939,31 @@
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="26">
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="C41" s="26">
-        <v>184.99</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="D41" s="14">
         <v>7</v>
       </c>
       <c r="E41" s="27">
         <f t="shared" si="0"/>
-        <v>166.495</v>
+        <v>166.5</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="3"/>
-        <v>6.9366476717518194E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.9381714437309464E-2</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="4"/>
-        <v>6.9773181500759396E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.9788728925625154E-2</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="5"/>
-        <v>13.954636300151879</v>
+        <f t="shared" si="6"/>
+        <v>13.957745785125031</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="22">
@@ -28969,7 +28975,7 @@
       </c>
       <c r="L41" s="26">
         <f t="shared" si="1"/>
-        <v>184.99</v>
+        <v>185</v>
       </c>
       <c r="M41" s="14">
         <f t="shared" si="1"/>
@@ -28977,15 +28983,15 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" si="2"/>
-        <v>13.954636300151879</v>
+        <v>13.957745785125031</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="6"/>
-        <v>3.4660140921669025</v>
+        <f t="shared" si="7"/>
+        <v>3.46834131783777</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="7"/>
-        <v>118.45755866140615</v>
+        <f t="shared" si="9"/>
+        <v>118.43709194007835</v>
       </c>
       <c r="V41" s="36"/>
       <c r="W41" s="36"/>
@@ -29000,29 +29006,31 @@
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="26">
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="C42" s="26">
-        <v>221.99</v>
+        <f t="shared" si="3"/>
+        <v>222</v>
       </c>
       <c r="D42" s="14">
         <v>4</v>
       </c>
       <c r="E42" s="27">
         <f t="shared" si="0"/>
-        <v>203.495</v>
+        <v>203.5</v>
       </c>
       <c r="F42" s="28">
-        <f t="shared" si="3"/>
-        <v>4.7679968461233388E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7690442310179576E-2</v>
       </c>
       <c r="G42" s="28">
-        <f t="shared" si="4"/>
-        <v>4.7959522392117648E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.7970209120957397E-2</v>
       </c>
       <c r="H42" s="28">
-        <f t="shared" si="5"/>
-        <v>9.5919044784235297</v>
+        <f t="shared" si="6"/>
+        <v>9.5940418241914784</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="22">
@@ -29034,7 +29042,7 @@
       </c>
       <c r="L42" s="26">
         <f t="shared" si="1"/>
-        <v>221.99</v>
+        <v>222</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" si="1"/>
@@ -29042,42 +29050,44 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" si="2"/>
-        <v>9.5919044784235297</v>
+        <v>9.5940418241914784</v>
       </c>
       <c r="O42" s="28">
-        <f t="shared" si="6"/>
-        <v>3.2599778037981864</v>
+        <f t="shared" si="7"/>
+        <v>3.2617435387760274</v>
       </c>
       <c r="P42" s="28">
-        <f t="shared" si="7"/>
-        <v>121.71753646520435</v>
+        <f t="shared" si="9"/>
+        <v>121.69883547885438</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="26">
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="C43" s="26">
-        <v>258.99</v>
+        <f t="shared" si="3"/>
+        <v>259</v>
       </c>
       <c r="D43" s="14">
         <v>9</v>
       </c>
       <c r="E43" s="27">
         <f t="shared" si="0"/>
-        <v>240.495</v>
+        <v>240.5</v>
       </c>
       <c r="F43" s="28">
-        <f t="shared" si="3"/>
-        <v>3.2773459169940483E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.278065850903128E-2</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="4"/>
-        <v>3.2965614274805599E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.2972959939716717E-2</v>
       </c>
       <c r="H43" s="28">
-        <f t="shared" si="5"/>
-        <v>6.5931228549611198</v>
+        <f t="shared" si="6"/>
+        <v>6.5945919879433434</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="22">
@@ -29089,7 +29099,7 @@
       </c>
       <c r="L43" s="26">
         <f t="shared" si="1"/>
-        <v>258.99</v>
+        <v>259</v>
       </c>
       <c r="M43" s="14">
         <f t="shared" si="1"/>
@@ -29097,42 +29107,44 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" si="2"/>
-        <v>6.5931228549611198</v>
+        <v>6.5945919879433434</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="6"/>
-        <v>0.87865154627771203</v>
+        <f t="shared" si="7"/>
+        <v>0.87738372821922439</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="7"/>
-        <v>122.59618801148206</v>
+        <f t="shared" si="9"/>
+        <v>122.57621920707361</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B44" s="26">
+        <f t="shared" si="8"/>
         <v>259</v>
       </c>
       <c r="C44" s="26">
-        <v>295.99</v>
+        <f t="shared" si="3"/>
+        <v>296</v>
       </c>
       <c r="D44" s="14">
         <v>7</v>
       </c>
       <c r="E44" s="27">
         <f t="shared" si="0"/>
-        <v>277.495</v>
+        <v>277.5</v>
       </c>
       <c r="F44" s="28">
-        <f t="shared" si="3"/>
-        <v>2.2527272157007869E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.2532220718287532E-2</v>
       </c>
       <c r="G44" s="28">
-        <f t="shared" si="4"/>
-        <v>2.265935251877893E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.2664401659053257E-2</v>
       </c>
       <c r="H44" s="28">
-        <f t="shared" si="5"/>
-        <v>4.531870503755786</v>
+        <f t="shared" si="6"/>
+        <v>4.5328803318106514</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="22">
@@ -29144,7 +29156,7 @@
       </c>
       <c r="L44" s="26">
         <f>C45</f>
-        <v>332.99</v>
+        <v>333</v>
       </c>
       <c r="M44" s="14">
         <f>SUM(D44+D45)</f>
@@ -29152,42 +29164,44 @@
       </c>
       <c r="N44" s="28">
         <f>SUM(H44+H45)</f>
-        <v>7.6469118452587193</v>
+        <v>7.6486157920303999</v>
       </c>
       <c r="O44" s="28">
-        <f t="shared" si="6"/>
-        <v>1.6303476166774692E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6142902842508532E-2</v>
       </c>
       <c r="P44" s="29">
-        <f t="shared" si="7"/>
-        <v>122.61249148764882</v>
+        <f t="shared" si="9"/>
+        <v>122.59236210991611</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="26">
+        <f t="shared" si="8"/>
         <v>296</v>
       </c>
       <c r="C45" s="26">
-        <v>332.99</v>
+        <f t="shared" si="3"/>
+        <v>333</v>
       </c>
       <c r="D45" s="14">
         <v>1</v>
       </c>
       <c r="E45" s="27">
         <f t="shared" si="0"/>
-        <v>314.495</v>
+        <v>314.5</v>
       </c>
       <c r="F45" s="28">
-        <f t="shared" si="3"/>
-        <v>1.5484419517771146E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5487820977048128E-2</v>
       </c>
       <c r="G45" s="28">
-        <f t="shared" si="4"/>
-        <v>1.5575206707514666E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.5578677301098742E-2</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" si="5"/>
-        <v>3.1150413415029332</v>
+        <f t="shared" si="6"/>
+        <v>3.1157354602197485</v>
       </c>
       <c r="I45" s="33"/>
       <c r="J45" s="22">
@@ -29199,7 +29213,7 @@
       </c>
       <c r="L45" s="26">
         <f>C50</f>
-        <v>517.99</v>
+        <v>518</v>
       </c>
       <c r="M45" s="14">
         <f>SUM(D46:D50)</f>
@@ -29207,45 +29221,47 @@
       </c>
       <c r="N45" s="28">
         <f>SUM(H46:H50)</f>
-        <v>5.7978790402846814</v>
+        <v>5.7991709706055161</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" si="6"/>
-        <v>51.038140578066887</v>
+        <f t="shared" si="7"/>
+        <v>51.019106144333442</v>
       </c>
       <c r="P45" s="31">
-        <f t="shared" si="7"/>
-        <v>173.65063206571571</v>
+        <f t="shared" si="9"/>
+        <v>173.61146825424956</v>
       </c>
       <c r="Q45" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="26">
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="C46" s="26">
-        <v>369.99</v>
+        <f t="shared" si="3"/>
+        <v>370</v>
       </c>
       <c r="D46" s="14">
         <v>3</v>
       </c>
       <c r="E46" s="27">
         <f t="shared" si="0"/>
-        <v>351.495</v>
+        <v>351.5</v>
       </c>
       <c r="F46" s="28">
-        <f t="shared" si="3"/>
-        <v>1.0643421277606584E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0645759315787613E-2</v>
       </c>
       <c r="G46" s="28">
-        <f t="shared" si="4"/>
-        <v>1.0705825057479634E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.0708210616044211E-2</v>
       </c>
       <c r="H46" s="28">
         <f>G46*N</f>
-        <v>2.1411650114959269</v>
+        <v>2.1416421232088423</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46" s="4"/>
@@ -29257,70 +29273,74 @@
         <v>2.165</v>
       </c>
       <c r="Q46" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="C47" s="26">
-        <v>406.99</v>
+        <f t="shared" si="3"/>
+        <v>407</v>
       </c>
       <c r="D47" s="14">
         <v>4</v>
       </c>
       <c r="E47" s="27">
         <f t="shared" si="0"/>
-        <v>388.495</v>
+        <v>388.5</v>
       </c>
       <c r="F47" s="28">
-        <f t="shared" si="3"/>
-        <v>7.3158968834832134E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.3175039650593254E-3</v>
       </c>
       <c r="G47" s="28">
-        <f t="shared" si="4"/>
-        <v>7.3587909498538107E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.3604306951963183E-3</v>
       </c>
       <c r="H47" s="28">
-        <f t="shared" si="5"/>
-        <v>1.4717581899707621</v>
+        <f t="shared" si="6"/>
+        <v>1.4720861390392637</v>
       </c>
       <c r="I47" s="33"/>
       <c r="J47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N47" s="35"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48" s="26">
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="C48" s="26">
-        <v>443.99</v>
+        <f t="shared" si="3"/>
+        <v>444</v>
       </c>
       <c r="D48" s="14">
         <v>0</v>
       </c>
       <c r="E48" s="27">
         <f t="shared" si="0"/>
-        <v>425.495</v>
+        <v>425.5</v>
       </c>
       <c r="F48" s="28">
-        <f t="shared" si="3"/>
-        <v>5.0286788255171954E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.0297834743690557E-3</v>
       </c>
       <c r="G48" s="28">
-        <f t="shared" si="4"/>
-        <v>5.058162631362606E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.0592897320878016E-3</v>
       </c>
       <c r="H48" s="28">
-        <f t="shared" si="5"/>
-        <v>1.0116325262725212</v>
+        <f t="shared" si="6"/>
+        <v>1.0118579464175603</v>
       </c>
       <c r="I48" s="33"/>
       <c r="J48" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K48" s="15">
         <f>J45-1-1</f>
@@ -29331,29 +29351,31 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="26">
+        <f t="shared" si="8"/>
         <v>444</v>
       </c>
       <c r="C49" s="26">
-        <v>480.99</v>
+        <f t="shared" si="3"/>
+        <v>481</v>
       </c>
       <c r="D49" s="14">
         <v>2</v>
       </c>
       <c r="E49" s="27">
         <f t="shared" si="0"/>
-        <v>462.495</v>
+        <v>462.5</v>
       </c>
       <c r="F49" s="28">
-        <f t="shared" si="3"/>
-        <v>3.4565291355179895E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.4572884305681347E-3</v>
       </c>
       <c r="G49" s="28">
-        <f t="shared" si="4"/>
-        <v>3.4767952207993558E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.4775699484427269E-3</v>
       </c>
       <c r="H49" s="28">
-        <f t="shared" si="5"/>
-        <v>0.69535904415987115</v>
+        <f t="shared" si="6"/>
+        <v>0.69551398968854539</v>
       </c>
       <c r="I49" s="33"/>
       <c r="L49" s="4"/>
@@ -29362,29 +29384,31 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="26">
+        <f t="shared" si="8"/>
         <v>481</v>
       </c>
       <c r="C50" s="26">
-        <v>517.99</v>
+        <f t="shared" si="3"/>
+        <v>518</v>
       </c>
       <c r="D50" s="14">
         <v>14</v>
       </c>
       <c r="E50" s="27">
         <f t="shared" si="0"/>
-        <v>499.495</v>
+        <v>499.5</v>
       </c>
       <c r="F50" s="28">
-        <f t="shared" si="3"/>
-        <v>2.3758911792216022E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.376413090752311E-3</v>
       </c>
       <c r="G50" s="28">
-        <f t="shared" si="4"/>
-        <v>2.3898213419280001E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.3903538612565223E-3</v>
       </c>
       <c r="H50" s="28">
-        <f t="shared" si="5"/>
-        <v>0.47796426838560002</v>
+        <f t="shared" si="6"/>
+        <v>0.47807077225130445</v>
       </c>
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
@@ -29399,11 +29423,11 @@
       <c r="E51" s="4"/>
       <c r="F51" s="39">
         <f>SUM(F37:F50)</f>
-        <v>0.98872592883014143</v>
+        <v>0.9889431220532493</v>
       </c>
       <c r="G51" s="39">
         <f>SUM(G37:G50)</f>
-        <v>0.99452295909026855</v>
+        <v>0.99474456674311007</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -29412,7 +29436,7 @@
     </row>
     <row r="56" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -29427,8 +29451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29439,7 +29463,7 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
@@ -29449,7 +29473,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -29457,7 +29481,7 @@
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -29465,109 +29489,109 @@
     </row>
     <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="58" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H10" s="61">
+      <c r="H10" s="60">
         <f>ROUND(SQRT(I10),0)</f>
         <v>14</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <v>200</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63">
+      <c r="J10" s="61"/>
+      <c r="K10" s="62">
         <f>MIN('Serie de Datos'!Q5:Q204)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="62">
         <f>MAX('Serie de Datos'!Q5:Q204)</f>
         <v>255</v>
       </c>
-      <c r="M10" s="62"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="62">
         <f>(L10-K10)/H10</f>
         <v>18.142857142857142</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65">
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64">
         <f>ROUNDUP(N10,0)</f>
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="65">
         <f>SUM('Serie de Datos'!Q5:Q204)/I10</f>
         <v>124.12</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
     </row>
     <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="65">
         <f>1/I12</f>
         <v>8.0567193038994511E-3</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
     </row>
     <row r="14" spans="2:14" ht="40" x14ac:dyDescent="0.25">
-      <c r="H14" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="I14" s="68">
+      <c r="H14" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="67">
         <f>H10-1-1</f>
         <v>12</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
     </row>
     <row r="22" spans="2:17" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
-        <v>196</v>
+      <c r="B25" s="69" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29627,10 +29651,10 @@
         <v>175</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
@@ -29638,28 +29662,28 @@
         <v>0</v>
       </c>
       <c r="C29" s="45">
-        <f t="shared" ref="C29:C42" si="0">B29+$N$11-0.01</f>
-        <v>18.989999999999998</v>
+        <f>+B29+$N$11</f>
+        <v>19</v>
       </c>
       <c r="D29" s="26">
         <f t="array" ref="D29:D42">FREQUENCY(serviciomismo,C29:C42)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="48">
-        <f t="shared" ref="E29:E39" si="1">(C29+B29)/2</f>
-        <v>9.4949999999999992</v>
+        <f t="shared" ref="E29:E39" si="0">(C29+B29)/2</f>
+        <v>9.5</v>
       </c>
       <c r="F29" s="49">
-        <f t="shared" ref="F29:F42" si="2">L*EXP(-L*E29)*(C29-B29)</f>
-        <v>0.14172951461197922</v>
+        <f t="shared" ref="F29:F42" si="1">L*EXP(-L*E29)*(C29-B29)</f>
+        <v>0.14179843610823964</v>
       </c>
       <c r="G29" s="49">
-        <f t="shared" ref="G29:G42" si="3">(1-EXP(-L*C29))-(1-EXP(-L*B29))</f>
-        <v>0.14186778924929055</v>
+        <f t="shared" ref="G29:G42" si="2">(1-EXP(-L*C29))-(1-EXP(-L*B29))</f>
+        <v>0.14193692376774258</v>
       </c>
       <c r="H29" s="23">
-        <f>G29*Muestra</f>
-        <v>28.373557849858109</v>
+        <f t="shared" ref="H29:H42" si="3">G29*Muestra</f>
+        <v>28.387384753548517</v>
       </c>
       <c r="I29" s="42"/>
       <c r="K29" s="22">
@@ -29669,681 +29693,681 @@
         <v>0</v>
       </c>
       <c r="M29" s="45">
-        <f t="shared" ref="M29:M40" si="4">L29+$N$11-0.01</f>
-        <v>18.989999999999998</v>
+        <f>+L29+$N$11</f>
+        <v>19</v>
       </c>
       <c r="N29" s="26">
         <f t="array" ref="N29:N40">FREQUENCY(serviciomismo,M29:M42)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O29" s="45">
         <f>+H29</f>
-        <v>28.373557849858109</v>
+        <v>28.387384753548517</v>
       </c>
       <c r="P29" s="45">
         <f>((O29-N29)^2)/O29</f>
-        <v>42.257319378899069</v>
+        <v>44.6768300673859</v>
       </c>
       <c r="Q29" s="45">
         <f>P29</f>
-        <v>42.257319378899069</v>
+        <v>44.6768300673859</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="45">
-        <f>C29+0.01</f>
+        <f>C29</f>
         <v>19</v>
       </c>
       <c r="C30" s="45">
-        <f t="shared" si="0"/>
-        <v>37.99</v>
+        <f t="shared" ref="C30:C42" si="4">+B30+$N$11</f>
+        <v>38</v>
       </c>
       <c r="D30" s="26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="48">
         <f>(C30+B30)/2</f>
-        <v>28.495000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="F30" s="49">
+        <f t="shared" si="1"/>
+        <v>0.12167200229195935</v>
+      </c>
+      <c r="G30" s="49">
         <f t="shared" si="2"/>
-        <v>0.12161286330085959</v>
-      </c>
-      <c r="G30" s="49">
+        <v>0.12179083343909269</v>
+      </c>
+      <c r="H30" s="23">
         <f t="shared" si="3"/>
-        <v>0.12173151166151586</v>
-      </c>
-      <c r="H30" s="23">
-        <f>G30*Muestra</f>
-        <v>24.346302332303171</v>
+        <v>24.358166687818539</v>
       </c>
       <c r="I30" s="42"/>
       <c r="K30" s="22">
         <v>2</v>
       </c>
       <c r="L30" s="45">
-        <f>M29+0.01</f>
+        <f>M29</f>
         <v>19</v>
       </c>
       <c r="M30" s="45">
-        <f t="shared" si="4"/>
-        <v>37.99</v>
+        <f t="shared" ref="M30:M41" si="5">+L30+$N$11</f>
+        <v>38</v>
       </c>
       <c r="N30" s="26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" s="45">
-        <f t="shared" ref="O30:O40" si="5">+H30</f>
-        <v>24.346302332303171</v>
+        <f t="shared" ref="O30:O40" si="6">+H30</f>
+        <v>24.358166687818539</v>
       </c>
       <c r="P30" s="45">
-        <f t="shared" ref="P30:P41" si="6">((O30-N30)^2)/O30</f>
-        <v>5.2878081796107255</v>
+        <f t="shared" ref="P30:P41" si="7">((O30-N30)^2)/O30</f>
+        <v>6.2699416520655022</v>
       </c>
       <c r="Q30" s="45">
         <f>Q29+P30</f>
-        <v>47.545127558509797</v>
+        <v>50.946771719451405</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="45">
-        <f t="shared" ref="B31:B42" si="7">C30+0.01</f>
+        <f t="shared" ref="B31:B42" si="8">C30</f>
         <v>38</v>
       </c>
       <c r="C31" s="45">
-        <f t="shared" si="0"/>
-        <v>56.99</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="D31" s="26">
         <v>10</v>
       </c>
       <c r="E31" s="48">
         <f>(C31+B31)/2</f>
-        <v>47.495000000000005</v>
+        <v>47.5</v>
       </c>
       <c r="F31" s="49">
+        <f t="shared" si="1"/>
+        <v>0.10440225257797689</v>
+      </c>
+      <c r="G31" s="49">
         <f t="shared" si="2"/>
-        <v>0.10435150759334857</v>
-      </c>
-      <c r="G31" s="49">
+        <v>0.10450421719763825</v>
+      </c>
+      <c r="H31" s="23">
         <f t="shared" si="3"/>
-        <v>0.10445331537068314</v>
-      </c>
-      <c r="H31" s="23">
-        <f>G31*Muestra</f>
-        <v>20.890663074136629</v>
+        <v>20.900843439527648</v>
       </c>
       <c r="I31" s="42"/>
       <c r="K31" s="22">
         <v>3</v>
       </c>
       <c r="L31" s="45">
-        <f t="shared" ref="L31:L41" si="8">M30+0.01</f>
+        <f t="shared" ref="L31:L41" si="9">M30</f>
         <v>38</v>
       </c>
       <c r="M31" s="45">
-        <f t="shared" si="4"/>
-        <v>56.99</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="N31" s="26">
         <v>10</v>
       </c>
       <c r="O31" s="45">
-        <f t="shared" si="5"/>
-        <v>20.890663074136629</v>
+        <f t="shared" si="6"/>
+        <v>20.900843439527648</v>
       </c>
       <c r="P31" s="45">
-        <f t="shared" si="6"/>
-        <v>5.6774905503694679</v>
+        <f t="shared" si="7"/>
+        <v>5.6853393518256237</v>
       </c>
       <c r="Q31" s="45">
         <f>Q30+P31</f>
-        <v>53.222618108879267</v>
+        <v>56.632111071277031</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="C32" s="45">
-        <f t="shared" si="0"/>
-        <v>75.989999999999995</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="D32" s="26">
         <v>7</v>
       </c>
       <c r="E32" s="48">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="F32" s="49">
         <f t="shared" si="1"/>
-        <v>66.495000000000005</v>
-      </c>
-      <c r="F32" s="49">
+        <v>8.9583718012635996E-2</v>
+      </c>
+      <c r="G32" s="49">
         <f t="shared" si="2"/>
-        <v>8.9540175615022408E-2</v>
-      </c>
-      <c r="G32" s="49">
+        <v>8.9671210087849507E-2</v>
+      </c>
+      <c r="H32" s="23">
         <f t="shared" si="3"/>
-        <v>8.9627533109626456E-2</v>
-      </c>
-      <c r="H32" s="23">
-        <f>G32*Muestra</f>
-        <v>17.92550662192529</v>
+        <v>17.9342420175699</v>
       </c>
       <c r="I32" s="42"/>
       <c r="K32" s="22">
         <v>4</v>
       </c>
       <c r="L32" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="M32" s="45">
-        <f t="shared" si="4"/>
-        <v>75.989999999999995</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
       <c r="N32" s="26">
         <v>7</v>
       </c>
       <c r="O32" s="45">
-        <f t="shared" si="5"/>
-        <v>17.92550662192529</v>
+        <f t="shared" si="6"/>
+        <v>17.9342420175699</v>
       </c>
       <c r="P32" s="45">
-        <f t="shared" si="6"/>
-        <v>6.6590416362197509</v>
+        <f t="shared" si="7"/>
+        <v>6.6664455839093897</v>
       </c>
       <c r="Q32" s="45">
         <f>Q31+P32</f>
-        <v>59.881659745099014</v>
+        <v>63.298556655186417</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="C33" s="45">
-        <f t="shared" si="0"/>
-        <v>94.99</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="D33" s="26">
         <v>5</v>
       </c>
       <c r="E33" s="48">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="F33" s="49">
         <f t="shared" si="1"/>
-        <v>85.495000000000005</v>
-      </c>
-      <c r="F33" s="49">
+        <v>7.6868480658245517E-2</v>
+      </c>
+      <c r="G33" s="49">
         <f t="shared" si="2"/>
-        <v>7.6831118534602685E-2</v>
-      </c>
-      <c r="G33" s="49">
+        <v>7.6943554377449153E-2</v>
+      </c>
+      <c r="H33" s="23">
         <f t="shared" si="3"/>
-        <v>7.6906076775154708E-2</v>
-      </c>
-      <c r="H33" s="23">
-        <f>G33*Muestra</f>
-        <v>15.381215355030943</v>
+        <v>15.388710875489831</v>
       </c>
       <c r="I33" s="42"/>
       <c r="K33" s="22">
         <v>5</v>
       </c>
       <c r="L33" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="M33" s="45">
-        <f t="shared" si="4"/>
-        <v>94.99</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
       <c r="N33" s="26">
         <v>5</v>
       </c>
       <c r="O33" s="45">
-        <f t="shared" si="5"/>
-        <v>15.381215355030943</v>
+        <f t="shared" si="6"/>
+        <v>15.388710875489831</v>
       </c>
       <c r="P33" s="45">
-        <f t="shared" si="6"/>
-        <v>7.0065745625413491</v>
+        <f t="shared" si="7"/>
+        <v>7.0132784043930103</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" ref="Q33:Q41" si="9">Q32+P33</f>
-        <v>66.88823430764036</v>
+        <f t="shared" ref="Q33:Q41" si="10">Q32+P33</f>
+        <v>70.311835059579423</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="C34" s="45">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="D34" s="26">
+        <v>4</v>
+      </c>
+      <c r="E34" s="48">
         <f t="shared" si="0"/>
-        <v>113.99</v>
-      </c>
-      <c r="D34" s="26">
-        <v>3</v>
-      </c>
-      <c r="E34" s="48">
+        <v>104.5</v>
+      </c>
+      <c r="F34" s="49">
         <f t="shared" si="1"/>
-        <v>104.495</v>
-      </c>
-      <c r="F34" s="49">
+        <v>6.5958004978913923E-2</v>
+      </c>
+      <c r="G34" s="49">
         <f t="shared" si="2"/>
-        <v>6.5925945920166387E-2</v>
-      </c>
-      <c r="G34" s="49">
+        <v>6.6022422965358096E-2</v>
+      </c>
+      <c r="H34" s="23">
         <f t="shared" si="3"/>
-        <v>6.599026481864334E-2</v>
-      </c>
-      <c r="H34" s="23">
-        <f>G34*Muestra</f>
-        <v>13.198052963728667</v>
+        <v>13.204484593071619</v>
       </c>
       <c r="I34" s="42"/>
       <c r="K34" s="22">
         <v>6</v>
       </c>
       <c r="L34" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="M34" s="45">
-        <f t="shared" si="4"/>
-        <v>113.99</v>
+        <f t="shared" si="5"/>
+        <v>114</v>
       </c>
       <c r="N34" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O34" s="45">
-        <f t="shared" si="5"/>
-        <v>13.198052963728667</v>
+        <f t="shared" si="6"/>
+        <v>13.204484593071619</v>
       </c>
       <c r="P34" s="45">
-        <f t="shared" si="6"/>
-        <v>7.8799717304387347</v>
+        <f t="shared" si="7"/>
+        <v>6.4161941366910034</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="9"/>
-        <v>74.7682060380791</v>
+        <f t="shared" si="10"/>
+        <v>76.728029196270427</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="C35" s="45">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="D35" s="26">
+        <v>5</v>
+      </c>
+      <c r="E35" s="48">
         <f t="shared" si="0"/>
-        <v>132.99</v>
-      </c>
-      <c r="D35" s="26">
-        <v>6</v>
-      </c>
-      <c r="E35" s="48">
+        <v>123.5</v>
+      </c>
+      <c r="F35" s="49">
         <f t="shared" si="1"/>
-        <v>123.495</v>
-      </c>
-      <c r="F35" s="49">
+        <v>5.6596128654349438E-2</v>
+      </c>
+      <c r="G35" s="49">
         <f t="shared" si="2"/>
-        <v>5.6568619959779458E-2</v>
-      </c>
-      <c r="G35" s="49">
+        <v>5.6651403349962215E-2</v>
+      </c>
+      <c r="H35" s="23">
         <f t="shared" si="3"/>
-        <v>5.6623809631666466E-2</v>
-      </c>
-      <c r="H35" s="23">
-        <f>G35*Muestra</f>
-        <v>11.324761926333293</v>
+        <v>11.330280669992444</v>
       </c>
       <c r="I35" s="42"/>
       <c r="K35" s="22">
         <v>7</v>
       </c>
       <c r="L35" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="M35" s="45">
-        <f t="shared" si="4"/>
-        <v>132.99</v>
+        <f t="shared" si="5"/>
+        <v>133</v>
       </c>
       <c r="N35" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O35" s="45">
-        <f t="shared" si="5"/>
-        <v>11.324761926333293</v>
+        <f t="shared" si="6"/>
+        <v>11.330280669992444</v>
       </c>
       <c r="P35" s="45">
-        <f t="shared" si="6"/>
-        <v>2.5036366995229846</v>
+        <f t="shared" si="7"/>
+        <v>3.5367573432677117</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="9"/>
-        <v>77.271842737602086</v>
+        <f t="shared" si="10"/>
+        <v>80.264786539538136</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="C36" s="45">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="D36" s="26">
+        <v>7</v>
+      </c>
+      <c r="E36" s="48">
         <f t="shared" si="0"/>
-        <v>151.99</v>
-      </c>
-      <c r="D36" s="26">
-        <v>6</v>
-      </c>
-      <c r="E36" s="48">
+        <v>142.5</v>
+      </c>
+      <c r="F36" s="49">
         <f t="shared" si="1"/>
-        <v>142.495</v>
-      </c>
-      <c r="F36" s="49">
+        <v>4.856304825598768E-2</v>
+      </c>
+      <c r="G36" s="49">
         <f t="shared" si="2"/>
-        <v>4.853944406090184E-2</v>
-      </c>
-      <c r="G36" s="49">
+        <v>4.8610477431343058E-2</v>
+      </c>
+      <c r="H36" s="23">
         <f t="shared" si="3"/>
-        <v>4.8586800280537523E-2</v>
-      </c>
-      <c r="H36" s="23">
-        <f>G36*Muestra</f>
-        <v>9.7173600561075055</v>
+        <v>9.7220954862686106</v>
       </c>
       <c r="I36" s="42"/>
       <c r="K36" s="22">
         <v>8</v>
       </c>
       <c r="L36" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="M36" s="45">
-        <f t="shared" si="4"/>
-        <v>151.99</v>
+        <f t="shared" si="5"/>
+        <v>152</v>
       </c>
       <c r="N36" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36" s="45">
-        <f t="shared" si="5"/>
-        <v>9.7173600561075055</v>
+        <f t="shared" si="6"/>
+        <v>9.7220954862686106</v>
       </c>
       <c r="P36" s="45">
-        <f t="shared" si="6"/>
-        <v>1.4220699559298822</v>
+        <f t="shared" si="7"/>
+        <v>0.76216118704341829</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="9"/>
-        <v>78.693912693531971</v>
+        <f t="shared" si="10"/>
+        <v>81.026947726581554</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="C37" s="45">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="D37" s="26">
+        <v>4</v>
+      </c>
+      <c r="E37" s="48">
         <f t="shared" si="0"/>
-        <v>170.99</v>
-      </c>
-      <c r="D37" s="26">
-        <v>5</v>
-      </c>
-      <c r="E37" s="48">
+        <v>161.5</v>
+      </c>
+      <c r="F37" s="49">
         <f t="shared" si="1"/>
-        <v>161.495</v>
-      </c>
-      <c r="F37" s="49">
+        <v>4.1670158577748355E-2</v>
+      </c>
+      <c r="G37" s="49">
         <f t="shared" si="2"/>
-        <v>4.1649904689501006E-2</v>
-      </c>
-      <c r="G37" s="49">
+        <v>4.1710855801857072E-2</v>
+      </c>
+      <c r="H37" s="23">
         <f t="shared" si="3"/>
-        <v>4.1690539313000263E-2</v>
-      </c>
-      <c r="H37" s="23">
-        <f>G37*Muestra</f>
-        <v>8.3381078626000527</v>
+        <v>8.3421711603714144</v>
       </c>
       <c r="I37" s="42"/>
       <c r="K37" s="22">
         <v>9</v>
       </c>
       <c r="L37" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="M37" s="45">
-        <f t="shared" si="4"/>
-        <v>170.99</v>
+        <f t="shared" si="5"/>
+        <v>171</v>
       </c>
       <c r="N37" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" s="45">
-        <f t="shared" si="5"/>
-        <v>8.3381078626000527</v>
+        <f t="shared" si="6"/>
+        <v>8.3421711603714144</v>
       </c>
       <c r="P37" s="45">
-        <f t="shared" si="6"/>
-        <v>1.3363900162929299</v>
+        <f t="shared" si="7"/>
+        <v>2.2601370822415241</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="9"/>
-        <v>80.030302709824895</v>
+        <f t="shared" si="10"/>
+        <v>83.287084808823082</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="C38" s="45">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="D38" s="26">
+        <v>2</v>
+      </c>
+      <c r="E38" s="48">
         <f t="shared" si="0"/>
-        <v>189.99</v>
-      </c>
-      <c r="D38" s="26">
-        <v>2</v>
-      </c>
-      <c r="E38" s="48">
+        <v>180.5</v>
+      </c>
+      <c r="F38" s="49">
         <f t="shared" si="1"/>
-        <v>180.495</v>
-      </c>
-      <c r="F38" s="49">
+        <v>3.5755624456308741E-2</v>
+      </c>
+      <c r="G38" s="49">
         <f t="shared" si="2"/>
-        <v>3.5738245342653553E-2</v>
-      </c>
-      <c r="G38" s="49">
+        <v>3.5790545241621508E-2</v>
+      </c>
+      <c r="H38" s="23">
         <f t="shared" si="3"/>
-        <v>3.5773112412694874E-2</v>
-      </c>
-      <c r="H38" s="23">
-        <f>G38*Muestra</f>
-        <v>7.1546224825389748</v>
+        <v>7.1581090483243015</v>
       </c>
       <c r="I38" s="42"/>
       <c r="K38" s="22">
         <v>10</v>
       </c>
       <c r="L38" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="M38" s="45">
-        <f t="shared" si="4"/>
-        <v>189.99</v>
+        <f t="shared" si="5"/>
+        <v>190</v>
       </c>
       <c r="N38" s="26">
         <v>2</v>
       </c>
       <c r="O38" s="45">
-        <f t="shared" si="5"/>
-        <v>7.1546224825389748</v>
+        <f t="shared" si="6"/>
+        <v>7.1581090483243015</v>
       </c>
       <c r="P38" s="45">
-        <f t="shared" si="6"/>
-        <v>3.7137015967427076</v>
+        <f t="shared" si="7"/>
+        <v>3.716915846739365</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" si="9"/>
-        <v>83.744004306567604</v>
+        <f t="shared" si="10"/>
+        <v>87.00400065556245</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="C39" s="45">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="D39" s="26">
+        <v>3</v>
+      </c>
+      <c r="E39" s="48">
         <f t="shared" si="0"/>
-        <v>208.99</v>
-      </c>
-      <c r="D39" s="26">
-        <v>3</v>
-      </c>
-      <c r="E39" s="48">
+        <v>199.5</v>
+      </c>
+      <c r="F39" s="49">
         <f t="shared" si="1"/>
-        <v>199.495</v>
-      </c>
-      <c r="F39" s="49">
+        <v>3.0680581113585612E-2</v>
+      </c>
+      <c r="G39" s="49">
         <f t="shared" si="2"/>
-        <v>3.0665668737860453E-2</v>
-      </c>
-      <c r="G39" s="49">
+        <v>3.0710545350055463E-2</v>
+      </c>
+      <c r="H39" s="23">
         <f t="shared" si="3"/>
-        <v>3.0695586883239256E-2</v>
-      </c>
-      <c r="H39" s="23">
-        <f>G39*Muestra</f>
-        <v>6.1391173766478513</v>
+        <v>6.1421090700110925</v>
       </c>
       <c r="I39" s="42"/>
       <c r="K39" s="22">
         <v>11</v>
       </c>
       <c r="L39" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="M39" s="45">
-        <f t="shared" si="4"/>
-        <v>208.99</v>
+        <f t="shared" si="5"/>
+        <v>209</v>
       </c>
       <c r="N39" s="26">
         <v>3</v>
       </c>
       <c r="O39" s="45">
-        <f t="shared" si="5"/>
-        <v>6.1391173766478513</v>
+        <f t="shared" si="6"/>
+        <v>6.1421090700110925</v>
       </c>
       <c r="P39" s="45">
-        <f t="shared" si="6"/>
-        <v>1.605126160619706</v>
+        <f t="shared" si="7"/>
+        <v>1.6074037916471162</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="9"/>
-        <v>85.349130467187308</v>
+        <f t="shared" si="10"/>
+        <v>88.611404447209566</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="C40" s="45">
-        <f t="shared" si="0"/>
-        <v>227.99</v>
+        <f t="shared" si="4"/>
+        <v>228</v>
       </c>
       <c r="D40" s="26">
         <v>6</v>
       </c>
       <c r="E40" s="48">
         <f>(C40+B40)/2</f>
-        <v>218.495</v>
+        <v>218.5</v>
       </c>
       <c r="F40" s="49">
+        <f t="shared" si="1"/>
+        <v>2.632587381091657E-2</v>
+      </c>
+      <c r="G40" s="49">
         <f t="shared" si="2"/>
-        <v>2.6313078051927914E-2</v>
-      </c>
-      <c r="G40" s="49">
+        <v>2.6351585015838896E-2</v>
+      </c>
+      <c r="H40" s="23">
         <f t="shared" si="3"/>
-        <v>2.6338749707786935E-2</v>
-      </c>
-      <c r="H40" s="23">
-        <f>G40*Muestra</f>
-        <v>5.267749941557387</v>
+        <v>5.2703170031677793</v>
       </c>
       <c r="I40" s="42"/>
-      <c r="K40" s="53">
+      <c r="K40" s="52">
         <v>12</v>
       </c>
-      <c r="L40" s="51">
-        <f t="shared" si="8"/>
+      <c r="L40" s="45">
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
-      <c r="M40" s="51">
-        <f t="shared" si="4"/>
-        <v>227.99</v>
-      </c>
-      <c r="N40" s="54">
+      <c r="M40" s="45">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="N40" s="53">
         <v>6</v>
       </c>
       <c r="O40" s="45">
-        <f t="shared" si="5"/>
-        <v>5.267749941557387</v>
+        <f t="shared" si="6"/>
+        <v>5.2703170031677793</v>
       </c>
       <c r="P40" s="45">
-        <f t="shared" si="6"/>
-        <v>0.10178731983065391</v>
+        <f t="shared" si="7"/>
+        <v>0.10102566421450998</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="9"/>
-        <v>85.450917787017957</v>
+        <f t="shared" si="10"/>
+        <v>88.712430111424069</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="C41" s="45">
-        <f t="shared" si="0"/>
-        <v>246.99</v>
+        <f t="shared" si="4"/>
+        <v>247</v>
       </c>
       <c r="D41" s="26">
         <v>17</v>
       </c>
       <c r="E41" s="48">
         <f>(C41+B41)/2</f>
-        <v>237.495</v>
+        <v>237.5</v>
       </c>
       <c r="F41" s="49">
+        <f t="shared" si="1"/>
+        <v>2.2589260266697296E-2</v>
+      </c>
+      <c r="G41" s="49">
         <f t="shared" si="2"/>
-        <v>2.2578280698376758E-2</v>
-      </c>
-      <c r="G41" s="49">
+        <v>2.2611322102286557E-2</v>
+      </c>
+      <c r="H41" s="23">
         <f t="shared" si="3"/>
-        <v>2.260030859837503E-2</v>
-      </c>
-      <c r="H41" s="23">
-        <f>G41*Muestra</f>
-        <v>4.5200617196750059</v>
+        <v>4.5222644204573115</v>
       </c>
       <c r="I41" s="42"/>
       <c r="K41" s="22">
         <v>13</v>
       </c>
       <c r="L41" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>228</v>
       </c>
       <c r="M41" s="45">
-        <f>C42</f>
-        <v>265.99</v>
+        <f t="shared" si="5"/>
+        <v>247</v>
       </c>
       <c r="N41" s="45">
         <f>D41+D42</f>
@@ -30351,87 +30375,87 @@
       </c>
       <c r="O41" s="45">
         <f>H41+H42</f>
-        <v>8.3985597836190315</v>
-      </c>
-      <c r="P41" s="57">
-        <f t="shared" si="6"/>
-        <v>466.62051805701452</v>
+        <v>8.4026525406106103</v>
+      </c>
+      <c r="P41" s="56">
+        <f t="shared" si="7"/>
+        <v>466.33225520316188</v>
       </c>
       <c r="Q41" s="50">
-        <f t="shared" si="9"/>
-        <v>552.07143584403252</v>
+        <f t="shared" si="10"/>
+        <v>555.04468531458599</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="C42" s="45">
-        <f t="shared" si="0"/>
-        <v>265.99</v>
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
       <c r="D42" s="26">
         <v>54</v>
       </c>
       <c r="E42" s="48">
         <f>(C42+B42)/2</f>
-        <v>256.495</v>
+        <v>256.5</v>
       </c>
       <c r="F42" s="49">
+        <f t="shared" si="1"/>
+        <v>1.9383010154253384E-2</v>
+      </c>
+      <c r="G42" s="49">
         <f t="shared" si="2"/>
-        <v>1.9373588992084564E-2</v>
-      </c>
-      <c r="G42" s="49">
+        <v>1.9401940600766499E-2</v>
+      </c>
+      <c r="H42" s="23">
         <f t="shared" si="3"/>
-        <v>1.9392490319720124E-2</v>
-      </c>
-      <c r="H42" s="23">
-        <f>G42*Muestra</f>
-        <v>3.8784980639440247</v>
+        <v>3.8803881201532997</v>
       </c>
       <c r="I42" s="42"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="52"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="58">
+      <c r="Q42" s="57">
         <v>19.675000000000001</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F43" s="56">
+      <c r="F43" s="55">
         <f>SUM(F29:F42)</f>
-        <v>0.88141795610906459</v>
-      </c>
-      <c r="G43" s="56">
+        <v>0.88184657991781834</v>
+      </c>
+      <c r="G43" s="55">
         <f>SUM(G29:G42)</f>
-        <v>0.88227788813193453</v>
+        <v>0.88270783672886155</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
-      <c r="O43" s="52"/>
+      <c r="O43" s="51"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D45" s="36"/>
       <c r="K45" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L45" s="44"/>
       <c r="M45" s="13">
@@ -30444,19 +30468,19 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
       <c r="E76" s="42"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K77" s="55"/>
+      <c r="K77" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/TP/TP1.xlsx
+++ b/TP/TP1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/4K3/TP1/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A601A31-AEEA-7745-8C2C-C3021F71DA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F241A24-2DD4-1C43-886D-95E799A0E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,17 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="L">'Conexiones al mismo Servicio'!$I$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Conexiones al mismo Servicio'!$D$41:$D$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Conexiones al mismo Servicio'!$D$41:$D$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Conexiones al mismo Servicio'!$N$41:$N$53</definedName>
+    <definedName name="L">'Conexiones al mismo Servicio'!$C$11</definedName>
     <definedName name="Lambda" localSheetId="2">'[1]Conexiones al mismo Host'!$C$28</definedName>
-    <definedName name="Lambda">'Conexiones a un mismo Host'!$C$28</definedName>
-    <definedName name="Media">'Conexiones a un mismo Host'!$C$27</definedName>
+    <definedName name="Lambda">'Conexiones a un mismo Host'!$C$31</definedName>
+    <definedName name="Media">'Conexiones a un mismo Host'!$C$30</definedName>
     <definedName name="mismoservicio" localSheetId="0">'Serie de Datos'!$A$5:$AA$11854</definedName>
-    <definedName name="Muestra" localSheetId="2">'Conexiones al mismo Servicio'!$I$10</definedName>
+    <definedName name="Muestra" localSheetId="2">'Conexiones al mismo Servicio'!$C$8</definedName>
     <definedName name="N" localSheetId="2">'[1]Conexiones al mismo Host'!$C$25</definedName>
-    <definedName name="N">'Conexiones a un mismo Host'!$C$25</definedName>
+    <definedName name="N">'Conexiones a un mismo Host'!$C$28</definedName>
     <definedName name="serviciomismo">'Serie de Datos'!$Q$5:$Q$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -106,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="200">
   <si>
     <t>tcp</t>
   </si>
@@ -606,12 +609,6 @@
     <t>Intervalos</t>
   </si>
   <si>
-    <t>Numero intervalos</t>
-  </si>
-  <si>
-    <t>cant datos</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -651,9 +648,6 @@
     <t>P() c/Pac</t>
   </si>
   <si>
-    <t xml:space="preserve">    Muestra de 200 conexiones a un mismo host en los ultimos 2 seg</t>
-  </si>
-  <si>
     <t>CALC</t>
   </si>
   <si>
@@ -661,24 +655,6 @@
   </si>
   <si>
     <t>C(AC)</t>
-  </si>
-  <si>
-    <t>Tamaño de la muestra: 200</t>
-  </si>
-  <si>
-    <t>Variable: número de conexiones a un mismo servicio</t>
-  </si>
-  <si>
-    <t>Intervalos Optimazados fe &gt;= 5</t>
-  </si>
-  <si>
-    <t>H0: La serie corresponde a una distribución exponencial negativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ejemplos de distribuciones exponenciales negativas </t>
-  </si>
-  <si>
-    <t>v (grados de libertad)</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -690,14 +666,17 @@
     <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo host</t>
   </si>
   <si>
-    <t>C</t>
+    <t>H0: La serie corresponde a una distribución exponencial negativa de lamda 0,01</t>
+  </si>
+  <si>
+    <t>H0: La serie corresponde a una distribución exponencial negativa de lambda 0,01</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -708,7 +687,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -718,7 +697,63 @@
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   El valor calculado (173,611 CALC) es mayor al valor tabulado (2,165 TAB), por lo tanto, se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RECHAZA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la hipotesis nula (H0). La serie de datos no tiene la calidad suficiente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conclusión</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -729,7 +764,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -739,70 +774,47 @@
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> la hipotesis nula (H0) </t>
+      <t xml:space="preserve"> la hipotesis nula (H0). La serie de datos no tienen la calidad suficiente</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conclusión</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   El valor calculado (173,611 CALC) es mayor al valor tabulado (2,165 TAB), por lo tanto, se </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RECHAZA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> la hipotesis nula (H0) </t>
-    </r>
+    <t>Prueba de bondad Chi cuadrado sobre la serie de datos: intevalos oprimizados</t>
+  </si>
+  <si>
+    <t>v (gdl)</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>1-alfa</t>
+  </si>
+  <si>
+    <t>1-Alfa</t>
+  </si>
+  <si>
+    <t>Intervalos Optimazados (fe&gt;=5)</t>
+  </si>
+  <si>
+    <t>número de conexiones a un mismo servicio</t>
+  </si>
+  <si>
+    <t>Muestra</t>
+  </si>
+  <si>
+    <t>Variable:</t>
+  </si>
+  <si>
+    <t>Nro de conexiones a un mismo host en los ultimos 2 seg</t>
   </si>
 </sst>
 </file>
@@ -813,7 +825,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -859,14 +871,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,30 +897,13 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,12 +919,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,14 +940,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1036,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,35 +1102,24 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,14 +1127,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1127,19 +1142,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,8 +1169,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,7 +1184,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1193,13 +1205,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,13 +1238,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,8 +1314,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4500225778850701E-2"/>
-          <c:y val="7.29400100723262E-2"/>
+          <c:x val="9.6138220411783104E-2"/>
+          <c:y val="7.2939920621688512E-2"/>
           <c:w val="0.89163910265210289"/>
           <c:h val="0.84409862551873738"/>
         </c:manualLayout>
@@ -1297,9 +1340,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Conexiones a un mismo Host'!$E$40:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>499.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Conexiones a un mismo Host'!$D$37:$D$50</c:f>
+              <c:f>'Conexiones a un mismo Host'!$D$40:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1390,7 +1484,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Conexiones a un mismo Host'!$D$37:$D$50</c:f>
+              <c:f>'Conexiones a un mismo Host'!$D$40:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1466,6 +1560,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1664,9 +1759,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Conexiones al mismo Servicio'!$E$41:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Conexiones al mismo Servicio'!$D$29:$D$42</c:f>
+              <c:f>'Conexiones al mismo Servicio'!$D$41:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1756,7 +1902,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Conexiones al mismo Servicio'!$D$29:$D$42</c:f>
+              <c:f>'Conexiones al mismo Servicio'!$D$41:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1832,6 +1978,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3088,140 +3235,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>677704</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>98097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>17805</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>113756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Distribución de Poisson - Wikipedia, la enciclopedia libre">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6096371" y="1230514"/>
-          <a:ext cx="4158692" cy="3232992"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81969</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>99028</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>116415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Distribución exponencial - Wikipedia, la enciclopedia libre">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10517136" y="1333500"/>
-          <a:ext cx="3675717" cy="2931582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>124289</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>124288</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>45864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>470891</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175298</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3240,7 +3265,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3250,8 +3275,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -3309,15 +3334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>127567</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>127566</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>184716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>767443</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>74839</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3348,8 +3373,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -3720,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA296"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3839,7 +3864,7 @@
       <c r="P5">
         <v>26</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="37">
         <v>10</v>
       </c>
       <c r="R5" t="s">
@@ -3923,7 +3948,7 @@
       <c r="P6">
         <v>255</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="37">
         <v>254</v>
       </c>
       <c r="R6" t="s">
@@ -4007,7 +4032,7 @@
       <c r="P7">
         <v>255</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="37">
         <v>79</v>
       </c>
       <c r="R7" t="s">
@@ -4091,7 +4116,7 @@
       <c r="P8">
         <v>255</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="37">
         <v>255</v>
       </c>
       <c r="R8" t="s">
@@ -4175,7 +4200,7 @@
       <c r="P9">
         <v>16</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="37">
         <v>1</v>
       </c>
       <c r="R9" t="s">
@@ -4259,7 +4284,7 @@
       <c r="P10">
         <v>255</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="37">
         <v>229</v>
       </c>
       <c r="R10" t="s">
@@ -4343,7 +4368,7 @@
       <c r="P11">
         <v>255</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="37">
         <v>9</v>
       </c>
       <c r="R11" t="s">
@@ -4427,7 +4452,7 @@
       <c r="P12">
         <v>255</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="37">
         <v>165</v>
       </c>
       <c r="R12" t="s">
@@ -4511,7 +4536,7 @@
       <c r="P13">
         <v>255</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="37">
         <v>255</v>
       </c>
       <c r="R13" t="s">
@@ -4595,7 +4620,7 @@
       <c r="P14">
         <v>93</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="37">
         <v>51</v>
       </c>
       <c r="R14" t="s">
@@ -4679,7 +4704,7 @@
       <c r="P15">
         <v>255</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="37">
         <v>1</v>
       </c>
       <c r="R15" t="s">
@@ -4763,7 +4788,7 @@
       <c r="P16">
         <v>255</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="37">
         <v>1</v>
       </c>
       <c r="R16" t="s">
@@ -4847,7 +4872,7 @@
       <c r="P17">
         <v>255</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="37">
         <v>40</v>
       </c>
       <c r="R17" t="s">
@@ -4931,7 +4956,7 @@
       <c r="P18">
         <v>255</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="37">
         <v>254</v>
       </c>
       <c r="R18" t="s">
@@ -5015,7 +5040,7 @@
       <c r="P19">
         <v>255</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="37">
         <v>115</v>
       </c>
       <c r="R19" t="s">
@@ -5099,7 +5124,7 @@
       <c r="P20">
         <v>64</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="37">
         <v>59</v>
       </c>
       <c r="R20" t="s">
@@ -5183,7 +5208,7 @@
       <c r="P21">
         <v>255</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="37">
         <v>255</v>
       </c>
       <c r="R21" t="s">
@@ -5267,7 +5292,7 @@
       <c r="P22">
         <v>255</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="37">
         <v>15</v>
       </c>
       <c r="R22" t="s">
@@ -5351,7 +5376,7 @@
       <c r="P23">
         <v>255</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="37">
         <v>146</v>
       </c>
       <c r="R23" t="s">
@@ -5435,7 +5460,7 @@
       <c r="P24">
         <v>255</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="37">
         <v>1</v>
       </c>
       <c r="R24" t="s">
@@ -5519,7 +5544,7 @@
       <c r="P25">
         <v>255</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="37">
         <v>158</v>
       </c>
       <c r="R25" t="s">
@@ -5603,7 +5628,7 @@
       <c r="P26">
         <v>255</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="37">
         <v>1</v>
       </c>
       <c r="R26" t="s">
@@ -5687,7 +5712,7 @@
       <c r="P27">
         <v>66</v>
       </c>
-      <c r="Q27" s="47">
+      <c r="Q27" s="37">
         <v>11</v>
       </c>
       <c r="R27" t="s">
@@ -5771,7 +5796,7 @@
       <c r="P28">
         <v>255</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="37">
         <v>214</v>
       </c>
       <c r="R28" t="s">
@@ -5855,7 +5880,7 @@
       <c r="P29">
         <v>255</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="37">
         <v>255</v>
       </c>
       <c r="R29" t="s">
@@ -5939,7 +5964,7 @@
       <c r="P30">
         <v>255</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="37">
         <v>252</v>
       </c>
       <c r="R30" t="s">
@@ -6023,7 +6048,7 @@
       <c r="P31">
         <v>255</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="37">
         <v>255</v>
       </c>
       <c r="R31" t="s">
@@ -6107,7 +6132,7 @@
       <c r="P32">
         <v>84</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="37">
         <v>46</v>
       </c>
       <c r="R32" t="s">
@@ -6191,7 +6216,7 @@
       <c r="P33">
         <v>255</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="37">
         <v>239</v>
       </c>
       <c r="R33" t="s">
@@ -6275,7 +6300,7 @@
       <c r="P34">
         <v>255</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="37">
         <v>6</v>
       </c>
       <c r="R34" t="s">
@@ -6359,7 +6384,7 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="37">
         <v>48</v>
       </c>
       <c r="R35" t="s">
@@ -6443,7 +6468,7 @@
       <c r="P36">
         <v>15</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="37">
         <v>16</v>
       </c>
       <c r="R36" t="s">
@@ -6527,7 +6552,7 @@
       <c r="P37">
         <v>255</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="37">
         <v>255</v>
       </c>
       <c r="R37" t="s">
@@ -6611,7 +6636,7 @@
       <c r="P38">
         <v>138</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="37">
         <v>137</v>
       </c>
       <c r="R38" t="s">
@@ -6695,7 +6720,7 @@
       <c r="P39">
         <v>255</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="37">
         <v>255</v>
       </c>
       <c r="R39" t="s">
@@ -6779,7 +6804,7 @@
       <c r="P40">
         <v>255</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="37">
         <v>19</v>
       </c>
       <c r="R40" t="s">
@@ -6863,7 +6888,7 @@
       <c r="P41">
         <v>255</v>
       </c>
-      <c r="Q41" s="47">
+      <c r="Q41" s="37">
         <v>63</v>
       </c>
       <c r="R41" t="s">
@@ -6947,7 +6972,7 @@
       <c r="P42">
         <v>255</v>
       </c>
-      <c r="Q42" s="47">
+      <c r="Q42" s="37">
         <v>112</v>
       </c>
       <c r="R42" t="s">
@@ -7031,7 +7056,7 @@
       <c r="P43">
         <v>255</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="Q43" s="37">
         <v>5</v>
       </c>
       <c r="R43" t="s">
@@ -7115,7 +7140,7 @@
       <c r="P44">
         <v>255</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q44" s="37">
         <v>17</v>
       </c>
       <c r="R44" t="s">
@@ -7199,7 +7224,7 @@
       <c r="P45">
         <v>108</v>
       </c>
-      <c r="Q45" s="47">
+      <c r="Q45" s="37">
         <v>192</v>
       </c>
       <c r="R45" t="s">
@@ -7283,7 +7308,7 @@
       <c r="P46">
         <v>255</v>
       </c>
-      <c r="Q46" s="47">
+      <c r="Q46" s="37">
         <v>255</v>
       </c>
       <c r="R46" t="s">
@@ -7367,7 +7392,7 @@
       <c r="P47">
         <v>255</v>
       </c>
-      <c r="Q47" s="47">
+      <c r="Q47" s="37">
         <v>255</v>
       </c>
       <c r="R47" t="s">
@@ -7451,7 +7476,7 @@
       <c r="P48">
         <v>255</v>
       </c>
-      <c r="Q48" s="47">
+      <c r="Q48" s="37">
         <v>254</v>
       </c>
       <c r="R48" t="s">
@@ -7535,7 +7560,7 @@
       <c r="P49">
         <v>255</v>
       </c>
-      <c r="Q49" s="47">
+      <c r="Q49" s="37">
         <v>13</v>
       </c>
       <c r="R49" t="s">
@@ -7619,7 +7644,7 @@
       <c r="P50">
         <v>255</v>
       </c>
-      <c r="Q50" s="47">
+      <c r="Q50" s="37">
         <v>8</v>
       </c>
       <c r="R50" t="s">
@@ -7703,7 +7728,7 @@
       <c r="P51">
         <v>255</v>
       </c>
-      <c r="Q51" s="47">
+      <c r="Q51" s="37">
         <v>17</v>
       </c>
       <c r="R51" t="s">
@@ -7787,7 +7812,7 @@
       <c r="P52">
         <v>255</v>
       </c>
-      <c r="Q52" s="47">
+      <c r="Q52" s="37">
         <v>254</v>
       </c>
       <c r="R52" t="s">
@@ -7871,7 +7896,7 @@
       <c r="P53">
         <v>60</v>
       </c>
-      <c r="Q53" s="47">
+      <c r="Q53" s="37">
         <v>86</v>
       </c>
       <c r="R53" t="s">
@@ -7955,7 +7980,7 @@
       <c r="P54">
         <v>255</v>
       </c>
-      <c r="Q54" s="47">
+      <c r="Q54" s="37">
         <v>1</v>
       </c>
       <c r="R54" t="s">
@@ -8039,7 +8064,7 @@
       <c r="P55">
         <v>255</v>
       </c>
-      <c r="Q55" s="47">
+      <c r="Q55" s="37">
         <v>255</v>
       </c>
       <c r="R55" t="s">
@@ -8123,7 +8148,7 @@
       <c r="P56">
         <v>255</v>
       </c>
-      <c r="Q56" s="47">
+      <c r="Q56" s="37">
         <v>232</v>
       </c>
       <c r="R56" t="s">
@@ -8207,7 +8232,7 @@
       <c r="P57">
         <v>255</v>
       </c>
-      <c r="Q57" s="47">
+      <c r="Q57" s="37">
         <v>1</v>
       </c>
       <c r="R57" t="s">
@@ -8291,7 +8316,7 @@
       <c r="P58">
         <v>255</v>
       </c>
-      <c r="Q58" s="47">
+      <c r="Q58" s="37">
         <v>238</v>
       </c>
       <c r="R58" t="s">
@@ -8375,7 +8400,7 @@
       <c r="P59">
         <v>255</v>
       </c>
-      <c r="Q59" s="47">
+      <c r="Q59" s="37">
         <v>125</v>
       </c>
       <c r="R59" t="s">
@@ -8459,7 +8484,7 @@
       <c r="P60">
         <v>102</v>
       </c>
-      <c r="Q60" s="47">
+      <c r="Q60" s="37">
         <v>51</v>
       </c>
       <c r="R60" t="s">
@@ -8543,7 +8568,7 @@
       <c r="P61">
         <v>255</v>
       </c>
-      <c r="Q61" s="47">
+      <c r="Q61" s="37">
         <v>255</v>
       </c>
       <c r="R61" t="s">
@@ -8627,7 +8652,7 @@
       <c r="P62">
         <v>255</v>
       </c>
-      <c r="Q62" s="47">
+      <c r="Q62" s="37">
         <v>255</v>
       </c>
       <c r="R62" t="s">
@@ -8711,7 +8736,7 @@
       <c r="P63">
         <v>255</v>
       </c>
-      <c r="Q63" s="47">
+      <c r="Q63" s="37">
         <v>34</v>
       </c>
       <c r="R63" t="s">
@@ -8795,7 +8820,7 @@
       <c r="P64">
         <v>148</v>
       </c>
-      <c r="Q64" s="47">
+      <c r="Q64" s="37">
         <v>4</v>
       </c>
       <c r="R64" t="s">
@@ -8879,7 +8904,7 @@
       <c r="P65">
         <v>255</v>
       </c>
-      <c r="Q65" s="47">
+      <c r="Q65" s="37">
         <v>253</v>
       </c>
       <c r="R65" t="s">
@@ -8963,7 +8988,7 @@
       <c r="P66">
         <v>4</v>
       </c>
-      <c r="Q66" s="47">
+      <c r="Q66" s="37">
         <v>70</v>
       </c>
       <c r="R66" t="s">
@@ -9047,7 +9072,7 @@
       <c r="P67">
         <v>255</v>
       </c>
-      <c r="Q67" s="47">
+      <c r="Q67" s="37">
         <v>255</v>
       </c>
       <c r="R67" t="s">
@@ -9131,7 +9156,7 @@
       <c r="P68">
         <v>255</v>
       </c>
-      <c r="Q68" s="47">
+      <c r="Q68" s="37">
         <v>233</v>
       </c>
       <c r="R68" t="s">
@@ -9215,7 +9240,7 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" s="47">
+      <c r="Q69" s="37">
         <v>12</v>
       </c>
       <c r="R69" t="s">
@@ -9299,7 +9324,7 @@
       <c r="P70">
         <v>111</v>
       </c>
-      <c r="Q70" s="47">
+      <c r="Q70" s="37">
         <v>99</v>
       </c>
       <c r="R70" t="s">
@@ -9383,7 +9408,7 @@
       <c r="P71">
         <v>255</v>
       </c>
-      <c r="Q71" s="47">
+      <c r="Q71" s="37">
         <v>255</v>
       </c>
       <c r="R71" t="s">
@@ -9467,7 +9492,7 @@
       <c r="P72">
         <v>255</v>
       </c>
-      <c r="Q72" s="47">
+      <c r="Q72" s="37">
         <v>1</v>
       </c>
       <c r="R72" t="s">
@@ -9551,7 +9576,7 @@
       <c r="P73">
         <v>146</v>
       </c>
-      <c r="Q73" s="47">
+      <c r="Q73" s="37">
         <v>88</v>
       </c>
       <c r="R73" t="s">
@@ -9635,7 +9660,7 @@
       <c r="P74">
         <v>255</v>
       </c>
-      <c r="Q74" s="47">
+      <c r="Q74" s="37">
         <v>66</v>
       </c>
       <c r="R74" t="s">
@@ -9719,7 +9744,7 @@
       <c r="P75">
         <v>255</v>
       </c>
-      <c r="Q75" s="47">
+      <c r="Q75" s="37">
         <v>3</v>
       </c>
       <c r="R75" t="s">
@@ -9803,7 +9828,7 @@
       <c r="P76">
         <v>255</v>
       </c>
-      <c r="Q76" s="47">
+      <c r="Q76" s="37">
         <v>255</v>
       </c>
       <c r="R76" t="s">
@@ -9887,7 +9912,7 @@
       <c r="P77">
         <v>255</v>
       </c>
-      <c r="Q77" s="47">
+      <c r="Q77" s="37">
         <v>255</v>
       </c>
       <c r="R77" t="s">
@@ -9971,7 +9996,7 @@
       <c r="P78">
         <v>255</v>
       </c>
-      <c r="Q78" s="47">
+      <c r="Q78" s="37">
         <v>254</v>
       </c>
       <c r="R78" t="s">
@@ -10055,7 +10080,7 @@
       <c r="P79">
         <v>255</v>
       </c>
-      <c r="Q79" s="47">
+      <c r="Q79" s="37">
         <v>18</v>
       </c>
       <c r="R79" t="s">
@@ -10139,7 +10164,7 @@
       <c r="P80">
         <v>255</v>
       </c>
-      <c r="Q80" s="47">
+      <c r="Q80" s="37">
         <v>8</v>
       </c>
       <c r="R80" t="s">
@@ -10223,7 +10248,7 @@
       <c r="P81">
         <v>255</v>
       </c>
-      <c r="Q81" s="47">
+      <c r="Q81" s="37">
         <v>44</v>
       </c>
       <c r="R81" t="s">
@@ -10307,7 +10332,7 @@
       <c r="P82">
         <v>255</v>
       </c>
-      <c r="Q82" s="47">
+      <c r="Q82" s="37">
         <v>1</v>
       </c>
       <c r="R82" t="s">
@@ -10391,7 +10416,7 @@
       <c r="P83">
         <v>255</v>
       </c>
-      <c r="Q83" s="47">
+      <c r="Q83" s="37">
         <v>6</v>
       </c>
       <c r="R83" t="s">
@@ -10475,7 +10500,7 @@
       <c r="P84">
         <v>255</v>
       </c>
-      <c r="Q84" s="47">
+      <c r="Q84" s="37">
         <v>255</v>
       </c>
       <c r="R84" t="s">
@@ -10559,7 +10584,7 @@
       <c r="P85">
         <v>255</v>
       </c>
-      <c r="Q85" s="47">
+      <c r="Q85" s="37">
         <v>255</v>
       </c>
       <c r="R85" t="s">
@@ -10643,7 +10668,7 @@
       <c r="P86">
         <v>255</v>
       </c>
-      <c r="Q86" s="47">
+      <c r="Q86" s="37">
         <v>21</v>
       </c>
       <c r="R86" t="s">
@@ -10727,7 +10752,7 @@
       <c r="P87">
         <v>6</v>
       </c>
-      <c r="Q87" s="47">
+      <c r="Q87" s="37">
         <v>28</v>
       </c>
       <c r="R87" t="s">
@@ -10811,7 +10836,7 @@
       <c r="P88">
         <v>255</v>
       </c>
-      <c r="Q88" s="47">
+      <c r="Q88" s="37">
         <v>255</v>
       </c>
       <c r="R88" t="s">
@@ -10895,7 +10920,7 @@
       <c r="P89">
         <v>87</v>
       </c>
-      <c r="Q89" s="47">
+      <c r="Q89" s="37">
         <v>177</v>
       </c>
       <c r="R89" t="s">
@@ -10979,7 +11004,7 @@
       <c r="P90">
         <v>255</v>
       </c>
-      <c r="Q90" s="47">
+      <c r="Q90" s="37">
         <v>255</v>
       </c>
       <c r="R90" t="s">
@@ -11063,7 +11088,7 @@
       <c r="P91">
         <v>255</v>
       </c>
-      <c r="Q91" s="47">
+      <c r="Q91" s="37">
         <v>28</v>
       </c>
       <c r="R91" t="s">
@@ -11147,7 +11172,7 @@
       <c r="P92">
         <v>190</v>
       </c>
-      <c r="Q92" s="47">
+      <c r="Q92" s="37">
         <v>60</v>
       </c>
       <c r="R92" t="s">
@@ -11231,7 +11256,7 @@
       <c r="P93">
         <v>64</v>
       </c>
-      <c r="Q93" s="47">
+      <c r="Q93" s="37">
         <v>44</v>
       </c>
       <c r="R93" t="s">
@@ -11315,7 +11340,7 @@
       <c r="P94">
         <v>255</v>
       </c>
-      <c r="Q94" s="47">
+      <c r="Q94" s="37">
         <v>1</v>
       </c>
       <c r="R94" t="s">
@@ -11399,7 +11424,7 @@
       <c r="P95">
         <v>255</v>
       </c>
-      <c r="Q95" s="47">
+      <c r="Q95" s="37">
         <v>136</v>
       </c>
       <c r="R95" t="s">
@@ -11483,7 +11508,7 @@
       <c r="P96">
         <v>255</v>
       </c>
-      <c r="Q96" s="47">
+      <c r="Q96" s="37">
         <v>188</v>
       </c>
       <c r="R96" t="s">
@@ -11567,7 +11592,7 @@
       <c r="P97">
         <v>255</v>
       </c>
-      <c r="Q97" s="47">
+      <c r="Q97" s="37">
         <v>114</v>
       </c>
       <c r="R97" t="s">
@@ -11651,7 +11676,7 @@
       <c r="P98">
         <v>255</v>
       </c>
-      <c r="Q98" s="47">
+      <c r="Q98" s="37">
         <v>255</v>
       </c>
       <c r="R98" t="s">
@@ -11735,7 +11760,7 @@
       <c r="P99">
         <v>255</v>
       </c>
-      <c r="Q99" s="47">
+      <c r="Q99" s="37">
         <v>11</v>
       </c>
       <c r="R99" t="s">
@@ -11819,7 +11844,7 @@
       <c r="P100">
         <v>255</v>
       </c>
-      <c r="Q100" s="47">
+      <c r="Q100" s="37">
         <v>225</v>
       </c>
       <c r="R100" t="s">
@@ -11903,7 +11928,7 @@
       <c r="P101">
         <v>255</v>
       </c>
-      <c r="Q101" s="47">
+      <c r="Q101" s="37">
         <v>232</v>
       </c>
       <c r="R101" t="s">
@@ -11987,7 +12012,7 @@
       <c r="P102">
         <v>255</v>
       </c>
-      <c r="Q102" s="47">
+      <c r="Q102" s="37">
         <v>254</v>
       </c>
       <c r="R102" t="s">
@@ -12071,7 +12096,7 @@
       <c r="P103">
         <v>255</v>
       </c>
-      <c r="Q103" s="47">
+      <c r="Q103" s="37">
         <v>1</v>
       </c>
       <c r="R103" t="s">
@@ -12155,7 +12180,7 @@
       <c r="P104">
         <v>96</v>
       </c>
-      <c r="Q104" s="47">
+      <c r="Q104" s="37">
         <v>71</v>
       </c>
       <c r="R104" t="s">
@@ -12239,7 +12264,7 @@
       <c r="P105">
         <v>255</v>
       </c>
-      <c r="Q105" s="47">
+      <c r="Q105" s="37">
         <v>1</v>
       </c>
       <c r="R105" t="s">
@@ -12323,7 +12348,7 @@
       <c r="P106">
         <v>255</v>
       </c>
-      <c r="Q106" s="47">
+      <c r="Q106" s="37">
         <v>8</v>
       </c>
       <c r="R106" t="s">
@@ -12407,7 +12432,7 @@
       <c r="P107">
         <v>255</v>
       </c>
-      <c r="Q107" s="47">
+      <c r="Q107" s="37">
         <v>60</v>
       </c>
       <c r="R107" t="s">
@@ -12491,7 +12516,7 @@
       <c r="P108">
         <v>5</v>
       </c>
-      <c r="Q108" s="47">
+      <c r="Q108" s="37">
         <v>25</v>
       </c>
       <c r="R108" t="s">
@@ -12575,7 +12600,7 @@
       <c r="P109">
         <v>255</v>
       </c>
-      <c r="Q109" s="47">
+      <c r="Q109" s="37">
         <v>132</v>
       </c>
       <c r="R109" t="s">
@@ -12659,7 +12684,7 @@
       <c r="P110">
         <v>255</v>
       </c>
-      <c r="Q110" s="47">
+      <c r="Q110" s="37">
         <v>15</v>
       </c>
       <c r="R110" t="s">
@@ -12743,7 +12768,7 @@
       <c r="P111">
         <v>255</v>
       </c>
-      <c r="Q111" s="47">
+      <c r="Q111" s="37">
         <v>17</v>
       </c>
       <c r="R111" t="s">
@@ -12827,7 +12852,7 @@
       <c r="P112">
         <v>255</v>
       </c>
-      <c r="Q112" s="47">
+      <c r="Q112" s="37">
         <v>255</v>
       </c>
       <c r="R112" t="s">
@@ -12911,7 +12936,7 @@
       <c r="P113">
         <v>255</v>
       </c>
-      <c r="Q113" s="47">
+      <c r="Q113" s="37">
         <v>229</v>
       </c>
       <c r="R113" t="s">
@@ -12995,7 +13020,7 @@
       <c r="P114">
         <v>255</v>
       </c>
-      <c r="Q114" s="47">
+      <c r="Q114" s="37">
         <v>255</v>
       </c>
       <c r="R114" t="s">
@@ -13079,7 +13104,7 @@
       <c r="P115">
         <v>255</v>
       </c>
-      <c r="Q115" s="47">
+      <c r="Q115" s="37">
         <v>5</v>
       </c>
       <c r="R115" t="s">
@@ -13163,7 +13188,7 @@
       <c r="P116">
         <v>226</v>
       </c>
-      <c r="Q116" s="47">
+      <c r="Q116" s="37">
         <v>14</v>
       </c>
       <c r="R116" t="s">
@@ -13247,7 +13272,7 @@
       <c r="P117">
         <v>255</v>
       </c>
-      <c r="Q117" s="47">
+      <c r="Q117" s="37">
         <v>213</v>
       </c>
       <c r="R117" t="s">
@@ -13331,7 +13356,7 @@
       <c r="P118">
         <v>255</v>
       </c>
-      <c r="Q118" s="47">
+      <c r="Q118" s="37">
         <v>136</v>
       </c>
       <c r="R118" t="s">
@@ -13415,7 +13440,7 @@
       <c r="P119">
         <v>255</v>
       </c>
-      <c r="Q119" s="47">
+      <c r="Q119" s="37">
         <v>164</v>
       </c>
       <c r="R119" t="s">
@@ -13499,7 +13524,7 @@
       <c r="P120">
         <v>255</v>
       </c>
-      <c r="Q120" s="47">
+      <c r="Q120" s="37">
         <v>161</v>
       </c>
       <c r="R120" t="s">
@@ -13583,7 +13608,7 @@
       <c r="P121">
         <v>255</v>
       </c>
-      <c r="Q121" s="47">
+      <c r="Q121" s="37">
         <v>237</v>
       </c>
       <c r="R121" t="s">
@@ -13667,7 +13692,7 @@
       <c r="P122">
         <v>255</v>
       </c>
-      <c r="Q122" s="47">
+      <c r="Q122" s="37">
         <v>2</v>
       </c>
       <c r="R122" t="s">
@@ -13751,7 +13776,7 @@
       <c r="P123">
         <v>255</v>
       </c>
-      <c r="Q123" s="47">
+      <c r="Q123" s="37">
         <v>237</v>
       </c>
       <c r="R123" t="s">
@@ -13835,7 +13860,7 @@
       <c r="P124">
         <v>255</v>
       </c>
-      <c r="Q124" s="47">
+      <c r="Q124" s="37">
         <v>4</v>
       </c>
       <c r="R124" t="s">
@@ -13919,7 +13944,7 @@
       <c r="P125">
         <v>255</v>
       </c>
-      <c r="Q125" s="47">
+      <c r="Q125" s="37">
         <v>255</v>
       </c>
       <c r="R125" t="s">
@@ -14003,7 +14028,7 @@
       <c r="P126">
         <v>179</v>
       </c>
-      <c r="Q126" s="47">
+      <c r="Q126" s="37">
         <v>85</v>
       </c>
       <c r="R126" t="s">
@@ -14087,7 +14112,7 @@
       <c r="P127">
         <v>255</v>
       </c>
-      <c r="Q127" s="47">
+      <c r="Q127" s="37">
         <v>254</v>
       </c>
       <c r="R127" t="s">
@@ -14171,7 +14196,7 @@
       <c r="P128">
         <v>255</v>
       </c>
-      <c r="Q128" s="47">
+      <c r="Q128" s="37">
         <v>229</v>
       </c>
       <c r="R128" t="s">
@@ -14255,7 +14280,7 @@
       <c r="P129">
         <v>255</v>
       </c>
-      <c r="Q129" s="47">
+      <c r="Q129" s="37">
         <v>255</v>
       </c>
       <c r="R129" t="s">
@@ -14339,7 +14364,7 @@
       <c r="P130">
         <v>255</v>
       </c>
-      <c r="Q130" s="47">
+      <c r="Q130" s="37">
         <v>152</v>
       </c>
       <c r="R130" t="s">
@@ -14423,7 +14448,7 @@
       <c r="P131">
         <v>255</v>
       </c>
-      <c r="Q131" s="47">
+      <c r="Q131" s="37">
         <v>255</v>
       </c>
       <c r="R131" t="s">
@@ -14507,7 +14532,7 @@
       <c r="P132">
         <v>255</v>
       </c>
-      <c r="Q132" s="47">
+      <c r="Q132" s="37">
         <v>8</v>
       </c>
       <c r="R132" t="s">
@@ -14591,7 +14616,7 @@
       <c r="P133">
         <v>255</v>
       </c>
-      <c r="Q133" s="47">
+      <c r="Q133" s="37">
         <v>1</v>
       </c>
       <c r="R133" t="s">
@@ -14675,7 +14700,7 @@
       <c r="P134">
         <v>1</v>
       </c>
-      <c r="Q134" s="47">
+      <c r="Q134" s="37">
         <v>11</v>
       </c>
       <c r="R134" t="s">
@@ -14759,7 +14784,7 @@
       <c r="P135">
         <v>255</v>
       </c>
-      <c r="Q135" s="47">
+      <c r="Q135" s="37">
         <v>211</v>
       </c>
       <c r="R135" t="s">
@@ -14843,7 +14868,7 @@
       <c r="P136">
         <v>255</v>
       </c>
-      <c r="Q136" s="47">
+      <c r="Q136" s="37">
         <v>241</v>
       </c>
       <c r="R136" t="s">
@@ -14927,7 +14952,7 @@
       <c r="P137">
         <v>255</v>
       </c>
-      <c r="Q137" s="47">
+      <c r="Q137" s="37">
         <v>225</v>
       </c>
       <c r="R137" t="s">
@@ -15011,7 +15036,7 @@
       <c r="P138">
         <v>255</v>
       </c>
-      <c r="Q138" s="47">
+      <c r="Q138" s="37">
         <v>1</v>
       </c>
       <c r="R138" t="s">
@@ -15095,7 +15120,7 @@
       <c r="P139">
         <v>255</v>
       </c>
-      <c r="Q139" s="47">
+      <c r="Q139" s="37">
         <v>254</v>
       </c>
       <c r="R139" t="s">
@@ -15179,7 +15204,7 @@
       <c r="P140">
         <v>173</v>
       </c>
-      <c r="Q140" s="47">
+      <c r="Q140" s="37">
         <v>86</v>
       </c>
       <c r="R140" t="s">
@@ -15263,7 +15288,7 @@
       <c r="P141">
         <v>255</v>
       </c>
-      <c r="Q141" s="47">
+      <c r="Q141" s="37">
         <v>254</v>
       </c>
       <c r="R141" t="s">
@@ -15347,7 +15372,7 @@
       <c r="P142">
         <v>255</v>
       </c>
-      <c r="Q142" s="47">
+      <c r="Q142" s="37">
         <v>147</v>
       </c>
       <c r="R142" t="s">
@@ -15431,7 +15456,7 @@
       <c r="P143">
         <v>255</v>
       </c>
-      <c r="Q143" s="47">
+      <c r="Q143" s="37">
         <v>246</v>
       </c>
       <c r="R143" t="s">
@@ -15515,7 +15540,7 @@
       <c r="P144">
         <v>91</v>
       </c>
-      <c r="Q144" s="47">
+      <c r="Q144" s="37">
         <v>48</v>
       </c>
       <c r="R144" t="s">
@@ -15599,7 +15624,7 @@
       <c r="P145">
         <v>2</v>
       </c>
-      <c r="Q145" s="47">
+      <c r="Q145" s="37">
         <v>13</v>
       </c>
       <c r="R145" t="s">
@@ -15683,7 +15708,7 @@
       <c r="P146">
         <v>255</v>
       </c>
-      <c r="Q146" s="47">
+      <c r="Q146" s="37">
         <v>243</v>
       </c>
       <c r="R146" t="s">
@@ -15767,7 +15792,7 @@
       <c r="P147">
         <v>255</v>
       </c>
-      <c r="Q147" s="47">
+      <c r="Q147" s="37">
         <v>16</v>
       </c>
       <c r="R147" t="s">
@@ -15851,7 +15876,7 @@
       <c r="P148">
         <v>255</v>
       </c>
-      <c r="Q148" s="47">
+      <c r="Q148" s="37">
         <v>1</v>
       </c>
       <c r="R148" t="s">
@@ -15935,7 +15960,7 @@
       <c r="P149">
         <v>255</v>
       </c>
-      <c r="Q149" s="47">
+      <c r="Q149" s="37">
         <v>14</v>
       </c>
       <c r="R149" t="s">
@@ -16019,7 +16044,7 @@
       <c r="P150">
         <v>255</v>
       </c>
-      <c r="Q150" s="47">
+      <c r="Q150" s="37">
         <v>234</v>
       </c>
       <c r="R150" t="s">
@@ -16103,7 +16128,7 @@
       <c r="P151">
         <v>255</v>
       </c>
-      <c r="Q151" s="47">
+      <c r="Q151" s="37">
         <v>139</v>
       </c>
       <c r="R151" t="s">
@@ -16187,7 +16212,7 @@
       <c r="P152">
         <v>255</v>
       </c>
-      <c r="Q152" s="47">
+      <c r="Q152" s="37">
         <v>248</v>
       </c>
       <c r="R152" t="s">
@@ -16271,7 +16296,7 @@
       <c r="P153">
         <v>255</v>
       </c>
-      <c r="Q153" s="47">
+      <c r="Q153" s="37">
         <v>1</v>
       </c>
       <c r="R153" t="s">
@@ -16355,7 +16380,7 @@
       <c r="P154">
         <v>68</v>
       </c>
-      <c r="Q154" s="47">
+      <c r="Q154" s="37">
         <v>56</v>
       </c>
       <c r="R154" t="s">
@@ -16439,7 +16464,7 @@
       <c r="P155">
         <v>255</v>
       </c>
-      <c r="Q155" s="47">
+      <c r="Q155" s="37">
         <v>20</v>
       </c>
       <c r="R155" t="s">
@@ -16523,7 +16548,7 @@
       <c r="P156">
         <v>255</v>
       </c>
-      <c r="Q156" s="47">
+      <c r="Q156" s="37">
         <v>192</v>
       </c>
       <c r="R156" t="s">
@@ -16607,7 +16632,7 @@
       <c r="P157">
         <v>255</v>
       </c>
-      <c r="Q157" s="47">
+      <c r="Q157" s="37">
         <v>248</v>
       </c>
       <c r="R157" t="s">
@@ -16691,7 +16716,7 @@
       <c r="P158">
         <v>255</v>
       </c>
-      <c r="Q158" s="47">
+      <c r="Q158" s="37">
         <v>21</v>
       </c>
       <c r="R158" t="s">
@@ -16775,7 +16800,7 @@
       <c r="P159">
         <v>255</v>
       </c>
-      <c r="Q159" s="47">
+      <c r="Q159" s="37">
         <v>126</v>
       </c>
       <c r="R159" t="s">
@@ -16859,7 +16884,7 @@
       <c r="P160">
         <v>255</v>
       </c>
-      <c r="Q160" s="47">
+      <c r="Q160" s="37">
         <v>255</v>
       </c>
       <c r="R160" t="s">
@@ -16943,7 +16968,7 @@
       <c r="P161">
         <v>255</v>
       </c>
-      <c r="Q161" s="47">
+      <c r="Q161" s="37">
         <v>248</v>
       </c>
       <c r="R161" t="s">
@@ -17027,7 +17052,7 @@
       <c r="P162">
         <v>255</v>
       </c>
-      <c r="Q162" s="47">
+      <c r="Q162" s="37">
         <v>15</v>
       </c>
       <c r="R162" t="s">
@@ -17111,7 +17136,7 @@
       <c r="P163">
         <v>255</v>
       </c>
-      <c r="Q163" s="47">
+      <c r="Q163" s="37">
         <v>243</v>
       </c>
       <c r="R163" t="s">
@@ -17195,7 +17220,7 @@
       <c r="P164">
         <v>255</v>
       </c>
-      <c r="Q164" s="47">
+      <c r="Q164" s="37">
         <v>231</v>
       </c>
       <c r="R164" t="s">
@@ -17279,7 +17304,7 @@
       <c r="P165">
         <v>255</v>
       </c>
-      <c r="Q165" s="47">
+      <c r="Q165" s="37">
         <v>129</v>
       </c>
       <c r="R165" t="s">
@@ -17363,7 +17388,7 @@
       <c r="P166">
         <v>255</v>
       </c>
-      <c r="Q166" s="47">
+      <c r="Q166" s="37">
         <v>1</v>
       </c>
       <c r="R166" t="s">
@@ -17447,7 +17472,7 @@
       <c r="P167">
         <v>134</v>
       </c>
-      <c r="Q167" s="47">
+      <c r="Q167" s="37">
         <v>8</v>
       </c>
       <c r="R167" t="s">
@@ -17531,7 +17556,7 @@
       <c r="P168">
         <v>255</v>
       </c>
-      <c r="Q168" s="47">
+      <c r="Q168" s="37">
         <v>4</v>
       </c>
       <c r="R168" t="s">
@@ -17615,7 +17640,7 @@
       <c r="P169">
         <v>255</v>
       </c>
-      <c r="Q169" s="47">
+      <c r="Q169" s="37">
         <v>255</v>
       </c>
       <c r="R169" t="s">
@@ -17699,7 +17724,7 @@
       <c r="P170">
         <v>255</v>
       </c>
-      <c r="Q170" s="47">
+      <c r="Q170" s="37">
         <v>9</v>
       </c>
       <c r="R170" t="s">
@@ -17783,7 +17808,7 @@
       <c r="P171">
         <v>255</v>
       </c>
-      <c r="Q171" s="47">
+      <c r="Q171" s="37">
         <v>2</v>
       </c>
       <c r="R171" t="s">
@@ -17867,7 +17892,7 @@
       <c r="P172">
         <v>255</v>
       </c>
-      <c r="Q172" s="47">
+      <c r="Q172" s="37">
         <v>254</v>
       </c>
       <c r="R172" t="s">
@@ -17951,7 +17976,7 @@
       <c r="P173">
         <v>255</v>
       </c>
-      <c r="Q173" s="47">
+      <c r="Q173" s="37">
         <v>255</v>
       </c>
       <c r="R173" t="s">
@@ -18035,7 +18060,7 @@
       <c r="P174">
         <v>255</v>
       </c>
-      <c r="Q174" s="47">
+      <c r="Q174" s="37">
         <v>35</v>
       </c>
       <c r="R174" t="s">
@@ -18119,7 +18144,7 @@
       <c r="P175">
         <v>27</v>
       </c>
-      <c r="Q175" s="47">
+      <c r="Q175" s="37">
         <v>53</v>
       </c>
       <c r="R175" t="s">
@@ -18203,7 +18228,7 @@
       <c r="P176">
         <v>255</v>
       </c>
-      <c r="Q176" s="47">
+      <c r="Q176" s="37">
         <v>25</v>
       </c>
       <c r="R176" t="s">
@@ -18287,7 +18312,7 @@
       <c r="P177">
         <v>255</v>
       </c>
-      <c r="Q177" s="47">
+      <c r="Q177" s="37">
         <v>1</v>
       </c>
       <c r="R177" t="s">
@@ -18371,7 +18396,7 @@
       <c r="P178">
         <v>1</v>
       </c>
-      <c r="Q178" s="47">
+      <c r="Q178" s="37">
         <v>110</v>
       </c>
       <c r="R178" t="s">
@@ -18455,7 +18480,7 @@
       <c r="P179">
         <v>255</v>
       </c>
-      <c r="Q179" s="47">
+      <c r="Q179" s="37">
         <v>224</v>
       </c>
       <c r="R179" t="s">
@@ -18539,7 +18564,7 @@
       <c r="P180">
         <v>6</v>
       </c>
-      <c r="Q180" s="47">
+      <c r="Q180" s="37">
         <v>1</v>
       </c>
       <c r="R180" t="s">
@@ -18623,7 +18648,7 @@
       <c r="P181">
         <v>255</v>
       </c>
-      <c r="Q181" s="47">
+      <c r="Q181" s="37">
         <v>243</v>
       </c>
       <c r="R181" t="s">
@@ -18707,7 +18732,7 @@
       <c r="P182">
         <v>255</v>
       </c>
-      <c r="Q182" s="47">
+      <c r="Q182" s="37">
         <v>8</v>
       </c>
       <c r="R182" t="s">
@@ -18791,7 +18816,7 @@
       <c r="P183">
         <v>255</v>
       </c>
-      <c r="Q183" s="47">
+      <c r="Q183" s="37">
         <v>255</v>
       </c>
       <c r="R183" t="s">
@@ -18875,7 +18900,7 @@
       <c r="P184">
         <v>56</v>
       </c>
-      <c r="Q184" s="47">
+      <c r="Q184" s="37">
         <v>29</v>
       </c>
       <c r="R184" t="s">
@@ -18959,7 +18984,7 @@
       <c r="P185">
         <v>255</v>
       </c>
-      <c r="Q185" s="47">
+      <c r="Q185" s="37">
         <v>255</v>
       </c>
       <c r="R185" t="s">
@@ -19043,7 +19068,7 @@
       <c r="P186">
         <v>255</v>
       </c>
-      <c r="Q186" s="47">
+      <c r="Q186" s="37">
         <v>255</v>
       </c>
       <c r="R186" t="s">
@@ -19127,7 +19152,7 @@
       <c r="P187">
         <v>255</v>
       </c>
-      <c r="Q187" s="47">
+      <c r="Q187" s="37">
         <v>255</v>
       </c>
       <c r="R187" t="s">
@@ -19211,7 +19236,7 @@
       <c r="P188">
         <v>255</v>
       </c>
-      <c r="Q188" s="47">
+      <c r="Q188" s="37">
         <v>254</v>
       </c>
       <c r="R188" t="s">
@@ -19295,7 +19320,7 @@
       <c r="P189">
         <v>255</v>
       </c>
-      <c r="Q189" s="47">
+      <c r="Q189" s="37">
         <v>255</v>
       </c>
       <c r="R189" t="s">
@@ -19379,7 +19404,7 @@
       <c r="P190">
         <v>255</v>
       </c>
-      <c r="Q190" s="47">
+      <c r="Q190" s="37">
         <v>1</v>
       </c>
       <c r="R190" t="s">
@@ -19463,7 +19488,7 @@
       <c r="P191">
         <v>255</v>
       </c>
-      <c r="Q191" s="47">
+      <c r="Q191" s="37">
         <v>5</v>
       </c>
       <c r="R191" t="s">
@@ -19547,7 +19572,7 @@
       <c r="P192">
         <v>255</v>
       </c>
-      <c r="Q192" s="47">
+      <c r="Q192" s="37">
         <v>255</v>
       </c>
       <c r="R192" t="s">
@@ -19631,7 +19656,7 @@
       <c r="P193">
         <v>251</v>
       </c>
-      <c r="Q193" s="47">
+      <c r="Q193" s="37">
         <v>6</v>
       </c>
       <c r="R193" t="s">
@@ -19715,7 +19740,7 @@
       <c r="P194">
         <v>255</v>
       </c>
-      <c r="Q194" s="47">
+      <c r="Q194" s="37">
         <v>17</v>
       </c>
       <c r="R194" t="s">
@@ -19799,7 +19824,7 @@
       <c r="P195">
         <v>255</v>
       </c>
-      <c r="Q195" s="47">
+      <c r="Q195" s="37">
         <v>1</v>
       </c>
       <c r="R195" t="s">
@@ -19883,7 +19908,7 @@
       <c r="P196">
         <v>7</v>
       </c>
-      <c r="Q196" s="47">
+      <c r="Q196" s="37">
         <v>29</v>
       </c>
       <c r="R196" t="s">
@@ -19967,7 +19992,7 @@
       <c r="P197">
         <v>255</v>
       </c>
-      <c r="Q197" s="47">
+      <c r="Q197" s="37">
         <v>1</v>
       </c>
       <c r="R197" t="s">
@@ -20051,7 +20076,7 @@
       <c r="P198">
         <v>255</v>
       </c>
-      <c r="Q198" s="47">
+      <c r="Q198" s="37">
         <v>18</v>
       </c>
       <c r="R198" t="s">
@@ -20135,7 +20160,7 @@
       <c r="P199">
         <v>255</v>
       </c>
-      <c r="Q199" s="47">
+      <c r="Q199" s="37">
         <v>255</v>
       </c>
       <c r="R199" t="s">
@@ -20219,7 +20244,7 @@
       <c r="P200">
         <v>255</v>
       </c>
-      <c r="Q200" s="47">
+      <c r="Q200" s="37">
         <v>248</v>
       </c>
       <c r="R200" t="s">
@@ -20303,7 +20328,7 @@
       <c r="P201">
         <v>255</v>
       </c>
-      <c r="Q201" s="47">
+      <c r="Q201" s="37">
         <v>6</v>
       </c>
       <c r="R201" t="s">
@@ -20387,7 +20412,7 @@
       <c r="P202">
         <v>212</v>
       </c>
-      <c r="Q202" s="47">
+      <c r="Q202" s="37">
         <v>193</v>
       </c>
       <c r="R202" t="s">
@@ -20471,7 +20496,7 @@
       <c r="P203">
         <v>255</v>
       </c>
-      <c r="Q203" s="47">
+      <c r="Q203" s="37">
         <v>248</v>
       </c>
       <c r="R203" t="s">
@@ -20555,7 +20580,7 @@
       <c r="P204">
         <v>255</v>
       </c>
-      <c r="Q204" s="47">
+      <c r="Q204" s="37">
         <v>28</v>
       </c>
       <c r="R204" t="s">
@@ -20639,7 +20664,7 @@
       <c r="P205">
         <v>114</v>
       </c>
-      <c r="Q205" s="47">
+      <c r="Q205" s="37">
         <v>116</v>
       </c>
       <c r="R205" t="s">
@@ -20723,7 +20748,7 @@
       <c r="P206">
         <v>255</v>
       </c>
-      <c r="Q206" s="47">
+      <c r="Q206" s="37">
         <v>1</v>
       </c>
       <c r="R206" t="s">
@@ -20807,7 +20832,7 @@
       <c r="P207">
         <v>41</v>
       </c>
-      <c r="Q207" s="47">
+      <c r="Q207" s="37">
         <v>57</v>
       </c>
       <c r="R207" t="s">
@@ -20891,7 +20916,7 @@
       <c r="P208">
         <v>255</v>
       </c>
-      <c r="Q208" s="47">
+      <c r="Q208" s="37">
         <v>255</v>
       </c>
       <c r="R208" t="s">
@@ -20975,7 +21000,7 @@
       <c r="P209">
         <v>255</v>
       </c>
-      <c r="Q209" s="47">
+      <c r="Q209" s="37">
         <v>61</v>
       </c>
       <c r="R209" t="s">
@@ -21059,7 +21084,7 @@
       <c r="P210">
         <v>255</v>
       </c>
-      <c r="Q210" s="47">
+      <c r="Q210" s="37">
         <v>8</v>
       </c>
       <c r="R210" t="s">
@@ -21143,7 +21168,7 @@
       <c r="P211">
         <v>255</v>
       </c>
-      <c r="Q211" s="47">
+      <c r="Q211" s="37">
         <v>169</v>
       </c>
       <c r="R211" t="s">
@@ -21227,7 +21252,7 @@
       <c r="P212">
         <v>255</v>
       </c>
-      <c r="Q212" s="47">
+      <c r="Q212" s="37">
         <v>40</v>
       </c>
       <c r="R212" t="s">
@@ -21311,7 +21336,7 @@
       <c r="P213">
         <v>255</v>
       </c>
-      <c r="Q213" s="47">
+      <c r="Q213" s="37">
         <v>2</v>
       </c>
       <c r="R213" t="s">
@@ -21395,7 +21420,7 @@
       <c r="P214">
         <v>255</v>
       </c>
-      <c r="Q214" s="47">
+      <c r="Q214" s="37">
         <v>21</v>
       </c>
       <c r="R214" t="s">
@@ -21479,7 +21504,7 @@
       <c r="P215">
         <v>1</v>
       </c>
-      <c r="Q215" s="47">
+      <c r="Q215" s="37">
         <v>65</v>
       </c>
       <c r="R215" t="s">
@@ -21563,7 +21588,7 @@
       <c r="P216">
         <v>118</v>
       </c>
-      <c r="Q216" s="47">
+      <c r="Q216" s="37">
         <v>17</v>
       </c>
       <c r="R216" t="s">
@@ -21647,7 +21672,7 @@
       <c r="P217">
         <v>255</v>
       </c>
-      <c r="Q217" s="47">
+      <c r="Q217" s="37">
         <v>255</v>
       </c>
       <c r="R217" t="s">
@@ -21731,7 +21756,7 @@
       <c r="P218">
         <v>255</v>
       </c>
-      <c r="Q218" s="47">
+      <c r="Q218" s="37">
         <v>1</v>
       </c>
       <c r="R218" t="s">
@@ -21815,7 +21840,7 @@
       <c r="P219">
         <v>113</v>
       </c>
-      <c r="Q219" s="47">
+      <c r="Q219" s="37">
         <v>2</v>
       </c>
       <c r="R219" t="s">
@@ -21899,7 +21924,7 @@
       <c r="P220">
         <v>168</v>
       </c>
-      <c r="Q220" s="47">
+      <c r="Q220" s="37">
         <v>1</v>
       </c>
       <c r="R220" t="s">
@@ -21983,7 +22008,7 @@
       <c r="P221">
         <v>255</v>
       </c>
-      <c r="Q221" s="47">
+      <c r="Q221" s="37">
         <v>2</v>
       </c>
       <c r="R221" t="s">
@@ -22067,7 +22092,7 @@
       <c r="P222">
         <v>102</v>
       </c>
-      <c r="Q222" s="47">
+      <c r="Q222" s="37">
         <v>102</v>
       </c>
       <c r="R222" t="s">
@@ -22151,7 +22176,7 @@
       <c r="P223">
         <v>147</v>
       </c>
-      <c r="Q223" s="47">
+      <c r="Q223" s="37">
         <v>1</v>
       </c>
       <c r="R223" t="s">
@@ -22235,7 +22260,7 @@
       <c r="P224">
         <v>255</v>
       </c>
-      <c r="Q224" s="47">
+      <c r="Q224" s="37">
         <v>255</v>
       </c>
       <c r="R224" t="s">
@@ -22319,7 +22344,7 @@
       <c r="P225">
         <v>255</v>
       </c>
-      <c r="Q225" s="47">
+      <c r="Q225" s="37">
         <v>255</v>
       </c>
       <c r="R225" t="s">
@@ -22403,7 +22428,7 @@
       <c r="P226">
         <v>255</v>
       </c>
-      <c r="Q226" s="47">
+      <c r="Q226" s="37">
         <v>242</v>
       </c>
       <c r="R226" t="s">
@@ -22487,7 +22512,7 @@
       <c r="P227">
         <v>255</v>
       </c>
-      <c r="Q227" s="47">
+      <c r="Q227" s="37">
         <v>231</v>
       </c>
       <c r="R227" t="s">
@@ -22571,7 +22596,7 @@
       <c r="P228">
         <v>105</v>
       </c>
-      <c r="Q228" s="47">
+      <c r="Q228" s="37">
         <v>59</v>
       </c>
       <c r="R228" t="s">
@@ -22655,7 +22680,7 @@
       <c r="P229">
         <v>255</v>
       </c>
-      <c r="Q229" s="47">
+      <c r="Q229" s="37">
         <v>229</v>
       </c>
       <c r="R229" t="s">
@@ -22739,7 +22764,7 @@
       <c r="P230">
         <v>255</v>
       </c>
-      <c r="Q230" s="47">
+      <c r="Q230" s="37">
         <v>133</v>
       </c>
       <c r="R230" t="s">
@@ -22823,7 +22848,7 @@
       <c r="P231">
         <v>255</v>
       </c>
-      <c r="Q231" s="47">
+      <c r="Q231" s="37">
         <v>254</v>
       </c>
       <c r="R231" t="s">
@@ -22907,7 +22932,7 @@
       <c r="P232">
         <v>12</v>
       </c>
-      <c r="Q232" s="47">
+      <c r="Q232" s="37">
         <v>19</v>
       </c>
       <c r="R232" t="s">
@@ -22991,7 +23016,7 @@
       <c r="P233">
         <v>255</v>
       </c>
-      <c r="Q233" s="47">
+      <c r="Q233" s="37">
         <v>254</v>
       </c>
       <c r="R233" t="s">
@@ -23075,7 +23100,7 @@
       <c r="P234">
         <v>255</v>
       </c>
-      <c r="Q234" s="47">
+      <c r="Q234" s="37">
         <v>8</v>
       </c>
       <c r="R234" t="s">
@@ -23159,7 +23184,7 @@
       <c r="P235">
         <v>255</v>
       </c>
-      <c r="Q235" s="47">
+      <c r="Q235" s="37">
         <v>255</v>
       </c>
       <c r="R235" t="s">
@@ -23243,7 +23268,7 @@
       <c r="P236">
         <v>255</v>
       </c>
-      <c r="Q236" s="47">
+      <c r="Q236" s="37">
         <v>58</v>
       </c>
       <c r="R236" t="s">
@@ -23327,7 +23352,7 @@
       <c r="P237">
         <v>255</v>
       </c>
-      <c r="Q237" s="47">
+      <c r="Q237" s="37">
         <v>253</v>
       </c>
       <c r="R237" t="s">
@@ -23411,7 +23436,7 @@
       <c r="P238">
         <v>172</v>
       </c>
-      <c r="Q238" s="47">
+      <c r="Q238" s="37">
         <v>85</v>
       </c>
       <c r="R238" t="s">
@@ -23495,7 +23520,7 @@
       <c r="P239">
         <v>197</v>
       </c>
-      <c r="Q239" s="47">
+      <c r="Q239" s="37">
         <v>1</v>
       </c>
       <c r="R239" t="s">
@@ -23579,7 +23604,7 @@
       <c r="P240">
         <v>255</v>
       </c>
-      <c r="Q240" s="47">
+      <c r="Q240" s="37">
         <v>240</v>
       </c>
       <c r="R240" t="s">
@@ -23663,7 +23688,7 @@
       <c r="P241">
         <v>255</v>
       </c>
-      <c r="Q241" s="47">
+      <c r="Q241" s="37">
         <v>1</v>
       </c>
       <c r="R241" t="s">
@@ -23747,7 +23772,7 @@
       <c r="P242">
         <v>255</v>
       </c>
-      <c r="Q242" s="47">
+      <c r="Q242" s="37">
         <v>255</v>
       </c>
       <c r="R242" t="s">
@@ -23831,7 +23856,7 @@
       <c r="P243">
         <v>255</v>
       </c>
-      <c r="Q243" s="47">
+      <c r="Q243" s="37">
         <v>254</v>
       </c>
       <c r="R243" t="s">
@@ -23915,7 +23940,7 @@
       <c r="P244">
         <v>255</v>
       </c>
-      <c r="Q244" s="47">
+      <c r="Q244" s="37">
         <v>95</v>
       </c>
       <c r="R244" t="s">
@@ -23999,7 +24024,7 @@
       <c r="P245">
         <v>1</v>
       </c>
-      <c r="Q245" s="47">
+      <c r="Q245" s="37">
         <v>1</v>
       </c>
       <c r="R245" t="s">
@@ -24083,7 +24108,7 @@
       <c r="P246">
         <v>255</v>
       </c>
-      <c r="Q246" s="47">
+      <c r="Q246" s="37">
         <v>255</v>
       </c>
       <c r="R246" t="s">
@@ -24167,7 +24192,7 @@
       <c r="P247">
         <v>255</v>
       </c>
-      <c r="Q247" s="47">
+      <c r="Q247" s="37">
         <v>243</v>
       </c>
       <c r="R247" t="s">
@@ -24251,7 +24276,7 @@
       <c r="P248">
         <v>1</v>
       </c>
-      <c r="Q248" s="47">
+      <c r="Q248" s="37">
         <v>18</v>
       </c>
       <c r="R248" t="s">
@@ -24335,7 +24360,7 @@
       <c r="P249">
         <v>160</v>
       </c>
-      <c r="Q249" s="47">
+      <c r="Q249" s="37">
         <v>85</v>
       </c>
       <c r="R249" t="s">
@@ -24419,7 +24444,7 @@
       <c r="P250">
         <v>255</v>
       </c>
-      <c r="Q250" s="47">
+      <c r="Q250" s="37">
         <v>1</v>
       </c>
       <c r="R250" t="s">
@@ -24503,7 +24528,7 @@
       <c r="P251">
         <v>1</v>
       </c>
-      <c r="Q251" s="47">
+      <c r="Q251" s="37">
         <v>117</v>
       </c>
       <c r="R251" t="s">
@@ -24587,7 +24612,7 @@
       <c r="P252">
         <v>255</v>
       </c>
-      <c r="Q252" s="47">
+      <c r="Q252" s="37">
         <v>1</v>
       </c>
       <c r="R252" t="s">
@@ -24671,7 +24696,7 @@
       <c r="P253">
         <v>255</v>
       </c>
-      <c r="Q253" s="47">
+      <c r="Q253" s="37">
         <v>254</v>
       </c>
       <c r="R253" t="s">
@@ -24755,7 +24780,7 @@
       <c r="P254">
         <v>255</v>
       </c>
-      <c r="Q254" s="47">
+      <c r="Q254" s="37">
         <v>81</v>
       </c>
       <c r="R254" t="s">
@@ -24839,7 +24864,7 @@
       <c r="P255">
         <v>255</v>
       </c>
-      <c r="Q255" s="47">
+      <c r="Q255" s="37">
         <v>248</v>
       </c>
       <c r="R255" t="s">
@@ -24923,7 +24948,7 @@
       <c r="P256">
         <v>255</v>
       </c>
-      <c r="Q256" s="47">
+      <c r="Q256" s="37">
         <v>254</v>
       </c>
       <c r="R256" t="s">
@@ -25007,7 +25032,7 @@
       <c r="P257">
         <v>255</v>
       </c>
-      <c r="Q257" s="47">
+      <c r="Q257" s="37">
         <v>17</v>
       </c>
       <c r="R257" t="s">
@@ -25091,7 +25116,7 @@
       <c r="P258">
         <v>255</v>
       </c>
-      <c r="Q258" s="47">
+      <c r="Q258" s="37">
         <v>3</v>
       </c>
       <c r="R258" t="s">
@@ -25175,7 +25200,7 @@
       <c r="P259">
         <v>255</v>
       </c>
-      <c r="Q259" s="47">
+      <c r="Q259" s="37">
         <v>10</v>
       </c>
       <c r="R259" t="s">
@@ -25259,7 +25284,7 @@
       <c r="P260">
         <v>255</v>
       </c>
-      <c r="Q260" s="47">
+      <c r="Q260" s="37">
         <v>248</v>
       </c>
       <c r="R260" t="s">
@@ -25343,7 +25368,7 @@
       <c r="P261">
         <v>255</v>
       </c>
-      <c r="Q261" s="47">
+      <c r="Q261" s="37">
         <v>1</v>
       </c>
       <c r="R261" t="s">
@@ -25427,7 +25452,7 @@
       <c r="P262">
         <v>255</v>
       </c>
-      <c r="Q262" s="47">
+      <c r="Q262" s="37">
         <v>249</v>
       </c>
       <c r="R262" t="s">
@@ -25511,7 +25536,7 @@
       <c r="P263">
         <v>181</v>
       </c>
-      <c r="Q263" s="47">
+      <c r="Q263" s="37">
         <v>2</v>
       </c>
       <c r="R263" t="s">
@@ -25595,7 +25620,7 @@
       <c r="P264">
         <v>1</v>
       </c>
-      <c r="Q264" s="47">
+      <c r="Q264" s="37">
         <v>16</v>
       </c>
       <c r="R264" t="s">
@@ -25679,7 +25704,7 @@
       <c r="P265">
         <v>255</v>
       </c>
-      <c r="Q265" s="47">
+      <c r="Q265" s="37">
         <v>2</v>
       </c>
       <c r="R265" t="s">
@@ -25763,7 +25788,7 @@
       <c r="P266">
         <v>243</v>
       </c>
-      <c r="Q266" s="47">
+      <c r="Q266" s="37">
         <v>220</v>
       </c>
       <c r="R266" t="s">
@@ -25847,7 +25872,7 @@
       <c r="P267">
         <v>255</v>
       </c>
-      <c r="Q267" s="47">
+      <c r="Q267" s="37">
         <v>19</v>
       </c>
       <c r="R267" t="s">
@@ -25931,7 +25956,7 @@
       <c r="P268">
         <v>255</v>
       </c>
-      <c r="Q268" s="47">
+      <c r="Q268" s="37">
         <v>245</v>
       </c>
       <c r="R268" t="s">
@@ -26015,7 +26040,7 @@
       <c r="P269">
         <v>190</v>
       </c>
-      <c r="Q269" s="47">
+      <c r="Q269" s="37">
         <v>188</v>
       </c>
       <c r="R269" t="s">
@@ -26099,7 +26124,7 @@
       <c r="P270">
         <v>3</v>
       </c>
-      <c r="Q270" s="47">
+      <c r="Q270" s="37">
         <v>21</v>
       </c>
       <c r="R270" t="s">
@@ -26183,7 +26208,7 @@
       <c r="P271">
         <v>255</v>
       </c>
-      <c r="Q271" s="47">
+      <c r="Q271" s="37">
         <v>2</v>
       </c>
       <c r="R271" t="s">
@@ -26267,7 +26292,7 @@
       <c r="P272">
         <v>255</v>
       </c>
-      <c r="Q272" s="47">
+      <c r="Q272" s="37">
         <v>248</v>
       </c>
       <c r="R272" t="s">
@@ -26351,7 +26376,7 @@
       <c r="P273">
         <v>255</v>
       </c>
-      <c r="Q273" s="47">
+      <c r="Q273" s="37">
         <v>255</v>
       </c>
       <c r="R273" t="s">
@@ -26435,7 +26460,7 @@
       <c r="P274">
         <v>255</v>
       </c>
-      <c r="Q274" s="47">
+      <c r="Q274" s="37">
         <v>206</v>
       </c>
       <c r="R274" t="s">
@@ -26519,7 +26544,7 @@
       <c r="P275">
         <v>255</v>
       </c>
-      <c r="Q275" s="47">
+      <c r="Q275" s="37">
         <v>254</v>
       </c>
       <c r="R275" t="s">
@@ -26603,7 +26628,7 @@
       <c r="P276">
         <v>255</v>
       </c>
-      <c r="Q276" s="47">
+      <c r="Q276" s="37">
         <v>1</v>
       </c>
       <c r="R276" t="s">
@@ -26687,7 +26712,7 @@
       <c r="P277">
         <v>255</v>
       </c>
-      <c r="Q277" s="47">
+      <c r="Q277" s="37">
         <v>252</v>
       </c>
       <c r="R277" t="s">
@@ -26771,7 +26796,7 @@
       <c r="P278">
         <v>255</v>
       </c>
-      <c r="Q278" s="47">
+      <c r="Q278" s="37">
         <v>255</v>
       </c>
       <c r="R278" t="s">
@@ -26855,7 +26880,7 @@
       <c r="P279">
         <v>255</v>
       </c>
-      <c r="Q279" s="47">
+      <c r="Q279" s="37">
         <v>44</v>
       </c>
       <c r="R279" t="s">
@@ -26939,7 +26964,7 @@
       <c r="P280">
         <v>255</v>
       </c>
-      <c r="Q280" s="47">
+      <c r="Q280" s="37">
         <v>255</v>
       </c>
       <c r="R280" t="s">
@@ -27023,7 +27048,7 @@
       <c r="P281">
         <v>75</v>
       </c>
-      <c r="Q281" s="47">
+      <c r="Q281" s="37">
         <v>85</v>
       </c>
       <c r="R281" t="s">
@@ -27107,7 +27132,7 @@
       <c r="P282">
         <v>255</v>
       </c>
-      <c r="Q282" s="47">
+      <c r="Q282" s="37">
         <v>1</v>
       </c>
       <c r="R282" t="s">
@@ -27191,7 +27216,7 @@
       <c r="P283">
         <v>255</v>
       </c>
-      <c r="Q283" s="47">
+      <c r="Q283" s="37">
         <v>103</v>
       </c>
       <c r="R283" t="s">
@@ -27275,7 +27300,7 @@
       <c r="P284">
         <v>255</v>
       </c>
-      <c r="Q284" s="47">
+      <c r="Q284" s="37">
         <v>255</v>
       </c>
       <c r="R284" t="s">
@@ -27359,7 +27384,7 @@
       <c r="P285">
         <v>255</v>
       </c>
-      <c r="Q285" s="47">
+      <c r="Q285" s="37">
         <v>1</v>
       </c>
       <c r="R285" t="s">
@@ -27443,7 +27468,7 @@
       <c r="P286">
         <v>200</v>
       </c>
-      <c r="Q286" s="47">
+      <c r="Q286" s="37">
         <v>181</v>
       </c>
       <c r="R286" t="s">
@@ -27527,7 +27552,7 @@
       <c r="P287">
         <v>246</v>
       </c>
-      <c r="Q287" s="47">
+      <c r="Q287" s="37">
         <v>125</v>
       </c>
       <c r="R287" t="s">
@@ -27611,7 +27636,7 @@
       <c r="P288">
         <v>42</v>
       </c>
-      <c r="Q288" s="47">
+      <c r="Q288" s="37">
         <v>42</v>
       </c>
       <c r="R288" t="s">
@@ -27695,7 +27720,7 @@
       <c r="P289">
         <v>255</v>
       </c>
-      <c r="Q289" s="47">
+      <c r="Q289" s="37">
         <v>255</v>
       </c>
       <c r="R289" t="s">
@@ -27779,7 +27804,7 @@
       <c r="P290">
         <v>255</v>
       </c>
-      <c r="Q290" s="47">
+      <c r="Q290" s="37">
         <v>224</v>
       </c>
       <c r="R290" t="s">
@@ -27863,7 +27888,7 @@
       <c r="P291">
         <v>255</v>
       </c>
-      <c r="Q291" s="47">
+      <c r="Q291" s="37">
         <v>255</v>
       </c>
       <c r="R291" t="s">
@@ -27947,7 +27972,7 @@
       <c r="P292">
         <v>255</v>
       </c>
-      <c r="Q292" s="47">
+      <c r="Q292" s="37">
         <v>6</v>
       </c>
       <c r="R292" t="s">
@@ -28031,7 +28056,7 @@
       <c r="P293">
         <v>255</v>
       </c>
-      <c r="Q293" s="47">
+      <c r="Q293" s="37">
         <v>255</v>
       </c>
       <c r="R293" t="s">
@@ -28115,7 +28140,7 @@
       <c r="P294">
         <v>255</v>
       </c>
-      <c r="Q294" s="47">
+      <c r="Q294" s="37">
         <v>224</v>
       </c>
       <c r="R294" t="s">
@@ -28199,7 +28224,7 @@
       <c r="P295">
         <v>255</v>
       </c>
-      <c r="Q295" s="47">
+      <c r="Q295" s="37">
         <v>255</v>
       </c>
       <c r="R295" t="s">
@@ -28283,7 +28308,7 @@
       <c r="P296">
         <v>255</v>
       </c>
-      <c r="Q296" s="47">
+      <c r="Q296" s="37">
         <v>247</v>
       </c>
       <c r="R296" t="s">
@@ -28324,1122 +28349,1160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AE56"/>
+  <dimension ref="B1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-    </row>
-    <row r="24" spans="2:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+    </row>
+    <row r="27" spans="2:31" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="F27" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59" t="s">
+      <c r="G27" s="49"/>
+      <c r="H27" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-    </row>
-    <row r="25" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="60">
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="50">
         <f>ROUND(SQRT(200),0)</f>
         <v>14</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C28" s="51">
         <f>COUNT('Serie de Datos'!G5:G204)</f>
         <v>200</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62">
+      <c r="D28" s="51"/>
+      <c r="E28" s="52">
         <f>MIN('Serie de Datos'!G5:G204)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F28" s="52">
         <f>MAX('Serie de Datos'!G5:G204)</f>
         <v>511.00000000000006</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="70">
-        <f>(F25-E25)/B25</f>
+      <c r="G28" s="51"/>
+      <c r="H28" s="60">
+        <f>(F28-E28)/B28</f>
         <v>36.428571428571431</v>
       </c>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-    </row>
-    <row r="26" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64">
-        <f>ROUNDUP(H25,0)</f>
-        <v>37</v>
-      </c>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-    </row>
-    <row r="27" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="65">
-        <f>SUM('Serie de Datos'!G5:G204)/C25</f>
-        <v>98.694999999999993</v>
-      </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-    </row>
-    <row r="28" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="65">
-        <f>1/C27</f>
-        <v>1.0132225543340595E-2</v>
-      </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
     </row>
     <row r="29" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="67">
-        <f>B25-1-1</f>
-        <v>12</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54">
+        <f>ROUNDUP(H28,0)</f>
+        <v>37</v>
+      </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+    </row>
+    <row r="30" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="55">
+        <f>SUM('Serie de Datos'!G5:G204)/C28</f>
+        <v>98.694999999999993</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+    </row>
+    <row r="31" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="55">
+        <f>1/C30</f>
+        <v>1.0132225543340595E-2</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+    </row>
+    <row r="32" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="57">
+        <f>B28-1-1</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
     </row>
     <row r="33" spans="2:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="B33" s="69" t="s">
-        <v>193</v>
+      <c r="B33" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="57">
+        <v>0.05</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+    </row>
+    <row r="34" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="63">
+        <f>1-C33</f>
+        <v>0.95</v>
+      </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-    </row>
-    <row r="35" spans="2:31" ht="34" x14ac:dyDescent="0.2">
-      <c r="C35" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="H35" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="41"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="P36" s="12" t="s">
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+    </row>
+    <row r="36" spans="2:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="59" t="s">
         <v>184</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="26">
-        <v>0</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+B37+$H$26</f>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+    </row>
+    <row r="38" spans="2:31" ht="34" x14ac:dyDescent="0.2">
+      <c r="C38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="H38" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="71">
+        <f>+B40+$H$29</f>
         <v>37</v>
       </c>
-      <c r="D37" s="14">
-        <f t="array" ref="D37:D50">FREQUENCY('Serie de Datos'!G5:G204,'Conexiones a un mismo Host'!C37:C50)</f>
+      <c r="D40" s="13">
+        <f t="array" ref="D40:D53">FREQUENCY('Serie de Datos'!G5:G204,'Conexiones a un mismo Host'!C40:C53)</f>
         <v>125</v>
       </c>
-      <c r="E37" s="27">
-        <f t="shared" ref="E37:E50" si="0">(C37+B37)/2</f>
+      <c r="E40" s="72">
+        <f t="shared" ref="E40:E53" si="0">(C40+B40)/2</f>
         <v>18.5</v>
       </c>
-      <c r="F37" s="28">
-        <f>Lambda*EXP(-Lambda*E37)*(C37-B37)</f>
+      <c r="F40" s="21">
+        <f>Lambda*EXP(-Lambda*E40)*(C40-B40)</f>
         <v>0.31081340011574937</v>
       </c>
-      <c r="G37" s="28">
-        <f>(1-EXP(-Lambda*C37))-(1-EXP(-Lambda*B37))</f>
+      <c r="G40" s="23">
+        <f>(1-EXP(-Lambda*C40))-(1-EXP(-Lambda*B40))</f>
         <v>0.31263672717008528</v>
       </c>
-      <c r="H37" s="28">
-        <f>G37*N</f>
+      <c r="H40" s="21">
+        <f>G40*N</f>
         <v>62.527345434017057</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="22">
-        <v>1</v>
-      </c>
-      <c r="K37" s="26">
-        <f t="shared" ref="K37:M43" si="1">B37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="26">
+      <c r="I40" s="26"/>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" ref="K40:M46" si="1">B40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M40" s="20">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="N37" s="28">
-        <f t="shared" ref="N37:N43" si="2">H37</f>
+      <c r="N40" s="21">
+        <f t="shared" ref="N40:N46" si="2">H40</f>
         <v>62.527345434017057</v>
       </c>
-      <c r="O37" s="28">
-        <f>((N37-M37)^2)/N37</f>
+      <c r="O40" s="21">
+        <f>((N40-M40)^2)/N40</f>
         <v>62.418011534475802</v>
       </c>
-      <c r="P37" s="28">
-        <f>O37</f>
+      <c r="P40" s="21">
+        <f>O40</f>
         <v>62.418011534475802</v>
       </c>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="26">
-        <f>+C37</f>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B41" s="20">
+        <f>+C40</f>
         <v>37</v>
       </c>
-      <c r="C38" s="26">
-        <f t="shared" ref="C38:C50" si="3">+B38+$H$26</f>
+      <c r="C41" s="71">
+        <f t="shared" ref="C41:C53" si="3">+B41+$H$29</f>
         <v>74</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D41" s="13">
         <v>7</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E41" s="72">
         <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
-      <c r="F38" s="28">
-        <f t="shared" ref="F38:F50" si="4">Lambda*EXP(-Lambda*E38)*(C38-B38)</f>
+      <c r="F41" s="21">
+        <f t="shared" ref="F41:F53" si="4">Lambda*EXP(-Lambda*E41)*(C41-B41)</f>
         <v>0.21364171594295531</v>
       </c>
-      <c r="G38" s="28">
-        <f t="shared" ref="G38:G50" si="5">(1-EXP(-Lambda*C38))-(1-EXP(-Lambda*B38))</f>
+      <c r="G41" s="23">
+        <f t="shared" ref="G41:G53" si="5">(1-EXP(-Lambda*C41))-(1-EXP(-Lambda*B41))</f>
         <v>0.21489500399446293</v>
       </c>
-      <c r="H38" s="28">
-        <f t="shared" ref="H38:H50" si="6">G38*N</f>
+      <c r="H41" s="21">
+        <f t="shared" ref="H41:H53" si="6">G41*N</f>
         <v>42.979000798892585</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="22">
-        <v>2</v>
-      </c>
-      <c r="K38" s="26">
+      <c r="I41" s="26"/>
+      <c r="J41" s="17">
+        <v>2</v>
+      </c>
+      <c r="K41" s="20">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L41" s="20">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M41" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N41" s="21">
         <f t="shared" si="2"/>
         <v>42.979000798892585</v>
       </c>
-      <c r="O38" s="28">
-        <f t="shared" ref="O38:O45" si="7">((N38-M38)^2)/N38</f>
+      <c r="O41" s="21">
+        <f t="shared" ref="O41:O48" si="7">((N41-M41)^2)/N41</f>
         <v>30.119092450377945</v>
       </c>
-      <c r="P38" s="28">
-        <f>O38+P37</f>
+      <c r="P41" s="21">
+        <f>O41+P40</f>
         <v>92.537103984853744</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="26">
-        <f t="shared" ref="B39:B50" si="8">+C38</f>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B42" s="20">
+        <f t="shared" ref="B42:B53" si="8">+C41</f>
         <v>74</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C42" s="71">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D42" s="13">
         <v>7</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E42" s="72">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F42" s="21">
         <f t="shared" si="4"/>
         <v>0.14684946908354873</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G42" s="23">
         <f t="shared" si="5"/>
         <v>0.14771093326043161</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H42" s="21">
         <f t="shared" si="6"/>
         <v>29.542186652086322</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="22">
-        <v>3</v>
-      </c>
-      <c r="K39" s="26">
+      <c r="I42" s="26"/>
+      <c r="J42" s="17">
+        <v>3</v>
+      </c>
+      <c r="K42" s="20">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L42" s="20">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M42" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N39" s="28">
+      <c r="N42" s="21">
         <f t="shared" si="2"/>
         <v>29.542186652086322</v>
       </c>
-      <c r="O39" s="28">
+      <c r="O42" s="21">
         <f t="shared" si="7"/>
         <v>17.200831646008584</v>
       </c>
-      <c r="P39" s="28">
-        <f t="shared" ref="P39:P45" si="9">O39+P38</f>
+      <c r="P42" s="21">
+        <f t="shared" ref="P42:P48" si="9">O42+P41</f>
         <v>109.73793563086232</v>
       </c>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B40" s="26">
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C43" s="71">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D43" s="13">
         <v>10</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E43" s="72">
         <f t="shared" si="0"/>
         <v>129.5</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F43" s="21">
         <f t="shared" si="4"/>
         <v>0.10093893168260341</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G43" s="23">
         <f t="shared" si="5"/>
         <v>0.1015310705186514</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H43" s="21">
         <f t="shared" si="6"/>
         <v>20.30621410373028</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="22">
+      <c r="I43" s="26"/>
+      <c r="J43" s="17">
         <v>4</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K43" s="20">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L43" s="20">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M43" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N40" s="28">
+      <c r="N43" s="21">
         <f t="shared" si="2"/>
         <v>20.30621410373028</v>
       </c>
-      <c r="O40" s="28">
+      <c r="O43" s="21">
         <f t="shared" si="7"/>
         <v>5.2308149913782565</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P43" s="21">
         <f t="shared" si="9"/>
         <v>114.96875062224058</v>
       </c>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="26">
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="20">
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C44" s="71">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D44" s="13">
         <v>7</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E44" s="72">
         <f t="shared" si="0"/>
         <v>166.5</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F44" s="21">
         <f t="shared" si="4"/>
         <v>6.9381714437309464E-2</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G44" s="23">
         <f t="shared" si="5"/>
         <v>6.9788728925625154E-2</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H44" s="21">
         <f t="shared" si="6"/>
         <v>13.957745785125031</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="22">
+      <c r="I44" s="26"/>
+      <c r="J44" s="17">
         <v>5</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K44" s="20">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L44" s="20">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M44" s="20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N41" s="28">
+      <c r="N44" s="21">
         <f t="shared" si="2"/>
         <v>13.957745785125031</v>
       </c>
-      <c r="O41" s="28">
+      <c r="O44" s="21">
         <f t="shared" si="7"/>
         <v>3.46834131783777</v>
       </c>
-      <c r="P41" s="28">
+      <c r="P44" s="21">
         <f t="shared" si="9"/>
         <v>118.43709194007835</v>
       </c>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B42" s="26">
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B45" s="20">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C45" s="71">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D45" s="13">
         <v>4</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E45" s="72">
         <f t="shared" si="0"/>
         <v>203.5</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F45" s="21">
         <f t="shared" si="4"/>
         <v>4.7690442310179576E-2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G45" s="23">
         <f t="shared" si="5"/>
         <v>4.7970209120957397E-2</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H45" s="21">
         <f t="shared" si="6"/>
         <v>9.5940418241914784</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="22">
+      <c r="I45" s="26"/>
+      <c r="J45" s="17">
         <v>6</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K45" s="20">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L45" s="20">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M45" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N42" s="28">
+      <c r="N45" s="21">
         <f t="shared" si="2"/>
         <v>9.5940418241914784</v>
       </c>
-      <c r="O42" s="28">
+      <c r="O45" s="21">
         <f t="shared" si="7"/>
         <v>3.2617435387760274</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P45" s="21">
         <f t="shared" si="9"/>
         <v>121.69883547885438</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="26">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B46" s="20">
         <f t="shared" si="8"/>
         <v>222</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C46" s="71">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D46" s="13">
         <v>9</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E46" s="72">
         <f t="shared" si="0"/>
         <v>240.5</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F46" s="21">
         <f t="shared" si="4"/>
         <v>3.278065850903128E-2</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G46" s="23">
         <f t="shared" si="5"/>
         <v>3.2972959939716717E-2</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H46" s="21">
         <f t="shared" si="6"/>
         <v>6.5945919879433434</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="22">
+      <c r="I46" s="26"/>
+      <c r="J46" s="17">
         <v>7</v>
       </c>
-      <c r="K43" s="26">
+      <c r="K46" s="20">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="L43" s="26">
+      <c r="L46" s="20">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M46" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N43" s="28">
+      <c r="N46" s="21">
         <f t="shared" si="2"/>
         <v>6.5945919879433434</v>
       </c>
-      <c r="O43" s="28">
+      <c r="O46" s="21">
         <f t="shared" si="7"/>
         <v>0.87738372821922439</v>
       </c>
-      <c r="P43" s="28">
+      <c r="P46" s="21">
         <f t="shared" si="9"/>
         <v>122.57621920707361</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="26">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B47" s="20">
         <f t="shared" si="8"/>
         <v>259</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C47" s="71">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D47" s="13">
         <v>7</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E47" s="72">
         <f t="shared" si="0"/>
         <v>277.5</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F47" s="21">
         <f t="shared" si="4"/>
         <v>2.2532220718287532E-2</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G47" s="23">
         <f t="shared" si="5"/>
         <v>2.2664401659053257E-2</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H47" s="21">
         <f t="shared" si="6"/>
         <v>4.5328803318106514</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="22">
+      <c r="I47" s="26"/>
+      <c r="J47" s="17">
         <v>8</v>
       </c>
-      <c r="K44" s="26">
-        <f>B44</f>
+      <c r="K47" s="20">
+        <f>B47</f>
         <v>259</v>
       </c>
-      <c r="L44" s="26">
-        <f>C45</f>
+      <c r="L47" s="20">
+        <f>C48</f>
         <v>333</v>
       </c>
-      <c r="M44" s="14">
-        <f>SUM(D44+D45)</f>
+      <c r="M47" s="20">
+        <f>SUM(D47+D48)</f>
         <v>8</v>
       </c>
-      <c r="N44" s="28">
-        <f>SUM(H44+H45)</f>
+      <c r="N47" s="21">
+        <f>SUM(H47+H48)</f>
         <v>7.6486157920303999</v>
       </c>
-      <c r="O44" s="28">
+      <c r="O47" s="21">
         <f t="shared" si="7"/>
         <v>1.6142902842508532E-2</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P47" s="22">
         <f t="shared" si="9"/>
         <v>122.59236210991611</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="26">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="20">
         <f t="shared" si="8"/>
         <v>296</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C48" s="71">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="D45" s="14">
-        <v>1</v>
-      </c>
-      <c r="E45" s="27">
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="72">
         <f t="shared" si="0"/>
         <v>314.5</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F48" s="21">
         <f t="shared" si="4"/>
         <v>1.5487820977048128E-2</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G48" s="23">
         <f t="shared" si="5"/>
         <v>1.5578677301098742E-2</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H48" s="21">
         <f t="shared" si="6"/>
         <v>3.1157354602197485</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="22">
+      <c r="I48" s="26"/>
+      <c r="J48" s="17">
         <v>9</v>
       </c>
-      <c r="K45" s="26">
-        <f>B46</f>
+      <c r="K48" s="20">
+        <f>B49</f>
         <v>333</v>
       </c>
-      <c r="L45" s="26">
-        <f>C50</f>
+      <c r="L48" s="20">
+        <f>C53</f>
         <v>518</v>
       </c>
-      <c r="M45" s="14">
-        <f>SUM(D46:D50)</f>
+      <c r="M48" s="20">
+        <f>SUM(D49:D53)</f>
         <v>23</v>
       </c>
-      <c r="N45" s="28">
-        <f>SUM(H46:H50)</f>
+      <c r="N48" s="21">
+        <f>SUM(H49:H53)</f>
         <v>5.7991709706055161</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O48" s="23">
         <f t="shared" si="7"/>
         <v>51.019106144333442</v>
       </c>
-      <c r="P45" s="31">
+      <c r="P48" s="24">
         <f t="shared" si="9"/>
         <v>173.61146825424956</v>
       </c>
-      <c r="Q45" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B46" s="26">
+      <c r="Q48" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="20">
         <f t="shared" si="8"/>
         <v>333</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C49" s="71">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
-      <c r="D46" s="14">
-        <v>3</v>
-      </c>
-      <c r="E46" s="27">
+      <c r="D49" s="13">
+        <v>3</v>
+      </c>
+      <c r="E49" s="72">
         <f t="shared" si="0"/>
         <v>351.5</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F49" s="21">
         <f t="shared" si="4"/>
         <v>1.0645759315787613E-2</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G49" s="23">
         <f t="shared" si="5"/>
         <v>1.0708210616044211E-2</v>
       </c>
-      <c r="H46" s="28">
-        <f>G46*N</f>
+      <c r="H49" s="21">
+        <f>G49*N</f>
         <v>2.1416421232088423</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="4"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="34">
+      <c r="I49" s="26"/>
+      <c r="J49" s="4"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="4">
+        <f>SUM(M40:M48)</f>
+        <v>200</v>
+      </c>
+      <c r="N49" s="26">
+        <f>SUM(N40:N48)</f>
+        <v>198.948913348622</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="27">
         <v>2.165</v>
       </c>
-      <c r="Q46" s="32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="26">
+      <c r="Q49" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="20">
         <f t="shared" si="8"/>
         <v>370</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C50" s="71">
         <f t="shared" si="3"/>
         <v>407</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D50" s="13">
         <v>4</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E50" s="72">
         <f t="shared" si="0"/>
         <v>388.5</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F50" s="21">
         <f t="shared" si="4"/>
         <v>7.3175039650593254E-3</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G50" s="23">
         <f t="shared" si="5"/>
         <v>7.3604306951963183E-3</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H50" s="21">
         <f t="shared" si="6"/>
         <v>1.4720861390392637</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" t="s">
-        <v>187</v>
-      </c>
-      <c r="N47" s="35"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B48" s="26">
+      <c r="I50" s="26"/>
+      <c r="N50" s="28"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="20">
         <f t="shared" si="8"/>
         <v>407</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C51" s="71">
         <f t="shared" si="3"/>
         <v>444</v>
       </c>
-      <c r="D48" s="14">
-        <v>0</v>
-      </c>
-      <c r="E48" s="27">
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="72">
         <f t="shared" si="0"/>
         <v>425.5</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F51" s="21">
         <f t="shared" si="4"/>
         <v>5.0297834743690557E-3</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G51" s="23">
         <f t="shared" si="5"/>
         <v>5.0592897320878016E-3</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H51" s="21">
         <f t="shared" si="6"/>
         <v>1.0118579464175603</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" s="15">
-        <f>J45-1-1</f>
-        <v>7</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="N48" s="35"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="26">
+      <c r="I51" s="26"/>
+      <c r="J51" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="12">
+        <v>9</v>
+      </c>
+      <c r="N51" s="28"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="20">
         <f t="shared" si="8"/>
         <v>444</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C52" s="71">
         <f t="shared" si="3"/>
         <v>481</v>
       </c>
-      <c r="D49" s="14">
-        <v>2</v>
-      </c>
-      <c r="E49" s="27">
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+      <c r="E52" s="72">
         <f t="shared" si="0"/>
         <v>462.5</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F52" s="21">
         <f t="shared" si="4"/>
         <v>3.4572884305681347E-3</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G52" s="23">
         <f t="shared" si="5"/>
         <v>3.4775699484427269E-3</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H52" s="21">
         <f t="shared" si="6"/>
         <v>0.69551398968854539</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="L49" s="4"/>
-      <c r="O49" s="36"/>
-      <c r="Q49" s="35"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="26">
+      <c r="I52" s="26"/>
+      <c r="J52" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="69">
+        <f>J48-1-1</f>
+        <v>7</v>
+      </c>
+      <c r="L52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="Q52" s="28"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="20">
         <f t="shared" si="8"/>
         <v>481</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C53" s="71">
         <f t="shared" si="3"/>
         <v>518</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D53" s="13">
         <v>14</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E53" s="72">
         <f t="shared" si="0"/>
         <v>499.5</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F53" s="21">
         <f t="shared" si="4"/>
         <v>2.376413090752311E-3</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G53" s="23">
         <f t="shared" si="5"/>
         <v>2.3903538612565223E-3</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H53" s="21">
         <f t="shared" si="6"/>
         <v>0.47807077225130445</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="L50" s="4"/>
-      <c r="O50" s="36"/>
-      <c r="Q50" s="35"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="39">
-        <f>SUM(F37:F50)</f>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="L53" s="4"/>
+      <c r="O53" s="29"/>
+      <c r="Q53" s="28"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="13">
+        <f>SUM(D40:D53)</f>
+        <v>200</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="31">
+        <f>SUM(F40:F53)</f>
         <v>0.9889431220532493</v>
       </c>
-      <c r="G51" s="39">
-        <f>SUM(G37:G50)</f>
+      <c r="G54" s="31">
+        <f>SUM(G40:G53)</f>
         <v>0.99474456674311007</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="56" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="37" t="s">
-        <v>196</v>
+      <c r="H54" s="21">
+        <f>SUM(H40:H53)</f>
+        <v>198.94891334862203</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="57" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B57" s="62" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -29449,1040 +29512,1085 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:R77"/>
+  <dimension ref="B1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+    </row>
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="H9" s="58" t="s">
+    </row>
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" ht="40" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="F7" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H10" s="60">
-        <f>ROUND(SQRT(I10),0)</f>
+    </row>
+    <row r="8" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="50">
+        <f>ROUND(SQRT(C8),0)</f>
         <v>14</v>
       </c>
-      <c r="I10" s="61">
+      <c r="C8" s="51">
         <v>200</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62">
+      <c r="D8" s="51"/>
+      <c r="E8" s="52">
         <f>MIN('Serie de Datos'!Q5:Q204)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="62">
+      <c r="F8" s="52">
         <f>MAX('Serie de Datos'!Q5:Q204)</f>
         <v>255</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62">
-        <f>(L10-K10)/H10</f>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52">
+        <f>(F8-E8)/B8</f>
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64">
-        <f>ROUNDUP(N10,0)</f>
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54">
+        <f>ROUNDUP(H8,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H12" s="59" t="s">
+    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="55">
+        <f>SUM('Serie de Datos'!Q5:Q204)/C8</f>
+        <v>124.12</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="55">
+        <f>1/C10</f>
+        <v>8.0567193038994511E-3</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="57">
+        <f>B8-1-1</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="63">
+        <f>1-C13</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="31" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="H39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="65">
-        <f>SUM('Serie de Datos'!Q5:Q204)/I10</f>
-        <v>124.12</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="H13" s="59" t="s">
+      <c r="H40" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="65">
-        <f>1/I12</f>
-        <v>8.0567193038994511E-3</v>
-      </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-    </row>
-    <row r="14" spans="2:14" ht="40" x14ac:dyDescent="0.25">
-      <c r="H14" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="67">
-        <f>H10-1-1</f>
+      <c r="I40" s="32"/>
+      <c r="K40" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="35">
+        <v>0</v>
+      </c>
+      <c r="C41" s="38">
+        <f>+B41+$H$9</f>
+        <v>19</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="array" ref="D41:D54">FREQUENCY(serviciomismo,C41:C54)</f>
+        <v>64</v>
+      </c>
+      <c r="E41" s="46">
+        <f t="shared" ref="E41:E51" si="0">(C41+B41)/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="F41" s="39">
+        <f t="shared" ref="F41:F54" si="1">L*EXP(-L*E41)*(C41-B41)</f>
+        <v>0.14179843610823964</v>
+      </c>
+      <c r="G41" s="73">
+        <f t="shared" ref="G41:G54" si="2">(1-EXP(-L*C41))-(1-EXP(-L*B41))</f>
+        <v>0.14193692376774258</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" ref="H41:H54" si="3">G41*Muestra</f>
+        <v>28.387384753548517</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="35">
+        <v>0</v>
+      </c>
+      <c r="M41" s="35">
+        <f>+L41+$H$9</f>
+        <v>19</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="array" ref="N41:N52">FREQUENCY(serviciomismo,M41:M54)</f>
+        <v>64</v>
+      </c>
+      <c r="O41" s="35">
+        <f>+H41</f>
+        <v>28.387384753548517</v>
+      </c>
+      <c r="P41" s="35">
+        <f>((O41-N41)^2)/O41</f>
+        <v>44.6768300673859</v>
+      </c>
+      <c r="Q41" s="35">
+        <f>P41</f>
+        <v>44.6768300673859</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="35">
+        <f>C41</f>
+        <v>19</v>
+      </c>
+      <c r="C42" s="38">
+        <f>+B42+$H$9</f>
+        <v>38</v>
+      </c>
+      <c r="D42" s="20">
         <v>12</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-    </row>
-    <row r="22" spans="2:17" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="H27" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="41"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="K28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="45">
-        <v>0</v>
-      </c>
-      <c r="C29" s="45">
-        <f>+B29+$N$11</f>
-        <v>19</v>
-      </c>
-      <c r="D29" s="26">
-        <f t="array" ref="D29:D42">FREQUENCY(serviciomismo,C29:C42)</f>
-        <v>64</v>
-      </c>
-      <c r="E29" s="48">
-        <f t="shared" ref="E29:E39" si="0">(C29+B29)/2</f>
-        <v>9.5</v>
-      </c>
-      <c r="F29" s="49">
-        <f t="shared" ref="F29:F42" si="1">L*EXP(-L*E29)*(C29-B29)</f>
-        <v>0.14179843610823964</v>
-      </c>
-      <c r="G29" s="49">
-        <f t="shared" ref="G29:G42" si="2">(1-EXP(-L*C29))-(1-EXP(-L*B29))</f>
-        <v>0.14193692376774258</v>
-      </c>
-      <c r="H29" s="23">
-        <f t="shared" ref="H29:H42" si="3">G29*Muestra</f>
-        <v>28.387384753548517</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="K29" s="22">
-        <v>1</v>
-      </c>
-      <c r="L29" s="45">
-        <v>0</v>
-      </c>
-      <c r="M29" s="45">
-        <f>+L29+$N$11</f>
-        <v>19</v>
-      </c>
-      <c r="N29" s="26">
-        <f t="array" ref="N29:N40">FREQUENCY(serviciomismo,M29:M42)</f>
-        <v>64</v>
-      </c>
-      <c r="O29" s="45">
-        <f>+H29</f>
-        <v>28.387384753548517</v>
-      </c>
-      <c r="P29" s="45">
-        <f>((O29-N29)^2)/O29</f>
-        <v>44.6768300673859</v>
-      </c>
-      <c r="Q29" s="45">
-        <f>P29</f>
-        <v>44.6768300673859</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="45">
-        <f>C29</f>
-        <v>19</v>
-      </c>
-      <c r="C30" s="45">
-        <f t="shared" ref="C30:C42" si="4">+B30+$N$11</f>
-        <v>38</v>
-      </c>
-      <c r="D30" s="26">
-        <v>12</v>
-      </c>
-      <c r="E30" s="48">
-        <f>(C30+B30)/2</f>
+      <c r="E42" s="46">
+        <f>(C42+B42)/2</f>
         <v>28.5</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F42" s="39">
         <f t="shared" si="1"/>
         <v>0.12167200229195935</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G42" s="73">
         <f t="shared" si="2"/>
         <v>0.12179083343909269</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H42" s="18">
         <f t="shared" si="3"/>
         <v>24.358166687818539</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="K30" s="22">
-        <v>2</v>
-      </c>
-      <c r="L30" s="45">
-        <f>M29</f>
+      <c r="I42" s="34"/>
+      <c r="K42" s="17">
+        <v>2</v>
+      </c>
+      <c r="L42" s="35">
+        <f>M41</f>
         <v>19</v>
       </c>
-      <c r="M30" s="45">
-        <f t="shared" ref="M30:M41" si="5">+L30+$N$11</f>
+      <c r="M42" s="35">
+        <f>+L42+$H$9</f>
         <v>38</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N42" s="20">
         <v>12</v>
       </c>
-      <c r="O30" s="45">
-        <f t="shared" ref="O30:O40" si="6">+H30</f>
+      <c r="O42" s="35">
+        <f t="shared" ref="O42:O52" si="4">+H42</f>
         <v>24.358166687818539</v>
       </c>
-      <c r="P30" s="45">
-        <f t="shared" ref="P30:P41" si="7">((O30-N30)^2)/O30</f>
+      <c r="P42" s="35">
+        <f t="shared" ref="P42:P53" si="5">((O42-N42)^2)/O42</f>
         <v>6.2699416520655022</v>
       </c>
-      <c r="Q30" s="45">
-        <f>Q29+P30</f>
+      <c r="Q42" s="35">
+        <f>Q41+P42</f>
         <v>50.946771719451405</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="45">
-        <f t="shared" ref="B31:B42" si="8">C30</f>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="35">
+        <f t="shared" ref="B43:B54" si="6">C42</f>
         <v>38</v>
       </c>
-      <c r="C31" s="45">
-        <f t="shared" si="4"/>
+      <c r="C43" s="38">
+        <f>+B43+$H$9</f>
         <v>57</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D43" s="20">
         <v>10</v>
       </c>
-      <c r="E31" s="48">
-        <f>(C31+B31)/2</f>
+      <c r="E43" s="46">
+        <f>(C43+B43)/2</f>
         <v>47.5</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F43" s="39">
         <f t="shared" si="1"/>
         <v>0.10440225257797689</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G43" s="73">
         <f t="shared" si="2"/>
         <v>0.10450421719763825</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H43" s="18">
         <f t="shared" si="3"/>
         <v>20.900843439527648</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="K31" s="22">
-        <v>3</v>
-      </c>
-      <c r="L31" s="45">
-        <f t="shared" ref="L31:L41" si="9">M30</f>
+      <c r="I43" s="34"/>
+      <c r="K43" s="17">
+        <v>3</v>
+      </c>
+      <c r="L43" s="35">
+        <f t="shared" ref="L43:L53" si="7">M42</f>
         <v>38</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M43" s="35">
+        <f>+L43+$H$9</f>
+        <v>57</v>
+      </c>
+      <c r="N43" s="20">
+        <v>10</v>
+      </c>
+      <c r="O43" s="35">
+        <f t="shared" si="4"/>
+        <v>20.900843439527648</v>
+      </c>
+      <c r="P43" s="35">
         <f t="shared" si="5"/>
+        <v>5.6853393518256237</v>
+      </c>
+      <c r="Q43" s="35">
+        <f>Q42+P43</f>
+        <v>56.632111071277031</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="35">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="N31" s="26">
-        <v>10</v>
-      </c>
-      <c r="O31" s="45">
-        <f t="shared" si="6"/>
-        <v>20.900843439527648</v>
-      </c>
-      <c r="P31" s="45">
-        <f t="shared" si="7"/>
-        <v>5.6853393518256237</v>
-      </c>
-      <c r="Q31" s="45">
-        <f>Q30+P31</f>
-        <v>56.632111071277031</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="45">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="C32" s="45">
-        <f t="shared" si="4"/>
+      <c r="C44" s="38">
+        <f>+B44+$H$9</f>
         <v>76</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D44" s="20">
         <v>7</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E44" s="46">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F44" s="39">
         <f t="shared" si="1"/>
         <v>8.9583718012635996E-2</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G44" s="73">
         <f t="shared" si="2"/>
         <v>8.9671210087849507E-2</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H44" s="18">
         <f t="shared" si="3"/>
         <v>17.9342420175699</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="K32" s="22">
+      <c r="I44" s="34"/>
+      <c r="K44" s="17">
         <v>4</v>
       </c>
-      <c r="L32" s="45">
-        <f t="shared" si="9"/>
+      <c r="L44" s="35">
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M44" s="35">
+        <f>+L44+$H$9</f>
+        <v>76</v>
+      </c>
+      <c r="N44" s="20">
+        <v>7</v>
+      </c>
+      <c r="O44" s="35">
+        <f t="shared" si="4"/>
+        <v>17.9342420175699</v>
+      </c>
+      <c r="P44" s="35">
         <f t="shared" si="5"/>
+        <v>6.6664455839093897</v>
+      </c>
+      <c r="Q44" s="35">
+        <f>Q43+P44</f>
+        <v>63.298556655186417</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="35">
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="N32" s="26">
-        <v>7</v>
-      </c>
-      <c r="O32" s="45">
-        <f t="shared" si="6"/>
-        <v>17.9342420175699</v>
-      </c>
-      <c r="P32" s="45">
-        <f t="shared" si="7"/>
-        <v>6.6664455839093897</v>
-      </c>
-      <c r="Q32" s="45">
-        <f>Q31+P32</f>
-        <v>63.298556655186417</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="45">
-        <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="C33" s="45">
-        <f t="shared" si="4"/>
+      <c r="C45" s="38">
+        <f>+B45+$H$9</f>
         <v>95</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D45" s="20">
         <v>5</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E45" s="46">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F45" s="39">
         <f t="shared" si="1"/>
         <v>7.6868480658245517E-2</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G45" s="73">
         <f t="shared" si="2"/>
         <v>7.6943554377449153E-2</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H45" s="18">
         <f t="shared" si="3"/>
         <v>15.388710875489831</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="K33" s="22">
+      <c r="I45" s="34"/>
+      <c r="K45" s="17">
         <v>5</v>
       </c>
-      <c r="L33" s="45">
-        <f t="shared" si="9"/>
+      <c r="L45" s="35">
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M45" s="35">
+        <f>+L45+$H$9</f>
+        <v>95</v>
+      </c>
+      <c r="N45" s="20">
+        <v>5</v>
+      </c>
+      <c r="O45" s="35">
+        <f t="shared" si="4"/>
+        <v>15.388710875489831</v>
+      </c>
+      <c r="P45" s="35">
         <f t="shared" si="5"/>
+        <v>7.0132784043930103</v>
+      </c>
+      <c r="Q45" s="35">
+        <f t="shared" ref="Q45:Q53" si="8">Q44+P45</f>
+        <v>70.311835059579423</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="35">
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="N33" s="26">
-        <v>5</v>
-      </c>
-      <c r="O33" s="45">
-        <f t="shared" si="6"/>
-        <v>15.388710875489831</v>
-      </c>
-      <c r="P33" s="45">
-        <f t="shared" si="7"/>
-        <v>7.0132784043930103</v>
-      </c>
-      <c r="Q33" s="45">
-        <f t="shared" ref="Q33:Q41" si="10">Q32+P33</f>
-        <v>70.311835059579423</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="45">
-        <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="C34" s="45">
-        <f t="shared" si="4"/>
+      <c r="C46" s="38">
+        <f>+B46+$H$9</f>
         <v>114</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D46" s="20">
         <v>4</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E46" s="46">
         <f t="shared" si="0"/>
         <v>104.5</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F46" s="39">
         <f t="shared" si="1"/>
         <v>6.5958004978913923E-2</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G46" s="73">
         <f t="shared" si="2"/>
         <v>6.6022422965358096E-2</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H46" s="18">
         <f t="shared" si="3"/>
         <v>13.204484593071619</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="K34" s="22">
+      <c r="I46" s="34"/>
+      <c r="K46" s="17">
         <v>6</v>
       </c>
-      <c r="L34" s="45">
-        <f t="shared" si="9"/>
+      <c r="L46" s="35">
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M46" s="35">
+        <f>+L46+$H$9</f>
+        <v>114</v>
+      </c>
+      <c r="N46" s="20">
+        <v>4</v>
+      </c>
+      <c r="O46" s="35">
+        <f t="shared" si="4"/>
+        <v>13.204484593071619</v>
+      </c>
+      <c r="P46" s="35">
         <f t="shared" si="5"/>
+        <v>6.4161941366910034</v>
+      </c>
+      <c r="Q46" s="35">
+        <f t="shared" si="8"/>
+        <v>76.728029196270427</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="35">
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="N34" s="26">
-        <v>4</v>
-      </c>
-      <c r="O34" s="45">
-        <f t="shared" si="6"/>
-        <v>13.204484593071619</v>
-      </c>
-      <c r="P34" s="45">
-        <f t="shared" si="7"/>
-        <v>6.4161941366910034</v>
-      </c>
-      <c r="Q34" s="45">
-        <f t="shared" si="10"/>
-        <v>76.728029196270427</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="45">
-        <f t="shared" si="8"/>
-        <v>114</v>
-      </c>
-      <c r="C35" s="45">
-        <f t="shared" si="4"/>
+      <c r="C47" s="38">
+        <f>+B47+$H$9</f>
         <v>133</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D47" s="20">
         <v>5</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E47" s="46">
         <f t="shared" si="0"/>
         <v>123.5</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F47" s="39">
         <f t="shared" si="1"/>
         <v>5.6596128654349438E-2</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G47" s="73">
         <f t="shared" si="2"/>
         <v>5.6651403349962215E-2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H47" s="18">
         <f t="shared" si="3"/>
         <v>11.330280669992444</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="K35" s="22">
+      <c r="I47" s="34"/>
+      <c r="K47" s="17">
         <v>7</v>
       </c>
-      <c r="L35" s="45">
-        <f t="shared" si="9"/>
+      <c r="L47" s="35">
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M47" s="35">
+        <f>+L47+$H$9</f>
+        <v>133</v>
+      </c>
+      <c r="N47" s="20">
+        <v>5</v>
+      </c>
+      <c r="O47" s="35">
+        <f t="shared" si="4"/>
+        <v>11.330280669992444</v>
+      </c>
+      <c r="P47" s="35">
         <f t="shared" si="5"/>
+        <v>3.5367573432677117</v>
+      </c>
+      <c r="Q47" s="35">
+        <f t="shared" si="8"/>
+        <v>80.264786539538136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="35">
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="N35" s="26">
-        <v>5</v>
-      </c>
-      <c r="O35" s="45">
-        <f t="shared" si="6"/>
-        <v>11.330280669992444</v>
-      </c>
-      <c r="P35" s="45">
-        <f t="shared" si="7"/>
-        <v>3.5367573432677117</v>
-      </c>
-      <c r="Q35" s="45">
-        <f t="shared" si="10"/>
-        <v>80.264786539538136</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="45">
-        <f t="shared" si="8"/>
-        <v>133</v>
-      </c>
-      <c r="C36" s="45">
-        <f t="shared" si="4"/>
+      <c r="C48" s="38">
+        <f>+B48+$H$9</f>
         <v>152</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D48" s="20">
         <v>7</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E48" s="46">
         <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F48" s="39">
         <f t="shared" si="1"/>
         <v>4.856304825598768E-2</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G48" s="73">
         <f t="shared" si="2"/>
         <v>4.8610477431343058E-2</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H48" s="18">
         <f t="shared" si="3"/>
         <v>9.7220954862686106</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="K36" s="22">
+      <c r="I48" s="34"/>
+      <c r="K48" s="17">
         <v>8</v>
       </c>
-      <c r="L36" s="45">
-        <f t="shared" si="9"/>
+      <c r="L48" s="35">
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M48" s="35">
+        <f>+L48+$H$9</f>
+        <v>152</v>
+      </c>
+      <c r="N48" s="20">
+        <v>7</v>
+      </c>
+      <c r="O48" s="35">
+        <f t="shared" si="4"/>
+        <v>9.7220954862686106</v>
+      </c>
+      <c r="P48" s="35">
         <f t="shared" si="5"/>
+        <v>0.76216118704341829</v>
+      </c>
+      <c r="Q48" s="35">
+        <f t="shared" si="8"/>
+        <v>81.026947726581554</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="35">
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="N36" s="26">
-        <v>7</v>
-      </c>
-      <c r="O36" s="45">
-        <f t="shared" si="6"/>
-        <v>9.7220954862686106</v>
-      </c>
-      <c r="P36" s="45">
-        <f t="shared" si="7"/>
-        <v>0.76216118704341829</v>
-      </c>
-      <c r="Q36" s="45">
-        <f t="shared" si="10"/>
-        <v>81.026947726581554</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="45">
-        <f t="shared" si="8"/>
-        <v>152</v>
-      </c>
-      <c r="C37" s="45">
-        <f t="shared" si="4"/>
+      <c r="C49" s="38">
+        <f>+B49+$H$9</f>
         <v>171</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D49" s="20">
         <v>4</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E49" s="46">
         <f t="shared" si="0"/>
         <v>161.5</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F49" s="39">
         <f t="shared" si="1"/>
         <v>4.1670158577748355E-2</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G49" s="73">
         <f t="shared" si="2"/>
         <v>4.1710855801857072E-2</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H49" s="18">
         <f t="shared" si="3"/>
         <v>8.3421711603714144</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="K37" s="22">
+      <c r="I49" s="34"/>
+      <c r="K49" s="17">
         <v>9</v>
       </c>
-      <c r="L37" s="45">
-        <f t="shared" si="9"/>
+      <c r="L49" s="35">
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M49" s="35">
+        <f>+L49+$H$9</f>
+        <v>171</v>
+      </c>
+      <c r="N49" s="20">
+        <v>4</v>
+      </c>
+      <c r="O49" s="35">
+        <f t="shared" si="4"/>
+        <v>8.3421711603714144</v>
+      </c>
+      <c r="P49" s="35">
         <f t="shared" si="5"/>
+        <v>2.2601370822415241</v>
+      </c>
+      <c r="Q49" s="35">
+        <f t="shared" si="8"/>
+        <v>83.287084808823082</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="35">
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="N37" s="26">
-        <v>4</v>
-      </c>
-      <c r="O37" s="45">
-        <f t="shared" si="6"/>
-        <v>8.3421711603714144</v>
-      </c>
-      <c r="P37" s="45">
-        <f t="shared" si="7"/>
-        <v>2.2601370822415241</v>
-      </c>
-      <c r="Q37" s="45">
-        <f t="shared" si="10"/>
-        <v>83.287084808823082</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="45">
-        <f t="shared" si="8"/>
-        <v>171</v>
-      </c>
-      <c r="C38" s="45">
-        <f t="shared" si="4"/>
+      <c r="C50" s="38">
+        <f>+B50+$H$9</f>
         <v>190</v>
       </c>
-      <c r="D38" s="26">
-        <v>2</v>
-      </c>
-      <c r="E38" s="48">
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="46">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F50" s="39">
         <f t="shared" si="1"/>
         <v>3.5755624456308741E-2</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G50" s="73">
         <f t="shared" si="2"/>
         <v>3.5790545241621508E-2</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H50" s="18">
         <f t="shared" si="3"/>
         <v>7.1581090483243015</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="K38" s="22">
+      <c r="I50" s="34"/>
+      <c r="K50" s="17">
         <v>10</v>
       </c>
-      <c r="L38" s="45">
-        <f t="shared" si="9"/>
+      <c r="L50" s="35">
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M50" s="35">
+        <f>+L50+$H$9</f>
+        <v>190</v>
+      </c>
+      <c r="N50" s="20">
+        <v>2</v>
+      </c>
+      <c r="O50" s="35">
+        <f t="shared" si="4"/>
+        <v>7.1581090483243015</v>
+      </c>
+      <c r="P50" s="35">
         <f t="shared" si="5"/>
+        <v>3.716915846739365</v>
+      </c>
+      <c r="Q50" s="35">
+        <f t="shared" si="8"/>
+        <v>87.00400065556245</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="35">
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="N38" s="26">
-        <v>2</v>
-      </c>
-      <c r="O38" s="45">
-        <f t="shared" si="6"/>
-        <v>7.1581090483243015</v>
-      </c>
-      <c r="P38" s="45">
-        <f t="shared" si="7"/>
-        <v>3.716915846739365</v>
-      </c>
-      <c r="Q38" s="45">
-        <f t="shared" si="10"/>
-        <v>87.00400065556245</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="45">
-        <f t="shared" si="8"/>
-        <v>190</v>
-      </c>
-      <c r="C39" s="45">
-        <f t="shared" si="4"/>
+      <c r="C51" s="38">
+        <f>+B51+$H$9</f>
         <v>209</v>
       </c>
-      <c r="D39" s="26">
-        <v>3</v>
-      </c>
-      <c r="E39" s="48">
+      <c r="D51" s="20">
+        <v>3</v>
+      </c>
+      <c r="E51" s="46">
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F51" s="39">
         <f t="shared" si="1"/>
         <v>3.0680581113585612E-2</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G51" s="73">
         <f t="shared" si="2"/>
         <v>3.0710545350055463E-2</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H51" s="18">
         <f t="shared" si="3"/>
         <v>6.1421090700110925</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="K39" s="22">
+      <c r="I51" s="34"/>
+      <c r="K51" s="17">
         <v>11</v>
       </c>
-      <c r="L39" s="45">
-        <f t="shared" si="9"/>
+      <c r="L51" s="35">
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M51" s="35">
+        <f>+L51+$H$9</f>
+        <v>209</v>
+      </c>
+      <c r="N51" s="20">
+        <v>3</v>
+      </c>
+      <c r="O51" s="35">
+        <f t="shared" si="4"/>
+        <v>6.1421090700110925</v>
+      </c>
+      <c r="P51" s="35">
         <f t="shared" si="5"/>
+        <v>1.6074037916471162</v>
+      </c>
+      <c r="Q51" s="35">
+        <f t="shared" si="8"/>
+        <v>88.611404447209566</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="35">
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
-      <c r="N39" s="26">
-        <v>3</v>
-      </c>
-      <c r="O39" s="45">
-        <f t="shared" si="6"/>
-        <v>6.1421090700110925</v>
-      </c>
-      <c r="P39" s="45">
-        <f t="shared" si="7"/>
-        <v>1.6074037916471162</v>
-      </c>
-      <c r="Q39" s="45">
-        <f t="shared" si="10"/>
-        <v>88.611404447209566</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="45">
-        <f t="shared" si="8"/>
-        <v>209</v>
-      </c>
-      <c r="C40" s="45">
-        <f t="shared" si="4"/>
+      <c r="C52" s="38">
+        <f>+B52+$H$9</f>
         <v>228</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D52" s="20">
         <v>6</v>
       </c>
-      <c r="E40" s="48">
-        <f>(C40+B40)/2</f>
+      <c r="E52" s="46">
+        <f>(C52+B52)/2</f>
         <v>218.5</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F52" s="39">
         <f t="shared" si="1"/>
         <v>2.632587381091657E-2</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G52" s="73">
         <f t="shared" si="2"/>
         <v>2.6351585015838896E-2</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H52" s="18">
         <f t="shared" si="3"/>
         <v>5.2703170031677793</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="K40" s="52">
+      <c r="I52" s="34"/>
+      <c r="K52" s="42">
         <v>12</v>
       </c>
-      <c r="L40" s="45">
-        <f t="shared" si="9"/>
+      <c r="L52" s="35">
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M52" s="35">
+        <f>+L52+$H$9</f>
+        <v>228</v>
+      </c>
+      <c r="N52" s="43">
+        <v>6</v>
+      </c>
+      <c r="O52" s="35">
+        <f t="shared" si="4"/>
+        <v>5.2703170031677793</v>
+      </c>
+      <c r="P52" s="35">
         <f t="shared" si="5"/>
+        <v>0.10102566421450998</v>
+      </c>
+      <c r="Q52" s="35">
+        <f t="shared" si="8"/>
+        <v>88.712430111424069</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="35">
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
-      <c r="N40" s="53">
-        <v>6</v>
-      </c>
-      <c r="O40" s="45">
-        <f t="shared" si="6"/>
-        <v>5.2703170031677793</v>
-      </c>
-      <c r="P40" s="45">
-        <f t="shared" si="7"/>
-        <v>0.10102566421450998</v>
-      </c>
-      <c r="Q40" s="45">
-        <f t="shared" si="10"/>
-        <v>88.712430111424069</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="45">
-        <f t="shared" si="8"/>
-        <v>228</v>
-      </c>
-      <c r="C41" s="45">
-        <f t="shared" si="4"/>
+      <c r="C53" s="38">
+        <f>+B53+$H$9</f>
         <v>247</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D53" s="20">
         <v>17</v>
       </c>
-      <c r="E41" s="48">
-        <f>(C41+B41)/2</f>
+      <c r="E53" s="46">
+        <f>(C53+B53)/2</f>
         <v>237.5</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F53" s="39">
         <f t="shared" si="1"/>
         <v>2.2589260266697296E-2</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G53" s="73">
         <f t="shared" si="2"/>
         <v>2.2611322102286557E-2</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H53" s="18">
         <f t="shared" si="3"/>
         <v>4.5222644204573115</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="K41" s="22">
+      <c r="I53" s="34"/>
+      <c r="K53" s="17">
         <v>13</v>
       </c>
-      <c r="L41" s="45">
-        <f t="shared" si="9"/>
+      <c r="L53" s="35">
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
-      <c r="M41" s="45">
+      <c r="M53" s="35">
+        <f>+L53+$H$9</f>
+        <v>247</v>
+      </c>
+      <c r="N53" s="35">
+        <f>D53+D54</f>
+        <v>71</v>
+      </c>
+      <c r="O53" s="35">
+        <f>H53+H54</f>
+        <v>8.4026525406106103</v>
+      </c>
+      <c r="P53" s="46">
         <f t="shared" si="5"/>
+        <v>466.33225520316188</v>
+      </c>
+      <c r="Q53" s="40">
+        <f t="shared" si="8"/>
+        <v>555.04468531458599</v>
+      </c>
+      <c r="R53" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="35">
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
-      <c r="N41" s="45">
-        <f>D41+D42</f>
-        <v>71</v>
-      </c>
-      <c r="O41" s="45">
-        <f>H41+H42</f>
-        <v>8.4026525406106103</v>
-      </c>
-      <c r="P41" s="56">
-        <f t="shared" si="7"/>
-        <v>466.33225520316188</v>
-      </c>
-      <c r="Q41" s="50">
-        <f t="shared" si="10"/>
-        <v>555.04468531458599</v>
-      </c>
-      <c r="R41" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="45">
-        <f t="shared" si="8"/>
-        <v>247</v>
-      </c>
-      <c r="C42" s="45">
-        <f t="shared" si="4"/>
+      <c r="C54" s="38">
+        <f>+B54+$H$9</f>
         <v>266</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D54" s="20">
         <v>54</v>
       </c>
-      <c r="E42" s="48">
-        <f>(C42+B42)/2</f>
+      <c r="E54" s="46">
+        <f>(C54+B54)/2</f>
         <v>256.5</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F54" s="39">
         <f t="shared" si="1"/>
         <v>1.9383010154253384E-2</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G54" s="73">
         <f t="shared" si="2"/>
         <v>1.9401940600766499E-2</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H54" s="18">
         <f t="shared" si="3"/>
         <v>3.8803881201532997</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="57">
+      <c r="I54" s="34"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="5">
+        <f>SUM(N41:N53)</f>
+        <v>200</v>
+      </c>
+      <c r="O54" s="41">
+        <f>SUM(O41:O53)</f>
+        <v>176.54156734577228</v>
+      </c>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="47">
         <v>19.675000000000001</v>
       </c>
-      <c r="R42" s="32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F43" s="55">
-        <f>SUM(F29:F42)</f>
+      <c r="R54" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D55" s="20">
+        <f>SUM(D41:D54)</f>
+        <v>200</v>
+      </c>
+      <c r="F55" s="45">
+        <f>SUM(F41:F54)</f>
         <v>0.88184657991781834</v>
       </c>
-      <c r="G43" s="55">
-        <f>SUM(G29:G42)</f>
+      <c r="G55" s="45">
+        <f>SUM(G41:G54)</f>
         <v>0.88270783672886155</v>
       </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="O43" s="51"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D45" s="36"/>
-      <c r="K45" s="43" t="s">
+      <c r="H55" s="18">
+        <f>SUM(H41:H54)</f>
+        <v>176.54156734577228</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="O55" s="41"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>182</v>
+      </c>
+      <c r="K56" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D57" s="29"/>
+      <c r="K57" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="L45" s="44"/>
-      <c r="M45" s="13">
+      <c r="L57" s="65">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K77" s="54"/>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D58" s="29"/>
+      <c r="L58" s="70"/>
+    </row>
+    <row r="60" spans="2:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="B60" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/TP/TP1.xlsx
+++ b/TP/TP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scrimaglia/Documents/DataMac/Documents/UTN/UTN2024/SIM/4K3/TP1/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F241A24-2DD4-1C43-886D-95E799A0E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD7E98-73CA-0346-87D9-B5FA0405DCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="19180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serie de Datos" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Conexiones al mismo Servicio'!$D$41:$D$54</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Conexiones al mismo Servicio'!$D$41:$D$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Conexiones al mismo Servicio'!$N$41:$N$53</definedName>
     <definedName name="L">'Conexiones al mismo Servicio'!$C$11</definedName>
     <definedName name="Lambda" localSheetId="2">'[1]Conexiones al mismo Host'!$C$28</definedName>
     <definedName name="Lambda">'Conexiones a un mismo Host'!$C$31</definedName>
@@ -109,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5336" uniqueCount="198">
   <si>
     <t>tcp</t>
   </si>
@@ -666,9 +663,6 @@
     <t>Prueba de bondad Chi cuadrado sobre la serie de datos: Conexiones a un mismo host</t>
   </si>
   <si>
-    <t>H0: La serie corresponde a una distribución exponencial negativa de lamda 0,01</t>
-  </si>
-  <si>
     <t>H0: La serie corresponde a una distribución exponencial negativa de lambda 0,01</t>
   </si>
   <si>
@@ -793,15 +787,6 @@
     <t>Chi</t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>1-alfa</t>
-  </si>
-  <si>
-    <t>1-Alfa</t>
-  </si>
-  <si>
     <t>Intervalos Optimazados (fe&gt;=5)</t>
   </si>
   <si>
@@ -815,6 +800,12 @@
   </si>
   <si>
     <t>Nro de conexiones a un mismo host en los ultimos 2 seg</t>
+  </si>
+  <si>
+    <t>N. Significacion</t>
+  </si>
+  <si>
+    <t>N. Confianza</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1254,13 +1245,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,11 +1259,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28351,14 +28341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -28368,17 +28358,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.25">
@@ -28404,7 +28394,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49" t="s">
@@ -28534,7 +28524,7 @@
     </row>
     <row r="32" spans="2:31" ht="19" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="57">
         <f>B28-1-1</f>
@@ -28558,7 +28548,7 @@
     </row>
     <row r="33" spans="2:31" ht="19" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C33" s="57">
         <v>0.05</v>
@@ -28576,7 +28566,7 @@
     </row>
     <row r="34" spans="2:31" ht="19" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C34" s="63">
         <f>1-C33</f>
@@ -28610,7 +28600,7 @@
         <v>184</v>
       </c>
       <c r="J36" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
@@ -28697,7 +28687,7 @@
         <v>173</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>181</v>
@@ -28717,7 +28707,7 @@
       <c r="B40" s="20">
         <v>0</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="68">
         <f>+B40+$H$29</f>
         <v>37</v>
       </c>
@@ -28725,7 +28715,7 @@
         <f t="array" ref="D40:D53">FREQUENCY('Serie de Datos'!G5:G204,'Conexiones a un mismo Host'!C40:C53)</f>
         <v>125</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="69">
         <f t="shared" ref="E40:E53" si="0">(C40+B40)/2</f>
         <v>18.5</v>
       </c>
@@ -28785,14 +28775,14 @@
         <f>+C40</f>
         <v>37</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="68">
         <f t="shared" ref="C41:C53" si="3">+B41+$H$29</f>
         <v>74</v>
       </c>
       <c r="D41" s="13">
         <v>7</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="69">
         <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
@@ -28852,14 +28842,14 @@
         <f t="shared" ref="B42:B53" si="8">+C41</f>
         <v>74</v>
       </c>
-      <c r="C42" s="71">
+      <c r="C42" s="68">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="D42" s="13">
         <v>7</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="69">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -28919,14 +28909,14 @@
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
-      <c r="C43" s="71">
+      <c r="C43" s="68">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="D43" s="13">
         <v>10</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="69">
         <f t="shared" si="0"/>
         <v>129.5</v>
       </c>
@@ -28985,14 +28975,14 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="C44" s="71">
+      <c r="C44" s="68">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
       <c r="D44" s="13">
         <v>7</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="69">
         <f t="shared" si="0"/>
         <v>166.5</v>
       </c>
@@ -29052,14 +29042,14 @@
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
-      <c r="C45" s="71">
+      <c r="C45" s="68">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="D45" s="13">
         <v>4</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="69">
         <f t="shared" si="0"/>
         <v>203.5</v>
       </c>
@@ -29109,14 +29099,14 @@
         <f t="shared" si="8"/>
         <v>222</v>
       </c>
-      <c r="C46" s="71">
+      <c r="C46" s="68">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
       <c r="D46" s="13">
         <v>9</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="69">
         <f t="shared" si="0"/>
         <v>240.5</v>
       </c>
@@ -29166,14 +29156,14 @@
         <f t="shared" si="8"/>
         <v>259</v>
       </c>
-      <c r="C47" s="71">
+      <c r="C47" s="68">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="D47" s="13">
         <v>7</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="69">
         <f t="shared" si="0"/>
         <v>277.5</v>
       </c>
@@ -29223,14 +29213,14 @@
         <f t="shared" si="8"/>
         <v>296</v>
       </c>
-      <c r="C48" s="71">
+      <c r="C48" s="68">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="69">
         <f t="shared" si="0"/>
         <v>314.5</v>
       </c>
@@ -29283,14 +29273,14 @@
         <f t="shared" si="8"/>
         <v>333</v>
       </c>
-      <c r="C49" s="71">
+      <c r="C49" s="68">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
       <c r="D49" s="13">
         <v>3</v>
       </c>
-      <c r="E49" s="72">
+      <c r="E49" s="69">
         <f t="shared" si="0"/>
         <v>351.5</v>
       </c>
@@ -29319,7 +29309,7 @@
       </c>
       <c r="O49" s="4"/>
       <c r="P49" s="27">
-        <v>2.165</v>
+        <v>14.067</v>
       </c>
       <c r="Q49" s="25" t="s">
         <v>180</v>
@@ -29330,14 +29320,14 @@
         <f t="shared" si="8"/>
         <v>370</v>
       </c>
-      <c r="C50" s="71">
+      <c r="C50" s="68">
         <f t="shared" si="3"/>
         <v>407</v>
       </c>
       <c r="D50" s="13">
         <v>4</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="69">
         <f t="shared" si="0"/>
         <v>388.5</v>
       </c>
@@ -29361,14 +29351,14 @@
         <f t="shared" si="8"/>
         <v>407</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="68">
         <f t="shared" si="3"/>
         <v>444</v>
       </c>
       <c r="D51" s="13">
         <v>0</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="69">
         <f t="shared" si="0"/>
         <v>425.5</v>
       </c>
@@ -29385,11 +29375,11 @@
         <v>1.0118579464175603</v>
       </c>
       <c r="I51" s="26"/>
-      <c r="J51" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
+      <c r="J51" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
       <c r="M51" s="12">
         <v>9</v>
       </c>
@@ -29400,14 +29390,14 @@
         <f t="shared" si="8"/>
         <v>444</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="68">
         <f t="shared" si="3"/>
         <v>481</v>
       </c>
       <c r="D52" s="13">
         <v>2</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="69">
         <f t="shared" si="0"/>
         <v>462.5</v>
       </c>
@@ -29424,10 +29414,10 @@
         <v>0.69551398968854539</v>
       </c>
       <c r="I52" s="26"/>
-      <c r="J52" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="K52" s="69">
+      <c r="J52" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="K52" s="67">
         <f>J48-1-1</f>
         <v>7</v>
       </c>
@@ -29440,14 +29430,14 @@
         <f t="shared" si="8"/>
         <v>481</v>
       </c>
-      <c r="C53" s="71">
+      <c r="C53" s="68">
         <f t="shared" si="3"/>
         <v>518</v>
       </c>
       <c r="D53" s="13">
         <v>14</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="69">
         <f t="shared" si="0"/>
         <v>499.5</v>
       </c>
@@ -29495,7 +29485,7 @@
     </row>
     <row r="57" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B57" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -29514,14 +29504,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -29536,20 +29526,20 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
@@ -29560,7 +29550,7 @@
         <v>165</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49" t="s">
@@ -29639,7 +29629,7 @@
     </row>
     <row r="12" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="57">
         <f>B8-1-1</f>
@@ -29653,7 +29643,7 @@
     </row>
     <row r="13" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C13" s="57">
         <v>0.05</v>
@@ -29661,7 +29651,7 @@
     </row>
     <row r="14" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C14" s="63">
         <f>1-C13</f>
@@ -29677,7 +29667,7 @@
         <v>183</v>
       </c>
       <c r="K37" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29734,7 +29724,7 @@
         <v>173</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>181</v>
@@ -29745,7 +29735,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="38">
-        <f>+B41+$H$9</f>
+        <f t="shared" ref="C41:C54" si="0">+B41+$H$9</f>
         <v>19</v>
       </c>
       <c r="D41" s="20">
@@ -29753,19 +29743,19 @@
         <v>64</v>
       </c>
       <c r="E41" s="46">
-        <f t="shared" ref="E41:E51" si="0">(C41+B41)/2</f>
+        <f t="shared" ref="E41:E51" si="1">(C41+B41)/2</f>
         <v>9.5</v>
       </c>
       <c r="F41" s="39">
-        <f t="shared" ref="F41:F54" si="1">L*EXP(-L*E41)*(C41-B41)</f>
+        <f t="shared" ref="F41:F54" si="2">L*EXP(-L*E41)*(C41-B41)</f>
         <v>0.14179843610823964</v>
       </c>
-      <c r="G41" s="73">
-        <f t="shared" ref="G41:G54" si="2">(1-EXP(-L*C41))-(1-EXP(-L*B41))</f>
+      <c r="G41" s="70">
+        <f t="shared" ref="G41:G54" si="3">(1-EXP(-L*C41))-(1-EXP(-L*B41))</f>
         <v>0.14193692376774258</v>
       </c>
       <c r="H41" s="18">
-        <f t="shared" ref="H41:H54" si="3">G41*Muestra</f>
+        <f t="shared" ref="H41:H54" si="4">G41*Muestra</f>
         <v>28.387384753548517</v>
       </c>
       <c r="I41" s="34"/>
@@ -29776,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="35">
-        <f>+L41+$H$9</f>
+        <f t="shared" ref="M41:M53" si="5">+L41+$H$9</f>
         <v>19</v>
       </c>
       <c r="N41" s="20">
@@ -29802,7 +29792,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="38">
-        <f>+B42+$H$9</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D42" s="20">
@@ -29813,15 +29803,15 @@
         <v>28.5</v>
       </c>
       <c r="F42" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12167200229195935</v>
       </c>
-      <c r="G42" s="73">
-        <f t="shared" si="2"/>
+      <c r="G42" s="70">
+        <f t="shared" si="3"/>
         <v>0.12179083343909269</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.358166687818539</v>
       </c>
       <c r="I42" s="34"/>
@@ -29833,18 +29823,18 @@
         <v>19</v>
       </c>
       <c r="M42" s="35">
-        <f>+L42+$H$9</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="N42" s="20">
         <v>12</v>
       </c>
       <c r="O42" s="35">
-        <f t="shared" ref="O42:O52" si="4">+H42</f>
+        <f t="shared" ref="O42:O52" si="6">+H42</f>
         <v>24.358166687818539</v>
       </c>
       <c r="P42" s="35">
-        <f t="shared" ref="P42:P53" si="5">((O42-N42)^2)/O42</f>
+        <f t="shared" ref="P42:P53" si="7">((O42-N42)^2)/O42</f>
         <v>6.2699416520655022</v>
       </c>
       <c r="Q42" s="35">
@@ -29854,11 +29844,11 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="35">
-        <f t="shared" ref="B43:B54" si="6">C42</f>
+        <f t="shared" ref="B43:B54" si="8">C42</f>
         <v>38</v>
       </c>
       <c r="C43" s="38">
-        <f>+B43+$H$9</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D43" s="20">
@@ -29869,15 +29859,15 @@
         <v>47.5</v>
       </c>
       <c r="F43" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10440225257797689</v>
       </c>
-      <c r="G43" s="73">
-        <f t="shared" si="2"/>
+      <c r="G43" s="70">
+        <f t="shared" si="3"/>
         <v>0.10450421719763825</v>
       </c>
       <c r="H43" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.900843439527648</v>
       </c>
       <c r="I43" s="34"/>
@@ -29885,22 +29875,22 @@
         <v>3</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:L53" si="7">M42</f>
+        <f t="shared" ref="L43:L53" si="9">M42</f>
         <v>38</v>
       </c>
       <c r="M43" s="35">
-        <f>+L43+$H$9</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="N43" s="20">
         <v>10</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20.900843439527648</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6853393518256237</v>
       </c>
       <c r="Q43" s="35">
@@ -29910,30 +29900,30 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="C44" s="38">
-        <f>+B44+$H$9</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="D44" s="20">
         <v>7</v>
       </c>
       <c r="E44" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
       <c r="F44" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9583718012635996E-2</v>
       </c>
-      <c r="G44" s="73">
-        <f t="shared" si="2"/>
+      <c r="G44" s="70">
+        <f t="shared" si="3"/>
         <v>8.9671210087849507E-2</v>
       </c>
       <c r="H44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.9342420175699</v>
       </c>
       <c r="I44" s="34"/>
@@ -29941,22 +29931,22 @@
         <v>4</v>
       </c>
       <c r="L44" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="M44" s="35">
-        <f>+L44+$H$9</f>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="N44" s="20">
         <v>7</v>
       </c>
       <c r="O44" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.9342420175699</v>
       </c>
       <c r="P44" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.6664455839093897</v>
       </c>
       <c r="Q44" s="35">
@@ -29966,30 +29956,30 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="C45" s="38">
-        <f>+B45+$H$9</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D45" s="20">
         <v>5</v>
       </c>
       <c r="E45" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
       <c r="F45" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6868480658245517E-2</v>
       </c>
-      <c r="G45" s="73">
-        <f t="shared" si="2"/>
+      <c r="G45" s="70">
+        <f t="shared" si="3"/>
         <v>7.6943554377449153E-2</v>
       </c>
       <c r="H45" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.388710875489831</v>
       </c>
       <c r="I45" s="34"/>
@@ -29997,55 +29987,55 @@
         <v>5</v>
       </c>
       <c r="L45" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="M45" s="35">
-        <f>+L45+$H$9</f>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="N45" s="20">
         <v>5</v>
       </c>
       <c r="O45" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.388710875489831</v>
       </c>
       <c r="P45" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0132784043930103</v>
       </c>
       <c r="Q45" s="35">
-        <f t="shared" ref="Q45:Q53" si="8">Q44+P45</f>
+        <f t="shared" ref="Q45:Q53" si="10">Q44+P45</f>
         <v>70.311835059579423</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="C46" s="38">
-        <f>+B46+$H$9</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="D46" s="20">
         <v>4</v>
       </c>
       <c r="E46" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
       <c r="F46" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5958004978913923E-2</v>
       </c>
-      <c r="G46" s="73">
-        <f t="shared" si="2"/>
+      <c r="G46" s="70">
+        <f t="shared" si="3"/>
         <v>6.6022422965358096E-2</v>
       </c>
       <c r="H46" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.204484593071619</v>
       </c>
       <c r="I46" s="34"/>
@@ -30053,55 +30043,55 @@
         <v>6</v>
       </c>
       <c r="L46" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="M46" s="35">
-        <f>+L46+$H$9</f>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="N46" s="20">
         <v>4</v>
       </c>
       <c r="O46" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13.204484593071619</v>
       </c>
       <c r="P46" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4161941366910034</v>
       </c>
       <c r="Q46" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.728029196270427</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="C47" s="38">
-        <f>+B47+$H$9</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="D47" s="20">
         <v>5</v>
       </c>
       <c r="E47" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123.5</v>
       </c>
       <c r="F47" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6596128654349438E-2</v>
       </c>
-      <c r="G47" s="73">
-        <f t="shared" si="2"/>
+      <c r="G47" s="70">
+        <f t="shared" si="3"/>
         <v>5.6651403349962215E-2</v>
       </c>
       <c r="H47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.330280669992444</v>
       </c>
       <c r="I47" s="34"/>
@@ -30109,55 +30099,55 @@
         <v>7</v>
       </c>
       <c r="L47" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="M47" s="35">
-        <f>+L47+$H$9</f>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="N47" s="20">
         <v>5</v>
       </c>
       <c r="O47" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.330280669992444</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5367573432677117</v>
       </c>
       <c r="Q47" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80.264786539538136</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="C48" s="38">
-        <f>+B48+$H$9</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="D48" s="20">
         <v>7</v>
       </c>
       <c r="E48" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142.5</v>
       </c>
       <c r="F48" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.856304825598768E-2</v>
       </c>
-      <c r="G48" s="73">
-        <f t="shared" si="2"/>
+      <c r="G48" s="70">
+        <f t="shared" si="3"/>
         <v>4.8610477431343058E-2</v>
       </c>
       <c r="H48" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7220954862686106</v>
       </c>
       <c r="I48" s="34"/>
@@ -30165,55 +30155,55 @@
         <v>8</v>
       </c>
       <c r="L48" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="M48" s="35">
-        <f>+L48+$H$9</f>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="N48" s="20">
         <v>7</v>
       </c>
       <c r="O48" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.7220954862686106</v>
       </c>
       <c r="P48" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76216118704341829</v>
       </c>
       <c r="Q48" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>81.026947726581554</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
       <c r="C49" s="38">
-        <f>+B49+$H$9</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="D49" s="20">
         <v>4</v>
       </c>
       <c r="E49" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161.5</v>
       </c>
       <c r="F49" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1670158577748355E-2</v>
       </c>
-      <c r="G49" s="73">
-        <f t="shared" si="2"/>
+      <c r="G49" s="70">
+        <f t="shared" si="3"/>
         <v>4.1710855801857072E-2</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3421711603714144</v>
       </c>
       <c r="I49" s="34"/>
@@ -30221,55 +30211,55 @@
         <v>9</v>
       </c>
       <c r="L49" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="M49" s="35">
-        <f>+L49+$H$9</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="N49" s="20">
         <v>4</v>
       </c>
       <c r="O49" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3421711603714144</v>
       </c>
       <c r="P49" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2601370822415241</v>
       </c>
       <c r="Q49" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>83.287084808823082</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="C50" s="38">
-        <f>+B50+$H$9</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="D50" s="20">
         <v>2</v>
       </c>
       <c r="E50" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.5</v>
       </c>
       <c r="F50" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5755624456308741E-2</v>
       </c>
-      <c r="G50" s="73">
-        <f t="shared" si="2"/>
+      <c r="G50" s="70">
+        <f t="shared" si="3"/>
         <v>3.5790545241621508E-2</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1581090483243015</v>
       </c>
       <c r="I50" s="34"/>
@@ -30277,55 +30267,55 @@
         <v>10</v>
       </c>
       <c r="L50" s="35">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="M50" s="35">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="N50" s="20">
+        <v>2</v>
+      </c>
+      <c r="O50" s="35">
+        <f t="shared" si="6"/>
+        <v>7.1581090483243015</v>
+      </c>
+      <c r="P50" s="35">
         <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-      <c r="M50" s="35">
-        <f>+L50+$H$9</f>
-        <v>190</v>
-      </c>
-      <c r="N50" s="20">
-        <v>2</v>
-      </c>
-      <c r="O50" s="35">
-        <f t="shared" si="4"/>
-        <v>7.1581090483243015</v>
-      </c>
-      <c r="P50" s="35">
-        <f t="shared" si="5"/>
         <v>3.716915846739365</v>
       </c>
       <c r="Q50" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87.00400065556245</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="C51" s="38">
-        <f>+B51+$H$9</f>
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
       <c r="D51" s="20">
         <v>3</v>
       </c>
       <c r="E51" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
       <c r="F51" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0680581113585612E-2</v>
       </c>
-      <c r="G51" s="73">
-        <f t="shared" si="2"/>
+      <c r="G51" s="70">
+        <f t="shared" si="3"/>
         <v>3.0710545350055463E-2</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1421090700110925</v>
       </c>
       <c r="I51" s="34"/>
@@ -30333,36 +30323,36 @@
         <v>11</v>
       </c>
       <c r="L51" s="35">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="M51" s="35">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="N51" s="20">
+        <v>3</v>
+      </c>
+      <c r="O51" s="35">
+        <f t="shared" si="6"/>
+        <v>6.1421090700110925</v>
+      </c>
+      <c r="P51" s="35">
         <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-      <c r="M51" s="35">
-        <f>+L51+$H$9</f>
-        <v>209</v>
-      </c>
-      <c r="N51" s="20">
-        <v>3</v>
-      </c>
-      <c r="O51" s="35">
-        <f t="shared" si="4"/>
-        <v>6.1421090700110925</v>
-      </c>
-      <c r="P51" s="35">
-        <f t="shared" si="5"/>
         <v>1.6074037916471162</v>
       </c>
       <c r="Q51" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>88.611404447209566</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="C52" s="38">
-        <f>+B52+$H$9</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="D52" s="20">
@@ -30373,15 +30363,15 @@
         <v>218.5</v>
       </c>
       <c r="F52" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.632587381091657E-2</v>
       </c>
-      <c r="G52" s="73">
-        <f t="shared" si="2"/>
+      <c r="G52" s="70">
+        <f t="shared" si="3"/>
         <v>2.6351585015838896E-2</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2703170031677793</v>
       </c>
       <c r="I52" s="34"/>
@@ -30389,36 +30379,36 @@
         <v>12</v>
       </c>
       <c r="L52" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
       <c r="M52" s="35">
-        <f>+L52+$H$9</f>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="N52" s="43">
         <v>6</v>
       </c>
       <c r="O52" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2703170031677793</v>
       </c>
       <c r="P52" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10102566421450998</v>
       </c>
       <c r="Q52" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>88.712430111424069</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="C53" s="38">
-        <f>+B53+$H$9</f>
+        <f t="shared" si="0"/>
         <v>247</v>
       </c>
       <c r="D53" s="20">
@@ -30429,15 +30419,15 @@
         <v>237.5</v>
       </c>
       <c r="F53" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2589260266697296E-2</v>
       </c>
-      <c r="G53" s="73">
-        <f t="shared" si="2"/>
+      <c r="G53" s="70">
+        <f t="shared" si="3"/>
         <v>2.2611322102286557E-2</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5222644204573115</v>
       </c>
       <c r="I53" s="34"/>
@@ -30445,11 +30435,11 @@
         <v>13</v>
       </c>
       <c r="L53" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>228</v>
       </c>
       <c r="M53" s="35">
-        <f>+L53+$H$9</f>
+        <f t="shared" si="5"/>
         <v>247</v>
       </c>
       <c r="N53" s="35">
@@ -30461,11 +30451,11 @@
         <v>8.4026525406106103</v>
       </c>
       <c r="P53" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>466.33225520316188</v>
       </c>
       <c r="Q53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>555.04468531458599</v>
       </c>
       <c r="R53" s="25" t="s">
@@ -30474,11 +30464,11 @@
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="C54" s="38">
-        <f>+B54+$H$9</f>
+        <f t="shared" si="0"/>
         <v>266</v>
       </c>
       <c r="D54" s="20">
@@ -30489,15 +30479,15 @@
         <v>256.5</v>
       </c>
       <c r="F54" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9383010154253384E-2</v>
       </c>
-      <c r="G54" s="73">
-        <f t="shared" si="2"/>
+      <c r="G54" s="70">
+        <f t="shared" si="3"/>
         <v>1.9401940600766499E-2</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8803881201532997</v>
       </c>
       <c r="I54" s="34"/>
@@ -30544,11 +30534,11 @@
       <c r="D56" t="s">
         <v>182</v>
       </c>
-      <c r="K56" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
+      <c r="K56" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
       <c r="N56" s="12">
         <v>13</v>
       </c>
@@ -30556,7 +30546,7 @@
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D57" s="29"/>
       <c r="K57" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L57" s="65">
         <v>11</v>
@@ -30564,11 +30554,10 @@
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D58" s="29"/>
-      <c r="L58" s="70"/>
     </row>
     <row r="60" spans="2:18" ht="19" x14ac:dyDescent="0.25">
       <c r="B60" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
